--- a/output2/【河洛話注音】working.xlsx
+++ b/output2/【河洛話注音】working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677036B9-5C1D-4521-A0BA-74778260E8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA56CAF-43A8-4113-94A6-964A71A65738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="184">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1023,21 +1023,6 @@
     <t>IMAGE_URL</t>
   </si>
   <si>
-    <t>，</t>
-  </si>
-  <si>
-    <t>分</t>
-  </si>
-  <si>
-    <t>第</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>。</t>
-  </si>
-  <si>
     <t>ㄚˋ</t>
   </si>
   <si>
@@ -1069,30 +1054,6 @@
     <t>ㄚㄏˊ</t>
   </si>
   <si>
-    <t>須</t>
-  </si>
-  <si>
-    <t>菩</t>
-  </si>
-  <si>
-    <t>提</t>
-  </si>
-  <si>
-    <t>「</t>
-  </si>
-  <si>
-    <t>！</t>
-  </si>
-  <si>
-    <t>何</t>
-  </si>
-  <si>
-    <t>」</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
     <t>https://shoplineimg.com/5db585d59db3cb0012a18bce/5f2a9d3f30cc6200455c1c25/1296x.webp?source_format=jpg</t>
   </si>
   <si>
@@ -1104,9 +1065,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有</t>
-  </si>
-  <si>
     <t>C:\\work\\Piau-Im</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1117,1104 +1075,12 @@
     <t>output2</t>
   </si>
   <si>
-    <t>、</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>世</t>
-  </si>
-  <si>
-    <t>為</t>
-  </si>
-  <si>
-    <t>說</t>
-  </si>
-  <si>
-    <t>十</t>
-  </si>
-  <si>
-    <t>如</t>
-  </si>
-  <si>
-    <t>若</t>
-  </si>
-  <si>
-    <t>此</t>
-  </si>
-  <si>
-    <t>經</t>
-  </si>
-  <si>
-    <t>受</t>
-  </si>
-  <si>
-    <t>持</t>
-  </si>
-  <si>
-    <t>復</t>
-  </si>
-  <si>
-    <t>當</t>
-  </si>
-  <si>
-    <t>羅</t>
-  </si>
-  <si>
-    <t>即</t>
-  </si>
-  <si>
-    <t>言</t>
-  </si>
-  <si>
-    <t>？</t>
-  </si>
-  <si>
-    <t>我</t>
-  </si>
-  <si>
-    <t>以</t>
-  </si>
-  <si>
-    <t>者</t>
-  </si>
-  <si>
-    <t>於</t>
-  </si>
-  <si>
-    <t>來</t>
-  </si>
-  <si>
-    <t>不</t>
-  </si>
-  <si>
-    <t>無</t>
-  </si>
-  <si>
-    <t>諸</t>
-  </si>
-  <si>
-    <t>得</t>
-  </si>
-  <si>
-    <t>故</t>
-  </si>
-  <si>
-    <t>身</t>
-  </si>
-  <si>
-    <t>其</t>
-  </si>
-  <si>
-    <t>聞</t>
-  </si>
-  <si>
-    <t>解</t>
-  </si>
-  <si>
-    <t>而</t>
-  </si>
-  <si>
-    <t>典</t>
-  </si>
-  <si>
-    <t>之</t>
-  </si>
-  <si>
-    <t>信</t>
-  </si>
-  <si>
-    <t>心</t>
-  </si>
-  <si>
-    <t>生</t>
-  </si>
-  <si>
-    <t>知</t>
-  </si>
-  <si>
-    <t>成</t>
-  </si>
-  <si>
-    <t>就</t>
-  </si>
-  <si>
-    <t>一</t>
-  </si>
-  <si>
-    <t>功</t>
-  </si>
-  <si>
-    <t>德</t>
-  </si>
-  <si>
-    <t>則</t>
-  </si>
-  <si>
-    <t>後</t>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>百</t>
-  </si>
-  <si>
-    <t>眾</t>
-  </si>
-  <si>
-    <t>壽</t>
-  </si>
-  <si>
-    <t>；</t>
-  </si>
-  <si>
-    <t>切</t>
-  </si>
-  <si>
-    <t>應</t>
-  </si>
-  <si>
-    <t>hun1</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄣˉ</t>
-  </si>
-  <si>
-    <t>te7</t>
-  </si>
-  <si>
-    <t>ㄉㆤ˫</t>
-  </si>
-  <si>
-    <t>sip8</t>
-  </si>
-  <si>
-    <t>ㄒ一ㆴ˙</t>
-  </si>
-  <si>
-    <t>su1</t>
-  </si>
-  <si>
-    <t>ㄙㄨˉ</t>
-  </si>
-  <si>
-    <t>phoo5</t>
-  </si>
-  <si>
-    <t>ㄆㆦˊ</t>
-  </si>
-  <si>
-    <t>the5</t>
-  </si>
-  <si>
-    <t>ㄊㆤˊ</t>
-  </si>
-  <si>
-    <t>bun5</t>
-  </si>
-  <si>
-    <t>ㆠㄨㄣˊ</t>
-  </si>
-  <si>
-    <t>suat4</t>
-  </si>
-  <si>
-    <t>ㄙㄨㄚㆵ</t>
-  </si>
-  <si>
-    <t>si6</t>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-  </si>
-  <si>
-    <t>king1</t>
-  </si>
-  <si>
-    <t>ㄍㄧㄥˉ</t>
-  </si>
-  <si>
-    <t>kai2</t>
-  </si>
-  <si>
-    <t>ㄍㄞˋ</t>
-  </si>
-  <si>
-    <t>gi7</t>
-  </si>
-  <si>
-    <t>ㆣㄧ˫</t>
-  </si>
-  <si>
-    <t>cu3</t>
-  </si>
-  <si>
-    <t>ㄘㄨ˪</t>
-  </si>
-  <si>
-    <t>ji5</t>
-  </si>
-  <si>
-    <t>ㆢㄧˊ</t>
-  </si>
-  <si>
-    <t>gian5</t>
-  </si>
-  <si>
-    <t>ㆣㄧㄢˊ</t>
-  </si>
-  <si>
-    <t>iu2</t>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-  </si>
-  <si>
-    <t>se3</t>
-  </si>
-  <si>
-    <t>ㄙㆤ˪</t>
-  </si>
-  <si>
-    <t>ju5</t>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-  </si>
-  <si>
-    <t>tian2</t>
-  </si>
-  <si>
-    <t>ㄉㄧㄢˋ</t>
-  </si>
-  <si>
-    <t>ngoo2</t>
-  </si>
-  <si>
-    <t>ㄫㆦˋ</t>
-  </si>
-  <si>
-    <t>sik4</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆻ</t>
-  </si>
-  <si>
-    <t>lai5</t>
-  </si>
-  <si>
-    <t>ㄌㄞˊ</t>
-  </si>
-  <si>
-    <t>soo2</t>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-  </si>
-  <si>
-    <t>tit4</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆵ</t>
-  </si>
-  <si>
-    <t>zi1</t>
-  </si>
-  <si>
-    <t>ㄐㄧˉ</t>
-  </si>
-  <si>
-    <t>jiok8</t>
-  </si>
-  <si>
-    <t>ㆢㄧㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>hok8</t>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>jin5</t>
-  </si>
-  <si>
-    <t>ㆢㄧㄣˊ</t>
-  </si>
-  <si>
-    <t>sin3</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄣ˪</t>
-  </si>
-  <si>
-    <t>sim1</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆬˉ</t>
-  </si>
-  <si>
-    <t>cing1</t>
-  </si>
-  <si>
-    <t>ㄑㄧㄥˉ</t>
-  </si>
-  <si>
-    <t>zik4</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆻ</t>
-  </si>
-  <si>
-    <t>sing1</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄥˉ</t>
-  </si>
-  <si>
-    <t>tong1</t>
-  </si>
-  <si>
-    <t>ㄉㆲˉ</t>
-  </si>
-  <si>
-    <t>ti1</t>
-  </si>
-  <si>
-    <t>ㄉㄧˉ</t>
-  </si>
-  <si>
-    <t>ziu7</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄨ˫</t>
-  </si>
-  <si>
-    <t>it4</t>
-  </si>
-  <si>
-    <t>ㄧㆵ</t>
-  </si>
-  <si>
-    <t>kang1</t>
-  </si>
-  <si>
-    <t>ㄍㄤˉ</t>
-  </si>
-  <si>
-    <t>tik4</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆻ</t>
-  </si>
-  <si>
-    <t>zia2</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄚˋ</t>
-  </si>
-  <si>
-    <t>koo3</t>
-  </si>
-  <si>
-    <t>ㄍㆦ˪</t>
-  </si>
-  <si>
-    <t>siu7</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄨ˫</t>
-  </si>
-  <si>
-    <t>ci5</t>
-  </si>
-  <si>
-    <t>ㄑㄧˊ</t>
-  </si>
-  <si>
-    <t>put4</t>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ</t>
-  </si>
-  <si>
-    <t>ui5</t>
-  </si>
-  <si>
-    <t>ㄨㄧˊ</t>
-  </si>
-  <si>
-    <t>hoo7</t>
-  </si>
-  <si>
-    <t>ㄏㆦ˫</t>
-  </si>
-  <si>
-    <t>pik4</t>
-  </si>
-  <si>
-    <t>ㄅㄧㆻ</t>
-  </si>
-  <si>
-    <t>ki5</t>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-  </si>
-  <si>
-    <t>ziong3</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆲ˪</t>
-  </si>
-  <si>
-    <t>ho5</t>
-  </si>
-  <si>
-    <t>ㄏㄜˊ</t>
-  </si>
-  <si>
-    <t>i2</t>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-  </si>
-  <si>
-    <t>cu2</t>
-  </si>
-  <si>
-    <t>ㄘㄨˋ</t>
-  </si>
-  <si>
-    <t>bu5</t>
-  </si>
-  <si>
-    <t>ㆠㄨˊ</t>
-  </si>
-  <si>
-    <t>ce3</t>
-  </si>
-  <si>
-    <t>ㄘㆤ˪</t>
-  </si>
-  <si>
-    <t>zu1</t>
-  </si>
-  <si>
-    <t>ㄗㄨˉ</t>
-  </si>
-  <si>
-    <t>poo3</t>
-  </si>
-  <si>
-    <t>ㄅㆦ˪</t>
-  </si>
-  <si>
-    <t>lo5</t>
-  </si>
-  <si>
-    <t>ㄌㄜˊ</t>
-  </si>
-  <si>
-    <t>sin1</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄣˉ</t>
-  </si>
-  <si>
-    <t>u5</t>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-  </si>
-  <si>
-    <t>in3</t>
-  </si>
-  <si>
-    <t>ㄧㄣ˪</t>
-  </si>
-  <si>
-    <t>sing5</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄥˊ</t>
-  </si>
-  <si>
-    <t>持經功德分第十五
-「須菩提！若有善男子、善女人，初日分以恆河沙等身布施；中日分復以恆河沙等身布施；後日分亦以恆河沙等身布施，如是無量百千萬億劫，以身布施。
-若復有人，聞此經典，信心不逆，其福勝彼。何況書寫、受持、讀誦、為人解說。
-須菩提！以要言之，是經有不可思議，不可稱量，無邊功德，如來為發大乘者說，為發最上乘者說，若有人能受持、讀誦、廣為人說，如來悉知是人、悉見是人，皆得成就不可量、不可稱、無有邊、不可思議功德，如是人等，即為荷擔如來阿耨多羅三藐三菩提。何以故？須菩提！若樂小法者，著我見、人見、眾生見、壽者見，則於此經不能聽受、讀誦、為人解說。
-須菩提！在在處處，若有此經，一切世間，天、人、阿修羅所應供養，當知此處，則為是塔，皆應恭敬，作禮圍遶，以諸華香而散其處。」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>善</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>子</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>初</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>恆</t>
-  </si>
-  <si>
-    <t>河</t>
-  </si>
-  <si>
-    <t>沙</t>
-  </si>
-  <si>
-    <t>等</t>
-  </si>
-  <si>
-    <t>布</t>
-  </si>
-  <si>
-    <t>施</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>亦</t>
-  </si>
-  <si>
-    <t>量</t>
-  </si>
-  <si>
-    <t>千</t>
-  </si>
-  <si>
-    <t>萬</t>
-  </si>
-  <si>
-    <t>億</t>
-  </si>
-  <si>
-    <t>劫</t>
-  </si>
-  <si>
-    <t>逆</t>
-  </si>
-  <si>
-    <t>福</t>
-  </si>
-  <si>
-    <t>勝</t>
-  </si>
-  <si>
-    <t>彼</t>
-  </si>
-  <si>
-    <t>況</t>
-  </si>
-  <si>
-    <t>書</t>
-  </si>
-  <si>
-    <t>寫</t>
-  </si>
-  <si>
-    <t>讀</t>
-  </si>
-  <si>
-    <t>誦</t>
-  </si>
-  <si>
-    <t>要</t>
-  </si>
-  <si>
-    <t>可</t>
-  </si>
-  <si>
-    <t>思</t>
-  </si>
-  <si>
-    <t>議</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>邊</t>
-  </si>
-  <si>
-    <t>發</t>
-  </si>
-  <si>
-    <t>大</t>
-  </si>
-  <si>
-    <t>乘</t>
-  </si>
-  <si>
-    <t>最</t>
-  </si>
-  <si>
-    <t>上</t>
-  </si>
-  <si>
-    <t>能</t>
-  </si>
-  <si>
-    <t>廣</t>
-  </si>
-  <si>
-    <t>悉</t>
-  </si>
-  <si>
-    <t>見</t>
-  </si>
-  <si>
-    <t>皆</t>
-  </si>
-  <si>
-    <t>荷</t>
-  </si>
-  <si>
-    <t>擔</t>
-  </si>
-  <si>
-    <t>阿</t>
-  </si>
-  <si>
-    <t>耨</t>
-  </si>
-  <si>
-    <t>多</t>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>藐</t>
-  </si>
-  <si>
-    <t>樂</t>
-  </si>
-  <si>
-    <t>小</t>
-  </si>
-  <si>
-    <t>法</t>
-  </si>
-  <si>
-    <t>著</t>
-  </si>
-  <si>
-    <t>聽</t>
-  </si>
-  <si>
-    <t>在</t>
-  </si>
-  <si>
-    <t>處</t>
-  </si>
-  <si>
-    <t>間</t>
-  </si>
-  <si>
-    <t>天</t>
-  </si>
-  <si>
-    <t>修</t>
-  </si>
-  <si>
-    <t>供</t>
-  </si>
-  <si>
-    <t>養</t>
-  </si>
-  <si>
-    <t>塔</t>
-  </si>
-  <si>
-    <t>恭</t>
-  </si>
-  <si>
-    <t>敬</t>
-  </si>
-  <si>
-    <t>作</t>
-  </si>
-  <si>
-    <t>禮</t>
-  </si>
-  <si>
-    <t>圍</t>
-  </si>
-  <si>
-    <t>遶</t>
-  </si>
-  <si>
-    <t>華</t>
-  </si>
-  <si>
-    <t>香</t>
-  </si>
-  <si>
-    <t>散</t>
-  </si>
-  <si>
-    <t>sian3</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄢ˪</t>
-  </si>
-  <si>
-    <t>lam5</t>
-  </si>
-  <si>
-    <t>ㄌㆰˊ</t>
-  </si>
-  <si>
-    <t>zu2</t>
-  </si>
-  <si>
-    <t>ㄗㄨˋ</t>
-  </si>
-  <si>
-    <t>lu2</t>
-  </si>
-  <si>
-    <t>ㄌㄨˋ</t>
-  </si>
-  <si>
-    <t>cere1</t>
-  </si>
-  <si>
-    <t>ㄘˉ</t>
-  </si>
-  <si>
-    <t>jit8</t>
-  </si>
-  <si>
-    <t>ㆢㄧㆵ˙</t>
-  </si>
-  <si>
-    <t>hing5</t>
-  </si>
-  <si>
-    <t>ㄏㄧㄥˊ</t>
-  </si>
-  <si>
-    <t>sa1</t>
-  </si>
-  <si>
-    <t>ㄙㄚˉ</t>
-  </si>
-  <si>
-    <t>ting2</t>
-  </si>
-  <si>
-    <t>ㄉㄧㄥˋ</t>
-  </si>
-  <si>
-    <t>si1</t>
-  </si>
-  <si>
-    <t>ㄒㄧˉ</t>
-  </si>
-  <si>
-    <t>tiong1</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆲˉ</t>
-  </si>
-  <si>
-    <t>ik8</t>
-  </si>
-  <si>
-    <t>ㄧㆻ˙</t>
-  </si>
-  <si>
-    <t>liong7</t>
-  </si>
-  <si>
-    <t>ㄌㄧㆲ˫</t>
-  </si>
-  <si>
-    <t>cian1</t>
-  </si>
-  <si>
-    <t>ㄑㄧㄢˉ</t>
-  </si>
-  <si>
-    <t>ban7</t>
-  </si>
-  <si>
-    <t>ㆠㄢ˫</t>
-  </si>
-  <si>
-    <t>ik4</t>
-  </si>
-  <si>
-    <t>ㄧㆻ</t>
-  </si>
-  <si>
-    <t>kiap4</t>
-  </si>
-  <si>
-    <t>ㄍㄧㄚㆴ</t>
-  </si>
-  <si>
-    <t>gik8</t>
-  </si>
-  <si>
-    <t>ㆣㄧㆻ˙</t>
-  </si>
-  <si>
-    <t>hok4</t>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ</t>
-  </si>
-  <si>
-    <t>sing3</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄥ˪</t>
-  </si>
-  <si>
-    <t>pi2</t>
-  </si>
-  <si>
-    <t>ㄅㄧˋ</t>
-  </si>
-  <si>
-    <t>hong2</t>
-  </si>
-  <si>
-    <t>ㄏㆲˋ</t>
-  </si>
-  <si>
-    <t>zir1</t>
-  </si>
-  <si>
-    <t>ㄐˉ</t>
-  </si>
-  <si>
-    <t>thok8</t>
-  </si>
-  <si>
-    <t>ㄊㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>iau1</t>
-  </si>
-  <si>
-    <t>ㄧㄠˉ</t>
-  </si>
-  <si>
-    <t>kho2</t>
-  </si>
-  <si>
-    <t>ㄎㄜˋ</t>
-  </si>
-  <si>
-    <t>pian1</t>
-  </si>
-  <si>
-    <t>ㄅㄧㄢˉ</t>
-  </si>
-  <si>
-    <t>puh4</t>
-  </si>
-  <si>
-    <t>ㄅㄨㆷ</t>
-  </si>
-  <si>
-    <t>tai7</t>
-  </si>
-  <si>
-    <t>ㄉㄞ˫</t>
-  </si>
-  <si>
-    <t>zue3</t>
-  </si>
-  <si>
-    <t>ㄗㄨㆤ˪</t>
-  </si>
-  <si>
-    <t>siang7</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄤ˫</t>
-  </si>
-  <si>
-    <t>ling5</t>
-  </si>
-  <si>
-    <t>ㄌㄧㄥˊ</t>
-  </si>
-  <si>
-    <t>kng2</t>
-  </si>
-  <si>
-    <t>ㄍㆭˋ</t>
-  </si>
-  <si>
-    <t>kian3</t>
-  </si>
-  <si>
-    <t>ㄍㄧㄢ˪</t>
-  </si>
-  <si>
-    <t>kai1</t>
-  </si>
-  <si>
-    <t>ㄍㄞˉ</t>
-  </si>
-  <si>
-    <t>tann1</t>
-  </si>
-  <si>
-    <t>ㄉㆩˉ</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>ㄚˉ</t>
-  </si>
-  <si>
-    <t>loo7</t>
-  </si>
-  <si>
-    <t>ㄌㆦ˫</t>
-  </si>
-  <si>
-    <t>to1</t>
-  </si>
-  <si>
-    <t>ㄉㄜˉ</t>
-  </si>
-  <si>
-    <t>sam3</t>
-  </si>
-  <si>
-    <t>ㄙㆰ˪</t>
-  </si>
-  <si>
-    <t>biau2</t>
-  </si>
-  <si>
-    <t>ㆠㄧㄠˋ</t>
-  </si>
-  <si>
-    <t>ngau7</t>
-  </si>
-  <si>
-    <t>ㄫㄠ˫</t>
-  </si>
-  <si>
-    <t>sio2</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄜˋ</t>
-  </si>
-  <si>
-    <t>huat4</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ</t>
-  </si>
-  <si>
-    <t>tiok8</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>thiann1</t>
-  </si>
-  <si>
-    <t>ㄊㄧㆩˉ</t>
-  </si>
-  <si>
-    <t>zai6</t>
-  </si>
-  <si>
-    <t>ㄗㄞˋ</t>
-  </si>
-  <si>
-    <t>kainn1</t>
-  </si>
-  <si>
-    <t>ㄍㆮˉ</t>
-  </si>
-  <si>
-    <t>thian1</t>
-  </si>
-  <si>
-    <t>ㄊㄧㄢˉ</t>
-  </si>
-  <si>
-    <t>siu1</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄨˉ</t>
-  </si>
-  <si>
-    <t>iong2</t>
-  </si>
-  <si>
-    <t>ㄧㆲˋ</t>
-  </si>
-  <si>
-    <t>thah4</t>
-  </si>
-  <si>
-    <t>ㄊㄚㆷ</t>
-  </si>
-  <si>
-    <t>king3</t>
-  </si>
-  <si>
-    <t>ㄍㄧㄥ˪</t>
-  </si>
-  <si>
-    <t>zok4</t>
-  </si>
-  <si>
-    <t>ㄗㆦㆻ</t>
-  </si>
-  <si>
-    <t>le2</t>
-  </si>
-  <si>
-    <t>ㄌㆤˋ</t>
-  </si>
-  <si>
-    <t>hua3</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄚ˪</t>
-  </si>
-  <si>
-    <t>hiong1</t>
-  </si>
-  <si>
-    <t>ㄏㄧㆲˉ</t>
-  </si>
-  <si>
-    <t>san2</t>
-  </si>
-  <si>
-    <t>ㄙㄢˋ</t>
+    <t>能淨業障分第十六
+復次：「須菩提！善男子、善女人，受持、讀誦此經，若為人輕賤，是人先世罪業，應墮惡道。以今世人輕賤故，先世罪業，則為消滅，當得阿耨多羅三藐三菩提。
+須菩提！我念過去無量阿僧祇劫，於然燈佛前，得值八百四千萬億那由他諸佛，悉皆供養承事，無空過者。若復有人，於後末世，能受持、讀誦此經，所得功德，於我所供養諸佛功德，百分不及一，千萬億分，乃至算數譬喻所不能及。
+須菩提！若善男子、善女人，於後末世，有受持、讀誦此經，所得功德，我若具說者，或有人聞，心則狂亂，狐疑不信。
+須菩提！當知是經義不可思議，果報亦不可思議。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3893,7 +2759,7 @@
         <v>162</v>
       </c>
       <c r="C2" s="93" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -3909,8 +2775,8 @@
         <v>165</v>
       </c>
       <c r="C4" s="63" t="str">
-        <f xml:space="preserve"> "金剛般若波羅蜜經" &amp; TEXT(14, "000") &amp; _xlfn.CONCAT("。", 漢字注音!D5:R5)</f>
-        <v>金剛般若波羅蜜經014。持經功德分第十五</v>
+        <f xml:space="preserve"> "金剛般若波羅蜜經" &amp; TEXT(15, "000") &amp; _xlfn.CONCAT("。", 漢字注音!D5:R5)</f>
+        <v>金剛般若波羅蜜經015。</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3918,15 +2784,15 @@
         <v>166</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="89" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -3939,7 +2805,7 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="89" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C9" s="92">
         <v>40</v>
@@ -3947,7 +2813,7 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="90" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C10" s="92">
         <v>15</v>
@@ -4002,7 +2868,7 @@
       <c r="S2" s="60"/>
       <c r="V2" s="68">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>338</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="2:22" s="76" customFormat="1" ht="60" customHeight="1">
@@ -4026,35 +2892,19 @@
       <c r="S3" s="73"/>
       <c r="T3" s="71"/>
       <c r="V3" s="103" t="s">
-        <v>372</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
-      <c r="D4" s="100" t="s">
-        <v>334</v>
-      </c>
-      <c r="E4" s="100" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" s="100" t="s">
-        <v>324</v>
-      </c>
-      <c r="G4" s="100" t="s">
-        <v>326</v>
-      </c>
-      <c r="H4" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="I4" s="100" t="s">
-        <v>252</v>
-      </c>
-      <c r="J4" s="100" t="s">
-        <v>254</v>
-      </c>
-      <c r="K4" s="100" t="s">
-        <v>288</v>
-      </c>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
       <c r="L4" s="100"/>
       <c r="M4" s="100"/>
       <c r="N4" s="100"/>
@@ -4069,30 +2919,14 @@
       <c r="B5" s="66">
         <v>1</v>
       </c>
-      <c r="D5" s="95" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="95" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="95" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" s="96" t="s">
-        <v>240</v>
-      </c>
-      <c r="H5" s="95" t="s">
-        <v>168</v>
-      </c>
-      <c r="I5" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="J5" s="95" t="s">
-        <v>202</v>
-      </c>
-      <c r="K5" s="95" t="s">
-        <v>243</v>
-      </c>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
       <c r="L5" s="95"/>
       <c r="M5" s="95"/>
       <c r="N5" s="95"/>
@@ -4106,30 +2940,14 @@
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
-      <c r="D6" s="101" t="s">
-        <v>335</v>
-      </c>
-      <c r="E6" s="101" t="s">
-        <v>269</v>
-      </c>
-      <c r="F6" s="101" t="s">
-        <v>325</v>
-      </c>
-      <c r="G6" s="101" t="s">
-        <v>327</v>
-      </c>
-      <c r="H6" s="101" t="s">
-        <v>251</v>
-      </c>
-      <c r="I6" s="101" t="s">
-        <v>253</v>
-      </c>
-      <c r="J6" s="101" t="s">
-        <v>255</v>
-      </c>
-      <c r="K6" s="101" t="s">
-        <v>289</v>
-      </c>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
       <c r="L6" s="101"/>
       <c r="M6" s="101"/>
       <c r="N6" s="101"/>
@@ -4165,41 +2983,19 @@
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="100"/>
-      <c r="E8" s="100" t="s">
-        <v>256</v>
-      </c>
-      <c r="F8" s="100" t="s">
-        <v>258</v>
-      </c>
-      <c r="G8" s="100" t="s">
-        <v>260</v>
-      </c>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
       <c r="H8" s="100"/>
-      <c r="I8" s="100" t="s">
-        <v>300</v>
-      </c>
-      <c r="J8" s="100" t="s">
-        <v>280</v>
-      </c>
-      <c r="K8" s="100" t="s">
-        <v>446</v>
-      </c>
-      <c r="L8" s="100" t="s">
-        <v>448</v>
-      </c>
-      <c r="M8" s="100" t="s">
-        <v>450</v>
-      </c>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
       <c r="N8" s="100"/>
-      <c r="O8" s="100" t="s">
-        <v>446</v>
-      </c>
-      <c r="P8" s="100" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q8" s="100" t="s">
-        <v>304</v>
-      </c>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
       <c r="R8" s="100"/>
       <c r="S8" s="53"/>
       <c r="V8" s="104"/>
@@ -4210,51 +3006,21 @@
         <v>2</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="95" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="G9" s="96" t="s">
-        <v>184</v>
-      </c>
-      <c r="H9" s="95" t="s">
-        <v>186</v>
-      </c>
-      <c r="I9" s="95" t="s">
-        <v>204</v>
-      </c>
-      <c r="J9" s="95" t="s">
-        <v>193</v>
-      </c>
-      <c r="K9" s="95" t="s">
-        <v>373</v>
-      </c>
-      <c r="L9" s="95" t="s">
-        <v>374</v>
-      </c>
-      <c r="M9" s="95" t="s">
-        <v>375</v>
-      </c>
-      <c r="N9" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="O9" s="95" t="s">
-        <v>373</v>
-      </c>
-      <c r="P9" s="95" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q9" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="R9" s="95" t="s">
-        <v>167</v>
-      </c>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
       <c r="S9" s="54"/>
       <c r="T9" s="71"/>
       <c r="V9" s="104"/>
@@ -4263,41 +3029,19 @@
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="101"/>
-      <c r="E10" s="101" t="s">
-        <v>257</v>
-      </c>
-      <c r="F10" s="101" t="s">
-        <v>259</v>
-      </c>
-      <c r="G10" s="101" t="s">
-        <v>261</v>
-      </c>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
       <c r="H10" s="101"/>
-      <c r="I10" s="101" t="s">
-        <v>301</v>
-      </c>
-      <c r="J10" s="101" t="s">
-        <v>281</v>
-      </c>
-      <c r="K10" s="101" t="s">
-        <v>447</v>
-      </c>
-      <c r="L10" s="101" t="s">
-        <v>449</v>
-      </c>
-      <c r="M10" s="101" t="s">
-        <v>451</v>
-      </c>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
       <c r="N10" s="101"/>
-      <c r="O10" s="101" t="s">
-        <v>447</v>
-      </c>
-      <c r="P10" s="101" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q10" s="101" t="s">
-        <v>305</v>
-      </c>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
       <c r="R10" s="101"/>
       <c r="S10" s="58"/>
       <c r="V10" s="104"/>
@@ -4326,49 +3070,21 @@
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
-      <c r="D12" s="100" t="s">
-        <v>454</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>456</v>
-      </c>
-      <c r="F12" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="G12" s="100" t="s">
-        <v>350</v>
-      </c>
-      <c r="H12" s="100" t="s">
-        <v>458</v>
-      </c>
-      <c r="I12" s="100" t="s">
-        <v>348</v>
-      </c>
-      <c r="J12" s="100" t="s">
-        <v>460</v>
-      </c>
-      <c r="K12" s="100" t="s">
-        <v>462</v>
-      </c>
-      <c r="L12" s="100" t="s">
-        <v>364</v>
-      </c>
-      <c r="M12" s="100" t="s">
-        <v>360</v>
-      </c>
-      <c r="N12" s="100" t="s">
-        <v>464</v>
-      </c>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
       <c r="O12" s="100"/>
-      <c r="P12" s="100" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q12" s="100" t="s">
-        <v>456</v>
-      </c>
-      <c r="R12" s="100" t="s">
-        <v>250</v>
-      </c>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
       <c r="S12" s="53"/>
       <c r="V12" s="104"/>
     </row>
@@ -4378,100 +3094,42 @@
         <v>3</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="95" t="s">
-        <v>377</v>
-      </c>
-      <c r="E13" s="95" t="s">
-        <v>378</v>
-      </c>
-      <c r="F13" s="95" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="H13" s="95" t="s">
-        <v>379</v>
-      </c>
-      <c r="I13" s="95" t="s">
-        <v>380</v>
-      </c>
-      <c r="J13" s="95" t="s">
-        <v>381</v>
-      </c>
-      <c r="K13" s="95" t="s">
-        <v>382</v>
-      </c>
-      <c r="L13" s="95" t="s">
-        <v>225</v>
-      </c>
-      <c r="M13" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N13" s="95" t="s">
-        <v>384</v>
-      </c>
-      <c r="O13" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="P13" s="95" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q13" s="95" t="s">
-        <v>378</v>
-      </c>
-      <c r="R13" s="95" t="s">
-        <v>168</v>
-      </c>
+      <c r="D13" s="98"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
       <c r="S13" s="54"/>
       <c r="V13" s="104"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
-      <c r="D14" s="101" t="s">
-        <v>455</v>
-      </c>
-      <c r="E14" s="101" t="s">
-        <v>457</v>
-      </c>
-      <c r="F14" s="101" t="s">
-        <v>251</v>
-      </c>
-      <c r="G14" s="101" t="s">
-        <v>351</v>
-      </c>
-      <c r="H14" s="101" t="s">
-        <v>459</v>
-      </c>
-      <c r="I14" s="101" t="s">
-        <v>349</v>
-      </c>
-      <c r="J14" s="101" t="s">
-        <v>461</v>
-      </c>
-      <c r="K14" s="101" t="s">
-        <v>463</v>
-      </c>
-      <c r="L14" s="101" t="s">
-        <v>365</v>
-      </c>
-      <c r="M14" s="101" t="s">
-        <v>361</v>
-      </c>
-      <c r="N14" s="101" t="s">
-        <v>465</v>
-      </c>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
       <c r="O14" s="101"/>
-      <c r="P14" s="101" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q14" s="101" t="s">
-        <v>457</v>
-      </c>
-      <c r="R14" s="101" t="s">
-        <v>251</v>
-      </c>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
       <c r="S14" s="58"/>
       <c r="V14" s="104"/>
     </row>
@@ -4499,49 +3157,21 @@
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
-      <c r="D16" s="100" t="s">
-        <v>302</v>
-      </c>
-      <c r="E16" s="100" t="s">
-        <v>350</v>
-      </c>
-      <c r="F16" s="100" t="s">
-        <v>458</v>
-      </c>
-      <c r="G16" s="100" t="s">
-        <v>348</v>
-      </c>
-      <c r="H16" s="100" t="s">
-        <v>460</v>
-      </c>
-      <c r="I16" s="100" t="s">
-        <v>462</v>
-      </c>
-      <c r="J16" s="100" t="s">
-        <v>364</v>
-      </c>
-      <c r="K16" s="100" t="s">
-        <v>360</v>
-      </c>
-      <c r="L16" s="100" t="s">
-        <v>464</v>
-      </c>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
       <c r="M16" s="100"/>
-      <c r="N16" s="100" t="s">
-        <v>340</v>
-      </c>
-      <c r="O16" s="100" t="s">
-        <v>456</v>
-      </c>
-      <c r="P16" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q16" s="100" t="s">
-        <v>468</v>
-      </c>
-      <c r="R16" s="100" t="s">
-        <v>350</v>
-      </c>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="100"/>
       <c r="S16" s="53"/>
       <c r="V16" s="104"/>
     </row>
@@ -4551,100 +3181,42 @@
         <v>4</v>
       </c>
       <c r="C17" s="52"/>
-      <c r="D17" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" s="95" t="s">
-        <v>216</v>
-      </c>
-      <c r="F17" s="95" t="s">
-        <v>379</v>
-      </c>
-      <c r="G17" s="96" t="s">
-        <v>380</v>
-      </c>
-      <c r="H17" s="95" t="s">
-        <v>381</v>
-      </c>
-      <c r="I17" s="95" t="s">
-        <v>382</v>
-      </c>
-      <c r="J17" s="95" t="s">
-        <v>225</v>
-      </c>
-      <c r="K17" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="L17" s="98" t="s">
-        <v>384</v>
-      </c>
-      <c r="M17" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="N17" s="95" t="s">
-        <v>242</v>
-      </c>
-      <c r="O17" s="95" t="s">
-        <v>378</v>
-      </c>
-      <c r="P17" s="95" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q17" s="95" t="s">
-        <v>386</v>
-      </c>
-      <c r="R17" s="95" t="s">
-        <v>216</v>
-      </c>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
       <c r="S17" s="54"/>
       <c r="V17" s="104"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
-      <c r="D18" s="101" t="s">
-        <v>303</v>
-      </c>
-      <c r="E18" s="101" t="s">
-        <v>351</v>
-      </c>
-      <c r="F18" s="101" t="s">
-        <v>459</v>
-      </c>
-      <c r="G18" s="101" t="s">
-        <v>349</v>
-      </c>
-      <c r="H18" s="101" t="s">
-        <v>461</v>
-      </c>
-      <c r="I18" s="101" t="s">
-        <v>463</v>
-      </c>
-      <c r="J18" s="101" t="s">
-        <v>365</v>
-      </c>
-      <c r="K18" s="101" t="s">
-        <v>361</v>
-      </c>
-      <c r="L18" s="101" t="s">
-        <v>465</v>
-      </c>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
       <c r="M18" s="101"/>
-      <c r="N18" s="101" t="s">
-        <v>341</v>
-      </c>
-      <c r="O18" s="101" t="s">
-        <v>457</v>
-      </c>
-      <c r="P18" s="101" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q18" s="101" t="s">
-        <v>469</v>
-      </c>
-      <c r="R18" s="101" t="s">
-        <v>351</v>
-      </c>
+      <c r="N18" s="101"/>
+      <c r="O18" s="101"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="101"/>
       <c r="S18" s="58"/>
       <c r="V18" s="104"/>
     </row>
@@ -4672,49 +3244,21 @@
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
-      <c r="D20" s="100" t="s">
-        <v>458</v>
-      </c>
-      <c r="E20" s="100" t="s">
-        <v>348</v>
-      </c>
-      <c r="F20" s="100" t="s">
-        <v>460</v>
-      </c>
-      <c r="G20" s="100" t="s">
-        <v>462</v>
-      </c>
-      <c r="H20" s="100" t="s">
-        <v>364</v>
-      </c>
-      <c r="I20" s="100" t="s">
-        <v>360</v>
-      </c>
-      <c r="J20" s="100" t="s">
-        <v>464</v>
-      </c>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
       <c r="K20" s="100"/>
-      <c r="L20" s="100" t="s">
-        <v>284</v>
-      </c>
-      <c r="M20" s="100" t="s">
-        <v>266</v>
-      </c>
-      <c r="N20" s="100" t="s">
-        <v>354</v>
-      </c>
-      <c r="O20" s="100" t="s">
-        <v>470</v>
-      </c>
-      <c r="P20" s="100" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q20" s="100" t="s">
-        <v>472</v>
-      </c>
-      <c r="R20" s="100" t="s">
-        <v>474</v>
-      </c>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
       <c r="S20" s="53"/>
       <c r="V20" s="104"/>
     </row>
@@ -4724,100 +3268,42 @@
         <v>5</v>
       </c>
       <c r="C21" s="52"/>
-      <c r="D21" s="95" t="s">
-        <v>379</v>
-      </c>
-      <c r="E21" s="95" t="s">
-        <v>380</v>
-      </c>
-      <c r="F21" s="95" t="s">
-        <v>381</v>
-      </c>
-      <c r="G21" s="96" t="s">
-        <v>382</v>
-      </c>
-      <c r="H21" s="98" t="s">
-        <v>225</v>
-      </c>
-      <c r="I21" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="J21" s="95" t="s">
-        <v>384</v>
-      </c>
-      <c r="K21" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="L21" s="95" t="s">
-        <v>203</v>
-      </c>
-      <c r="M21" s="95" t="s">
-        <v>170</v>
-      </c>
-      <c r="N21" s="95" t="s">
-        <v>221</v>
-      </c>
-      <c r="O21" s="95" t="s">
-        <v>387</v>
-      </c>
-      <c r="P21" s="95" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q21" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="R21" s="95" t="s">
-        <v>389</v>
-      </c>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
       <c r="S21" s="54"/>
       <c r="V21" s="104"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
-      <c r="D22" s="101" t="s">
-        <v>459</v>
-      </c>
-      <c r="E22" s="101" t="s">
-        <v>349</v>
-      </c>
-      <c r="F22" s="101" t="s">
-        <v>461</v>
-      </c>
-      <c r="G22" s="101" t="s">
-        <v>463</v>
-      </c>
-      <c r="H22" s="101" t="s">
-        <v>365</v>
-      </c>
-      <c r="I22" s="101" t="s">
-        <v>361</v>
-      </c>
-      <c r="J22" s="101" t="s">
-        <v>465</v>
-      </c>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
       <c r="K22" s="101"/>
-      <c r="L22" s="101" t="s">
-        <v>285</v>
-      </c>
-      <c r="M22" s="101" t="s">
-        <v>267</v>
-      </c>
-      <c r="N22" s="101" t="s">
-        <v>355</v>
-      </c>
-      <c r="O22" s="101" t="s">
-        <v>471</v>
-      </c>
-      <c r="P22" s="101" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q22" s="101" t="s">
-        <v>473</v>
-      </c>
-      <c r="R22" s="101" t="s">
-        <v>475</v>
-      </c>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="101"/>
       <c r="S22" s="58"/>
       <c r="V22" s="105"/>
     </row>
@@ -4845,25 +3331,13 @@
     <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
-      <c r="D24" s="100" t="s">
-        <v>476</v>
-      </c>
-      <c r="E24" s="100" t="s">
-        <v>478</v>
-      </c>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
       <c r="F24" s="100"/>
-      <c r="G24" s="100" t="s">
-        <v>350</v>
-      </c>
-      <c r="H24" s="100" t="s">
-        <v>364</v>
-      </c>
-      <c r="I24" s="100" t="s">
-        <v>360</v>
-      </c>
-      <c r="J24" s="100" t="s">
-        <v>464</v>
-      </c>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
       <c r="K24" s="100"/>
       <c r="L24" s="100"/>
       <c r="M24" s="100"/>
@@ -4881,30 +3355,14 @@
         <v>6</v>
       </c>
       <c r="C25" s="52"/>
-      <c r="D25" s="95" t="s">
-        <v>390</v>
-      </c>
-      <c r="E25" s="95" t="s">
-        <v>391</v>
-      </c>
-      <c r="F25" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="H25" s="95" t="s">
-        <v>225</v>
-      </c>
-      <c r="I25" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="J25" s="95" t="s">
-        <v>384</v>
-      </c>
-      <c r="K25" s="95" t="s">
-        <v>171</v>
-      </c>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
       <c r="L25" s="95"/>
       <c r="M25" s="95"/>
       <c r="N25" s="95"/>
@@ -4918,25 +3376,13 @@
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
-      <c r="D26" s="101" t="s">
-        <v>477</v>
-      </c>
-      <c r="E26" s="101" t="s">
-        <v>479</v>
-      </c>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
       <c r="F26" s="101"/>
-      <c r="G26" s="101" t="s">
-        <v>351</v>
-      </c>
-      <c r="H26" s="101" t="s">
-        <v>365</v>
-      </c>
-      <c r="I26" s="101" t="s">
-        <v>361</v>
-      </c>
-      <c r="J26" s="101" t="s">
-        <v>465</v>
-      </c>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
       <c r="K26" s="101"/>
       <c r="L26" s="101"/>
       <c r="M26" s="101"/>
@@ -4980,44 +3426,20 @@
     <row r="28" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
-      <c r="D28" s="100" t="s">
-        <v>300</v>
-      </c>
-      <c r="E28" s="100" t="s">
-        <v>302</v>
-      </c>
-      <c r="F28" s="100" t="s">
-        <v>280</v>
-      </c>
-      <c r="G28" s="100" t="s">
-        <v>304</v>
-      </c>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
       <c r="H28" s="100"/>
-      <c r="I28" s="100" t="s">
-        <v>262</v>
-      </c>
-      <c r="J28" s="100" t="s">
-        <v>352</v>
-      </c>
-      <c r="K28" s="100" t="s">
-        <v>268</v>
-      </c>
-      <c r="L28" s="100" t="s">
-        <v>286</v>
-      </c>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
       <c r="M28" s="100"/>
-      <c r="N28" s="100" t="s">
-        <v>306</v>
-      </c>
-      <c r="O28" s="100" t="s">
-        <v>308</v>
-      </c>
-      <c r="P28" s="100" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q28" s="100" t="s">
-        <v>480</v>
-      </c>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
       <c r="R28" s="100"/>
       <c r="S28" s="53"/>
       <c r="U28" s="82" t="str">
@@ -5032,51 +3454,21 @@
         <v>7</v>
       </c>
       <c r="C29" s="52"/>
-      <c r="D29" s="95" t="s">
-        <v>204</v>
-      </c>
-      <c r="E29" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="F29" s="95" t="s">
-        <v>193</v>
-      </c>
-      <c r="G29" s="96" t="s">
-        <v>198</v>
-      </c>
-      <c r="H29" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="I29" s="95" t="s">
-        <v>227</v>
-      </c>
-      <c r="J29" s="95" t="s">
-        <v>205</v>
-      </c>
-      <c r="K29" s="95" t="s">
-        <v>206</v>
-      </c>
-      <c r="L29" s="95" t="s">
-        <v>230</v>
-      </c>
-      <c r="M29" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="N29" s="95" t="s">
-        <v>232</v>
-      </c>
-      <c r="O29" s="98" t="s">
-        <v>233</v>
-      </c>
-      <c r="P29" s="95" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q29" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="R29" s="95" t="s">
-        <v>167</v>
-      </c>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
       <c r="S29" s="54"/>
       <c r="U29" s="82" t="str">
         <f t="shared" si="0"/>
@@ -5087,44 +3479,20 @@
     <row r="30" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
-      <c r="D30" s="101" t="s">
-        <v>301</v>
-      </c>
-      <c r="E30" s="101" t="s">
-        <v>303</v>
-      </c>
-      <c r="F30" s="101" t="s">
-        <v>281</v>
-      </c>
-      <c r="G30" s="101" t="s">
-        <v>305</v>
-      </c>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
       <c r="H30" s="101"/>
-      <c r="I30" s="101" t="s">
-        <v>263</v>
-      </c>
-      <c r="J30" s="101" t="s">
-        <v>353</v>
-      </c>
-      <c r="K30" s="101" t="s">
-        <v>269</v>
-      </c>
-      <c r="L30" s="101" t="s">
-        <v>287</v>
-      </c>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
       <c r="M30" s="101"/>
-      <c r="N30" s="101" t="s">
-        <v>307</v>
-      </c>
-      <c r="O30" s="101" t="s">
-        <v>309</v>
-      </c>
-      <c r="P30" s="101" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q30" s="101" t="s">
-        <v>481</v>
-      </c>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
       <c r="R30" s="101"/>
       <c r="S30" s="58"/>
       <c r="U30" s="82" t="str">
@@ -5161,40 +3529,20 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
-      <c r="D32" s="100" t="s">
-        <v>344</v>
-      </c>
-      <c r="E32" s="100" t="s">
-        <v>482</v>
-      </c>
-      <c r="F32" s="100" t="s">
-        <v>484</v>
-      </c>
-      <c r="G32" s="100" t="s">
-        <v>486</v>
-      </c>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
       <c r="H32" s="100"/>
-      <c r="I32" s="100" t="s">
-        <v>348</v>
-      </c>
-      <c r="J32" s="100" t="s">
-        <v>488</v>
-      </c>
-      <c r="K32" s="100" t="s">
-        <v>490</v>
-      </c>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
       <c r="L32" s="100"/>
       <c r="M32" s="100"/>
-      <c r="N32" s="100" t="s">
-        <v>332</v>
-      </c>
-      <c r="O32" s="100" t="s">
-        <v>334</v>
-      </c>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
       <c r="P32" s="100"/>
-      <c r="Q32" s="100" t="s">
-        <v>492</v>
-      </c>
+      <c r="Q32" s="100"/>
       <c r="R32" s="100"/>
       <c r="S32" s="53"/>
       <c r="U32" s="82" t="str">
@@ -5209,91 +3557,41 @@
         <v>8</v>
       </c>
       <c r="C33" s="52"/>
-      <c r="D33" s="95" t="s">
-        <v>226</v>
-      </c>
-      <c r="E33" s="95" t="s">
-        <v>393</v>
-      </c>
-      <c r="F33" s="95" t="s">
-        <v>394</v>
-      </c>
-      <c r="G33" s="96" t="s">
-        <v>395</v>
-      </c>
-      <c r="H33" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="I33" s="95" t="s">
-        <v>187</v>
-      </c>
-      <c r="J33" s="95" t="s">
-        <v>396</v>
-      </c>
-      <c r="K33" s="95" t="s">
-        <v>397</v>
-      </c>
-      <c r="L33" s="95" t="s">
-        <v>398</v>
-      </c>
-      <c r="M33" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="N33" s="95" t="s">
-        <v>207</v>
-      </c>
-      <c r="O33" s="95" t="s">
-        <v>208</v>
-      </c>
-      <c r="P33" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q33" s="95" t="s">
-        <v>399</v>
-      </c>
-      <c r="R33" s="95" t="s">
-        <v>400</v>
-      </c>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="98"/>
       <c r="S33" s="54"/>
       <c r="V33" s="69"/>
     </row>
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
-      <c r="D34" s="101" t="s">
-        <v>345</v>
-      </c>
-      <c r="E34" s="101" t="s">
-        <v>483</v>
-      </c>
-      <c r="F34" s="101" t="s">
-        <v>485</v>
-      </c>
-      <c r="G34" s="101" t="s">
-        <v>487</v>
-      </c>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
       <c r="H34" s="101"/>
-      <c r="I34" s="101" t="s">
-        <v>349</v>
-      </c>
-      <c r="J34" s="101" t="s">
-        <v>489</v>
-      </c>
-      <c r="K34" s="101" t="s">
-        <v>491</v>
-      </c>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
       <c r="L34" s="101"/>
       <c r="M34" s="101"/>
-      <c r="N34" s="101" t="s">
-        <v>333</v>
-      </c>
-      <c r="O34" s="101" t="s">
-        <v>335</v>
-      </c>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
       <c r="P34" s="101"/>
-      <c r="Q34" s="101" t="s">
-        <v>493</v>
-      </c>
+      <c r="Q34" s="101"/>
       <c r="R34" s="101"/>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
@@ -5323,18 +3621,10 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="100"/>
-      <c r="E36" s="100" t="s">
-        <v>338</v>
-      </c>
-      <c r="F36" s="100" t="s">
-        <v>304</v>
-      </c>
-      <c r="G36" s="100" t="s">
-        <v>270</v>
-      </c>
-      <c r="H36" s="100" t="s">
-        <v>264</v>
-      </c>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
       <c r="I36" s="100"/>
       <c r="J36" s="100"/>
       <c r="K36" s="100"/>
@@ -5354,24 +3644,12 @@
         <v>9</v>
       </c>
       <c r="C37" s="52"/>
-      <c r="D37" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="E37" s="95" t="s">
-        <v>200</v>
-      </c>
-      <c r="F37" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="G37" s="96" t="s">
-        <v>228</v>
-      </c>
-      <c r="H37" s="95" t="s">
-        <v>201</v>
-      </c>
-      <c r="I37" s="95" t="s">
-        <v>171</v>
-      </c>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
       <c r="J37" s="95"/>
       <c r="K37" s="95"/>
       <c r="L37" s="95"/>
@@ -5388,18 +3666,10 @@
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="101"/>
-      <c r="E38" s="101" t="s">
-        <v>339</v>
-      </c>
-      <c r="F38" s="101" t="s">
-        <v>305</v>
-      </c>
-      <c r="G38" s="101" t="s">
-        <v>271</v>
-      </c>
-      <c r="H38" s="101" t="s">
-        <v>265</v>
-      </c>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
       <c r="I38" s="101"/>
       <c r="J38" s="101"/>
       <c r="K38" s="101"/>
@@ -5437,47 +3707,21 @@
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
-      <c r="D40" s="100" t="s">
-        <v>256</v>
-      </c>
-      <c r="E40" s="100" t="s">
-        <v>258</v>
-      </c>
-      <c r="F40" s="100" t="s">
-        <v>260</v>
-      </c>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
       <c r="G40" s="100"/>
-      <c r="H40" s="100" t="s">
-        <v>350</v>
-      </c>
-      <c r="I40" s="100" t="s">
-        <v>494</v>
-      </c>
-      <c r="J40" s="100" t="s">
-        <v>278</v>
-      </c>
-      <c r="K40" s="100" t="s">
-        <v>298</v>
-      </c>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
       <c r="L40" s="100"/>
-      <c r="M40" s="100" t="s">
-        <v>266</v>
-      </c>
-      <c r="N40" s="100" t="s">
-        <v>268</v>
-      </c>
-      <c r="O40" s="100" t="s">
-        <v>280</v>
-      </c>
-      <c r="P40" s="100" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q40" s="100" t="s">
-        <v>496</v>
-      </c>
-      <c r="R40" s="100" t="s">
-        <v>256</v>
-      </c>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="100"/>
       <c r="S40" s="53"/>
       <c r="V40" s="69"/>
     </row>
@@ -5487,98 +3731,42 @@
         <v>10</v>
       </c>
       <c r="C41" s="52"/>
-      <c r="D41" s="95" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="F41" s="95" t="s">
-        <v>184</v>
-      </c>
-      <c r="G41" s="96" t="s">
-        <v>186</v>
-      </c>
-      <c r="H41" s="95" t="s">
-        <v>216</v>
-      </c>
-      <c r="I41" s="95" t="s">
-        <v>401</v>
-      </c>
-      <c r="J41" s="95" t="s">
-        <v>213</v>
-      </c>
-      <c r="K41" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="L41" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="M41" s="95" t="s">
-        <v>170</v>
-      </c>
-      <c r="N41" s="95" t="s">
-        <v>206</v>
-      </c>
-      <c r="O41" s="95" t="s">
-        <v>193</v>
-      </c>
-      <c r="P41" s="95" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q41" s="95" t="s">
-        <v>402</v>
-      </c>
-      <c r="R41" s="95" t="s">
-        <v>403</v>
-      </c>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95"/>
       <c r="S41" s="54"/>
       <c r="V41" s="69"/>
     </row>
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
-      <c r="D42" s="101" t="s">
-        <v>257</v>
-      </c>
-      <c r="E42" s="101" t="s">
-        <v>259</v>
-      </c>
-      <c r="F42" s="101" t="s">
-        <v>261</v>
-      </c>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
       <c r="G42" s="101"/>
-      <c r="H42" s="101" t="s">
-        <v>351</v>
-      </c>
-      <c r="I42" s="101" t="s">
-        <v>495</v>
-      </c>
-      <c r="J42" s="101" t="s">
-        <v>279</v>
-      </c>
-      <c r="K42" s="101" t="s">
-        <v>299</v>
-      </c>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="101"/>
       <c r="L42" s="101"/>
-      <c r="M42" s="101" t="s">
-        <v>267</v>
-      </c>
-      <c r="N42" s="101" t="s">
-        <v>269</v>
-      </c>
-      <c r="O42" s="101" t="s">
-        <v>281</v>
-      </c>
-      <c r="P42" s="101" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q42" s="101" t="s">
-        <v>497</v>
-      </c>
-      <c r="R42" s="101" t="s">
-        <v>257</v>
-      </c>
+      <c r="M42" s="101"/>
+      <c r="N42" s="101"/>
+      <c r="O42" s="101"/>
+      <c r="P42" s="101"/>
+      <c r="Q42" s="101"/>
+      <c r="R42" s="101"/>
       <c r="S42" s="58"/>
       <c r="V42" s="69"/>
     </row>
@@ -5606,45 +3794,21 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
-      <c r="D44" s="100" t="s">
-        <v>272</v>
-      </c>
+      <c r="D44" s="100"/>
       <c r="E44" s="100"/>
-      <c r="F44" s="100" t="s">
-        <v>336</v>
-      </c>
-      <c r="G44" s="100" t="s">
-        <v>496</v>
-      </c>
-      <c r="H44" s="100" t="s">
-        <v>310</v>
-      </c>
-      <c r="I44" s="100" t="s">
-        <v>470</v>
-      </c>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
       <c r="J44" s="100"/>
-      <c r="K44" s="100" t="s">
-        <v>354</v>
-      </c>
-      <c r="L44" s="100" t="s">
-        <v>498</v>
-      </c>
-      <c r="M44" s="100" t="s">
-        <v>324</v>
-      </c>
-      <c r="N44" s="100" t="s">
-        <v>326</v>
-      </c>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
       <c r="O44" s="100"/>
-      <c r="P44" s="100" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q44" s="100" t="s">
-        <v>292</v>
-      </c>
-      <c r="R44" s="100" t="s">
-        <v>338</v>
-      </c>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
       <c r="S44" s="53"/>
       <c r="V44" s="69"/>
     </row>
@@ -5654,96 +3818,42 @@
         <v>11</v>
       </c>
       <c r="C45" s="52"/>
-      <c r="D45" s="95" t="s">
-        <v>404</v>
-      </c>
-      <c r="E45" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" s="95" t="s">
-        <v>220</v>
-      </c>
-      <c r="G45" s="96" t="s">
-        <v>402</v>
-      </c>
-      <c r="H45" s="95" t="s">
-        <v>405</v>
-      </c>
-      <c r="I45" s="95" t="s">
-        <v>387</v>
-      </c>
-      <c r="J45" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="K45" s="95" t="s">
-        <v>221</v>
-      </c>
-      <c r="L45" s="95" t="s">
-        <v>406</v>
-      </c>
-      <c r="M45" s="95" t="s">
-        <v>239</v>
-      </c>
-      <c r="N45" s="95" t="s">
-        <v>240</v>
-      </c>
-      <c r="O45" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="P45" s="95" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q45" s="98" t="s">
-        <v>219</v>
-      </c>
-      <c r="R45" s="95" t="s">
-        <v>200</v>
-      </c>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="95"/>
       <c r="S45" s="54"/>
       <c r="V45" s="69"/>
     </row>
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
-      <c r="D46" s="101" t="s">
-        <v>273</v>
-      </c>
+      <c r="D46" s="101"/>
       <c r="E46" s="101"/>
-      <c r="F46" s="101" t="s">
-        <v>337</v>
-      </c>
-      <c r="G46" s="101" t="s">
-        <v>497</v>
-      </c>
-      <c r="H46" s="101" t="s">
-        <v>311</v>
-      </c>
-      <c r="I46" s="101" t="s">
-        <v>471</v>
-      </c>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
       <c r="J46" s="101"/>
-      <c r="K46" s="101" t="s">
-        <v>355</v>
-      </c>
-      <c r="L46" s="101" t="s">
-        <v>499</v>
-      </c>
-      <c r="M46" s="101" t="s">
-        <v>325</v>
-      </c>
-      <c r="N46" s="101" t="s">
-        <v>327</v>
-      </c>
+      <c r="K46" s="101"/>
+      <c r="L46" s="101"/>
+      <c r="M46" s="101"/>
+      <c r="N46" s="101"/>
       <c r="O46" s="101"/>
-      <c r="P46" s="101" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q46" s="101" t="s">
-        <v>293</v>
-      </c>
-      <c r="R46" s="101" t="s">
-        <v>339</v>
-      </c>
+      <c r="P46" s="101"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="101"/>
       <c r="S46" s="58"/>
       <c r="V46" s="69"/>
     </row>
@@ -5771,47 +3881,21 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="65"/>
       <c r="C48" s="52"/>
-      <c r="D48" s="100" t="s">
-        <v>500</v>
-      </c>
-      <c r="E48" s="100" t="s">
-        <v>502</v>
-      </c>
-      <c r="F48" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="G48" s="100" t="s">
-        <v>328</v>
-      </c>
-      <c r="H48" s="100" t="s">
-        <v>264</v>
-      </c>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
       <c r="I48" s="100"/>
-      <c r="J48" s="100" t="s">
-        <v>338</v>
-      </c>
-      <c r="K48" s="100" t="s">
-        <v>500</v>
-      </c>
-      <c r="L48" s="100" t="s">
-        <v>504</v>
-      </c>
-      <c r="M48" s="100" t="s">
-        <v>506</v>
-      </c>
-      <c r="N48" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="O48" s="100" t="s">
-        <v>328</v>
-      </c>
-      <c r="P48" s="100" t="s">
-        <v>264</v>
-      </c>
+      <c r="J48" s="100"/>
+      <c r="K48" s="100"/>
+      <c r="L48" s="100"/>
+      <c r="M48" s="100"/>
+      <c r="N48" s="100"/>
+      <c r="O48" s="100"/>
+      <c r="P48" s="100"/>
       <c r="Q48" s="100"/>
-      <c r="R48" s="100" t="s">
-        <v>300</v>
-      </c>
+      <c r="R48" s="100"/>
       <c r="S48" s="53"/>
       <c r="V48" s="69"/>
     </row>
@@ -5821,98 +3905,42 @@
         <v>12</v>
       </c>
       <c r="C49" s="52"/>
-      <c r="D49" s="95" t="s">
-        <v>407</v>
-      </c>
-      <c r="E49" s="95" t="s">
-        <v>408</v>
-      </c>
-      <c r="F49" s="95" t="s">
-        <v>409</v>
-      </c>
-      <c r="G49" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="H49" s="95" t="s">
-        <v>201</v>
-      </c>
-      <c r="I49" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="J49" s="95" t="s">
-        <v>200</v>
-      </c>
-      <c r="K49" s="95" t="s">
-        <v>407</v>
-      </c>
-      <c r="L49" s="95" t="s">
-        <v>410</v>
-      </c>
-      <c r="M49" s="95" t="s">
-        <v>411</v>
-      </c>
-      <c r="N49" s="95" t="s">
-        <v>409</v>
-      </c>
-      <c r="O49" s="95" t="s">
-        <v>217</v>
-      </c>
-      <c r="P49" s="95" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q49" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="R49" s="95" t="s">
-        <v>204</v>
-      </c>
+      <c r="D49" s="98"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="95"/>
+      <c r="M49" s="95"/>
+      <c r="N49" s="95"/>
+      <c r="O49" s="95"/>
+      <c r="P49" s="95"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="95"/>
       <c r="S49" s="54"/>
       <c r="V49" s="69"/>
     </row>
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="67"/>
       <c r="C50" s="52"/>
-      <c r="D50" s="101" t="s">
-        <v>501</v>
-      </c>
-      <c r="E50" s="101" t="s">
-        <v>503</v>
-      </c>
-      <c r="F50" s="101" t="s">
-        <v>371</v>
-      </c>
-      <c r="G50" s="101" t="s">
-        <v>329</v>
-      </c>
-      <c r="H50" s="101" t="s">
-        <v>265</v>
-      </c>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
       <c r="I50" s="101"/>
-      <c r="J50" s="101" t="s">
-        <v>339</v>
-      </c>
-      <c r="K50" s="101" t="s">
-        <v>501</v>
-      </c>
-      <c r="L50" s="101" t="s">
-        <v>505</v>
-      </c>
-      <c r="M50" s="101" t="s">
-        <v>507</v>
-      </c>
-      <c r="N50" s="101" t="s">
-        <v>371</v>
-      </c>
-      <c r="O50" s="101" t="s">
-        <v>329</v>
-      </c>
-      <c r="P50" s="101" t="s">
-        <v>265</v>
-      </c>
+      <c r="J50" s="101"/>
+      <c r="K50" s="101"/>
+      <c r="L50" s="101"/>
+      <c r="M50" s="101"/>
+      <c r="N50" s="101"/>
+      <c r="O50" s="101"/>
+      <c r="P50" s="101"/>
       <c r="Q50" s="101"/>
-      <c r="R50" s="101" t="s">
-        <v>301</v>
-      </c>
+      <c r="R50" s="101"/>
       <c r="S50" s="58"/>
       <c r="V50" s="69"/>
     </row>
@@ -5940,43 +3968,21 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
-      <c r="D52" s="100" t="s">
-        <v>280</v>
-      </c>
-      <c r="E52" s="100" t="s">
-        <v>304</v>
-      </c>
-      <c r="F52" s="100" t="s">
-        <v>508</v>
-      </c>
-      <c r="G52" s="100" t="s">
-        <v>332</v>
-      </c>
-      <c r="H52" s="100" t="s">
-        <v>334</v>
-      </c>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
       <c r="I52" s="100"/>
-      <c r="J52" s="100" t="s">
-        <v>492</v>
-      </c>
+      <c r="J52" s="100"/>
       <c r="K52" s="100"/>
       <c r="L52" s="100"/>
-      <c r="M52" s="100" t="s">
-        <v>510</v>
-      </c>
-      <c r="N52" s="100" t="s">
-        <v>338</v>
-      </c>
-      <c r="O52" s="100" t="s">
-        <v>304</v>
-      </c>
-      <c r="P52" s="100" t="s">
-        <v>264</v>
-      </c>
+      <c r="M52" s="100"/>
+      <c r="N52" s="100"/>
+      <c r="O52" s="100"/>
+      <c r="P52" s="100"/>
       <c r="Q52" s="100"/>
-      <c r="R52" s="100" t="s">
-        <v>284</v>
-      </c>
+      <c r="R52" s="100"/>
       <c r="S52" s="53"/>
       <c r="V52" s="69"/>
     </row>
@@ -5986,94 +3992,42 @@
         <v>13</v>
       </c>
       <c r="C53" s="52"/>
-      <c r="D53" s="95" t="s">
-        <v>193</v>
-      </c>
-      <c r="E53" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="F53" s="95" t="s">
-        <v>412</v>
-      </c>
-      <c r="G53" s="96" t="s">
-        <v>207</v>
-      </c>
-      <c r="H53" s="95" t="s">
-        <v>208</v>
-      </c>
-      <c r="I53" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="J53" s="95" t="s">
-        <v>399</v>
-      </c>
-      <c r="K53" s="95" t="s">
-        <v>400</v>
-      </c>
-      <c r="L53" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="M53" s="95" t="s">
-        <v>413</v>
-      </c>
-      <c r="N53" s="95" t="s">
-        <v>200</v>
-      </c>
-      <c r="O53" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="P53" s="95" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q53" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="R53" s="95" t="s">
-        <v>203</v>
-      </c>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="95"/>
+      <c r="L53" s="95"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="95"/>
+      <c r="O53" s="95"/>
+      <c r="P53" s="95"/>
+      <c r="Q53" s="95"/>
+      <c r="R53" s="95"/>
       <c r="S53" s="54"/>
       <c r="V53" s="69"/>
     </row>
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
-      <c r="D54" s="101" t="s">
-        <v>281</v>
-      </c>
-      <c r="E54" s="101" t="s">
-        <v>305</v>
-      </c>
-      <c r="F54" s="101" t="s">
-        <v>509</v>
-      </c>
-      <c r="G54" s="101" t="s">
-        <v>333</v>
-      </c>
-      <c r="H54" s="101" t="s">
-        <v>335</v>
-      </c>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
       <c r="I54" s="101"/>
-      <c r="J54" s="101" t="s">
-        <v>493</v>
-      </c>
+      <c r="J54" s="101"/>
       <c r="K54" s="101"/>
       <c r="L54" s="101"/>
-      <c r="M54" s="101" t="s">
-        <v>511</v>
-      </c>
-      <c r="N54" s="101" t="s">
-        <v>339</v>
-      </c>
-      <c r="O54" s="101" t="s">
-        <v>305</v>
-      </c>
-      <c r="P54" s="101" t="s">
-        <v>265</v>
-      </c>
+      <c r="M54" s="101"/>
+      <c r="N54" s="101"/>
+      <c r="O54" s="101"/>
+      <c r="P54" s="101"/>
       <c r="Q54" s="101"/>
-      <c r="R54" s="101" t="s">
-        <v>285</v>
-      </c>
+      <c r="R54" s="101"/>
       <c r="S54" s="58"/>
       <c r="V54" s="69"/>
     </row>
@@ -6101,47 +4055,21 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="65"/>
       <c r="C56" s="52"/>
-      <c r="D56" s="100" t="s">
-        <v>292</v>
-      </c>
-      <c r="E56" s="100" t="s">
-        <v>290</v>
-      </c>
-      <c r="F56" s="100" t="s">
-        <v>318</v>
-      </c>
-      <c r="G56" s="100" t="s">
-        <v>266</v>
-      </c>
-      <c r="H56" s="100" t="s">
-        <v>304</v>
-      </c>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
       <c r="I56" s="100"/>
-      <c r="J56" s="100" t="s">
-        <v>290</v>
-      </c>
-      <c r="K56" s="100" t="s">
-        <v>512</v>
-      </c>
-      <c r="L56" s="100" t="s">
-        <v>266</v>
-      </c>
-      <c r="M56" s="100" t="s">
-        <v>304</v>
-      </c>
+      <c r="J56" s="100"/>
+      <c r="K56" s="100"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="100"/>
       <c r="N56" s="100"/>
-      <c r="O56" s="100" t="s">
-        <v>514</v>
-      </c>
-      <c r="P56" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q56" s="100" t="s">
-        <v>370</v>
-      </c>
-      <c r="R56" s="100" t="s">
-        <v>320</v>
-      </c>
+      <c r="O56" s="100"/>
+      <c r="P56" s="100"/>
+      <c r="Q56" s="100"/>
+      <c r="R56" s="100"/>
       <c r="S56" s="53"/>
       <c r="V56" s="69"/>
     </row>
@@ -6151,98 +4079,42 @@
         <v>14</v>
       </c>
       <c r="C57" s="52"/>
-      <c r="D57" s="95" t="s">
-        <v>219</v>
-      </c>
-      <c r="E57" s="95" t="s">
-        <v>414</v>
-      </c>
-      <c r="F57" s="95" t="s">
-        <v>235</v>
-      </c>
-      <c r="G57" s="96" t="s">
-        <v>170</v>
-      </c>
-      <c r="H57" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="I57" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="J57" s="95" t="s">
-        <v>414</v>
-      </c>
-      <c r="K57" s="95" t="s">
-        <v>415</v>
-      </c>
-      <c r="L57" s="95" t="s">
-        <v>170</v>
-      </c>
-      <c r="M57" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="N57" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="O57" s="95" t="s">
-        <v>416</v>
-      </c>
-      <c r="P57" s="95" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q57" s="95" t="s">
-        <v>236</v>
-      </c>
-      <c r="R57" s="95" t="s">
-        <v>237</v>
-      </c>
+      <c r="D57" s="95"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="95"/>
+      <c r="M57" s="95"/>
+      <c r="N57" s="95"/>
+      <c r="O57" s="95"/>
+      <c r="P57" s="95"/>
+      <c r="Q57" s="95"/>
+      <c r="R57" s="95"/>
       <c r="S57" s="54"/>
       <c r="V57" s="69"/>
     </row>
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="67"/>
       <c r="C58" s="52"/>
-      <c r="D58" s="101" t="s">
-        <v>293</v>
-      </c>
-      <c r="E58" s="101" t="s">
-        <v>291</v>
-      </c>
-      <c r="F58" s="101" t="s">
-        <v>319</v>
-      </c>
-      <c r="G58" s="101" t="s">
-        <v>267</v>
-      </c>
-      <c r="H58" s="101" t="s">
-        <v>305</v>
-      </c>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
       <c r="I58" s="101"/>
-      <c r="J58" s="101" t="s">
-        <v>291</v>
-      </c>
-      <c r="K58" s="101" t="s">
-        <v>513</v>
-      </c>
-      <c r="L58" s="101" t="s">
-        <v>267</v>
-      </c>
-      <c r="M58" s="101" t="s">
-        <v>305</v>
-      </c>
+      <c r="J58" s="101"/>
+      <c r="K58" s="101"/>
+      <c r="L58" s="101"/>
+      <c r="M58" s="101"/>
       <c r="N58" s="101"/>
-      <c r="O58" s="101" t="s">
-        <v>515</v>
-      </c>
-      <c r="P58" s="101" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q58" s="101" t="s">
-        <v>371</v>
-      </c>
-      <c r="R58" s="101" t="s">
-        <v>321</v>
-      </c>
+      <c r="O58" s="101"/>
+      <c r="P58" s="101"/>
+      <c r="Q58" s="101"/>
+      <c r="R58" s="101"/>
       <c r="S58" s="58"/>
       <c r="V58" s="69"/>
     </row>
@@ -6270,45 +4142,21 @@
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="65"/>
       <c r="C60" s="52"/>
-      <c r="D60" s="100" t="s">
-        <v>336</v>
-      </c>
-      <c r="E60" s="100" t="s">
-        <v>496</v>
-      </c>
-      <c r="F60" s="100" t="s">
-        <v>470</v>
-      </c>
+      <c r="D60" s="100"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="100"/>
       <c r="G60" s="100"/>
-      <c r="H60" s="100" t="s">
-        <v>336</v>
-      </c>
-      <c r="I60" s="100" t="s">
-        <v>496</v>
-      </c>
-      <c r="J60" s="100" t="s">
-        <v>310</v>
-      </c>
+      <c r="H60" s="100"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="100"/>
       <c r="K60" s="100"/>
-      <c r="L60" s="100" t="s">
-        <v>354</v>
-      </c>
-      <c r="M60" s="100" t="s">
-        <v>280</v>
-      </c>
-      <c r="N60" s="100" t="s">
-        <v>498</v>
-      </c>
+      <c r="L60" s="100"/>
+      <c r="M60" s="100"/>
+      <c r="N60" s="100"/>
       <c r="O60" s="100"/>
-      <c r="P60" s="100" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q60" s="100" t="s">
-        <v>496</v>
-      </c>
-      <c r="R60" s="100" t="s">
-        <v>256</v>
-      </c>
+      <c r="P60" s="100"/>
+      <c r="Q60" s="100"/>
+      <c r="R60" s="100"/>
       <c r="S60" s="53"/>
       <c r="V60" s="69"/>
     </row>
@@ -6318,96 +4166,42 @@
         <v>15</v>
       </c>
       <c r="C61" s="52"/>
-      <c r="D61" s="95" t="s">
-        <v>220</v>
-      </c>
-      <c r="E61" s="95" t="s">
-        <v>402</v>
-      </c>
-      <c r="F61" s="95" t="s">
-        <v>387</v>
-      </c>
-      <c r="G61" s="96" t="s">
-        <v>197</v>
-      </c>
-      <c r="H61" s="95" t="s">
-        <v>220</v>
-      </c>
-      <c r="I61" s="95" t="s">
-        <v>402</v>
-      </c>
-      <c r="J61" s="95" t="s">
-        <v>405</v>
-      </c>
-      <c r="K61" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="L61" s="95" t="s">
-        <v>221</v>
-      </c>
-      <c r="M61" s="95" t="s">
-        <v>193</v>
-      </c>
-      <c r="N61" s="95" t="s">
-        <v>406</v>
-      </c>
-      <c r="O61" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="P61" s="95" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q61" s="95" t="s">
-        <v>402</v>
-      </c>
-      <c r="R61" s="95" t="s">
-        <v>403</v>
-      </c>
+      <c r="D61" s="95"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="95"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="95"/>
+      <c r="L61" s="95"/>
+      <c r="M61" s="95"/>
+      <c r="N61" s="95"/>
+      <c r="O61" s="95"/>
+      <c r="P61" s="95"/>
+      <c r="Q61" s="95"/>
+      <c r="R61" s="95"/>
       <c r="S61" s="54"/>
       <c r="V61" s="69"/>
     </row>
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="67"/>
       <c r="C62" s="52"/>
-      <c r="D62" s="101" t="s">
-        <v>337</v>
-      </c>
-      <c r="E62" s="101" t="s">
-        <v>497</v>
-      </c>
-      <c r="F62" s="101" t="s">
-        <v>471</v>
-      </c>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="101"/>
       <c r="G62" s="101"/>
-      <c r="H62" s="101" t="s">
-        <v>337</v>
-      </c>
-      <c r="I62" s="101" t="s">
-        <v>497</v>
-      </c>
-      <c r="J62" s="101" t="s">
-        <v>311</v>
-      </c>
+      <c r="H62" s="101"/>
+      <c r="I62" s="101"/>
+      <c r="J62" s="101"/>
       <c r="K62" s="101"/>
-      <c r="L62" s="101" t="s">
-        <v>355</v>
-      </c>
-      <c r="M62" s="101" t="s">
-        <v>281</v>
-      </c>
-      <c r="N62" s="101" t="s">
-        <v>499</v>
-      </c>
+      <c r="L62" s="101"/>
+      <c r="M62" s="101"/>
+      <c r="N62" s="101"/>
       <c r="O62" s="101"/>
-      <c r="P62" s="101" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q62" s="101" t="s">
-        <v>497</v>
-      </c>
-      <c r="R62" s="101" t="s">
-        <v>257</v>
-      </c>
+      <c r="P62" s="101"/>
+      <c r="Q62" s="101"/>
+      <c r="R62" s="101"/>
       <c r="S62" s="58"/>
       <c r="V62" s="69"/>
     </row>
@@ -6435,47 +4229,21 @@
     <row r="64" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="65"/>
       <c r="C64" s="52"/>
-      <c r="D64" s="100" t="s">
-        <v>272</v>
-      </c>
-      <c r="E64" s="100" t="s">
-        <v>324</v>
-      </c>
-      <c r="F64" s="100" t="s">
-        <v>326</v>
-      </c>
+      <c r="D64" s="100"/>
+      <c r="E64" s="100"/>
+      <c r="F64" s="100"/>
       <c r="G64" s="100"/>
-      <c r="H64" s="100" t="s">
-        <v>284</v>
-      </c>
-      <c r="I64" s="100" t="s">
-        <v>266</v>
-      </c>
-      <c r="J64" s="100" t="s">
-        <v>304</v>
-      </c>
-      <c r="K64" s="100" t="s">
-        <v>462</v>
-      </c>
+      <c r="H64" s="100"/>
+      <c r="I64" s="100"/>
+      <c r="J64" s="100"/>
+      <c r="K64" s="100"/>
       <c r="L64" s="100"/>
-      <c r="M64" s="100" t="s">
-        <v>312</v>
-      </c>
-      <c r="N64" s="100" t="s">
-        <v>338</v>
-      </c>
-      <c r="O64" s="100" t="s">
-        <v>348</v>
-      </c>
-      <c r="P64" s="100" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q64" s="100" t="s">
-        <v>284</v>
-      </c>
-      <c r="R64" s="100" t="s">
-        <v>292</v>
-      </c>
+      <c r="M64" s="100"/>
+      <c r="N64" s="100"/>
+      <c r="O64" s="100"/>
+      <c r="P64" s="100"/>
+      <c r="Q64" s="100"/>
+      <c r="R64" s="100"/>
       <c r="S64" s="53"/>
       <c r="V64" s="69"/>
     </row>
@@ -6485,98 +4253,42 @@
         <v>16</v>
       </c>
       <c r="C65" s="52"/>
-      <c r="D65" s="95" t="s">
-        <v>404</v>
-      </c>
-      <c r="E65" s="95" t="s">
-        <v>239</v>
-      </c>
-      <c r="F65" s="95" t="s">
-        <v>240</v>
-      </c>
-      <c r="G65" s="96" t="s">
-        <v>167</v>
-      </c>
-      <c r="H65" s="95" t="s">
-        <v>203</v>
-      </c>
-      <c r="I65" s="95" t="s">
-        <v>170</v>
-      </c>
-      <c r="J65" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="K65" s="95" t="s">
-        <v>382</v>
-      </c>
-      <c r="L65" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="M65" s="95" t="s">
-        <v>212</v>
-      </c>
-      <c r="N65" s="95" t="s">
-        <v>200</v>
-      </c>
-      <c r="O65" s="95" t="s">
-        <v>417</v>
-      </c>
-      <c r="P65" s="95" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q65" s="95" t="s">
-        <v>203</v>
-      </c>
-      <c r="R65" s="95" t="s">
-        <v>219</v>
-      </c>
+      <c r="D65" s="95"/>
+      <c r="E65" s="98"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="96"/>
+      <c r="H65" s="95"/>
+      <c r="I65" s="95"/>
+      <c r="J65" s="95"/>
+      <c r="K65" s="95"/>
+      <c r="L65" s="95"/>
+      <c r="M65" s="95"/>
+      <c r="N65" s="95"/>
+      <c r="O65" s="95"/>
+      <c r="P65" s="98"/>
+      <c r="Q65" s="95"/>
+      <c r="R65" s="95"/>
       <c r="S65" s="54"/>
       <c r="V65" s="69"/>
     </row>
     <row r="66" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="67"/>
       <c r="C66" s="52"/>
-      <c r="D66" s="101" t="s">
-        <v>273</v>
-      </c>
-      <c r="E66" s="101" t="s">
-        <v>325</v>
-      </c>
-      <c r="F66" s="101" t="s">
-        <v>327</v>
-      </c>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="101"/>
       <c r="G66" s="101"/>
-      <c r="H66" s="101" t="s">
-        <v>285</v>
-      </c>
-      <c r="I66" s="101" t="s">
-        <v>267</v>
-      </c>
-      <c r="J66" s="101" t="s">
-        <v>305</v>
-      </c>
-      <c r="K66" s="101" t="s">
-        <v>463</v>
-      </c>
+      <c r="H66" s="101"/>
+      <c r="I66" s="101"/>
+      <c r="J66" s="101"/>
+      <c r="K66" s="101"/>
       <c r="L66" s="101"/>
-      <c r="M66" s="101" t="s">
-        <v>313</v>
-      </c>
-      <c r="N66" s="101" t="s">
-        <v>339</v>
-      </c>
-      <c r="O66" s="101" t="s">
-        <v>349</v>
-      </c>
-      <c r="P66" s="101" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q66" s="101" t="s">
-        <v>285</v>
-      </c>
-      <c r="R66" s="101" t="s">
-        <v>293</v>
-      </c>
+      <c r="M66" s="101"/>
+      <c r="N66" s="101"/>
+      <c r="O66" s="101"/>
+      <c r="P66" s="101"/>
+      <c r="Q66" s="101"/>
+      <c r="R66" s="101"/>
       <c r="S66" s="58"/>
       <c r="V66" s="69"/>
     </row>
@@ -6604,47 +4316,21 @@
     <row r="68" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="65"/>
       <c r="C68" s="52"/>
-      <c r="D68" s="100" t="s">
-        <v>518</v>
-      </c>
-      <c r="E68" s="100" t="s">
-        <v>520</v>
-      </c>
-      <c r="F68" s="100" t="s">
-        <v>522</v>
-      </c>
-      <c r="G68" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="H68" s="100" t="s">
-        <v>524</v>
-      </c>
-      <c r="I68" s="100" t="s">
-        <v>526</v>
-      </c>
-      <c r="J68" s="100" t="s">
-        <v>524</v>
-      </c>
-      <c r="K68" s="100" t="s">
-        <v>258</v>
-      </c>
-      <c r="L68" s="100" t="s">
-        <v>260</v>
-      </c>
+      <c r="D68" s="100"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="100"/>
+      <c r="G68" s="100"/>
+      <c r="H68" s="100"/>
+      <c r="I68" s="100"/>
+      <c r="J68" s="100"/>
+      <c r="K68" s="100"/>
+      <c r="L68" s="100"/>
       <c r="M68" s="100"/>
-      <c r="N68" s="100" t="s">
-        <v>348</v>
-      </c>
-      <c r="O68" s="100" t="s">
-        <v>350</v>
-      </c>
-      <c r="P68" s="100" t="s">
-        <v>330</v>
-      </c>
+      <c r="N68" s="100"/>
+      <c r="O68" s="100"/>
+      <c r="P68" s="100"/>
       <c r="Q68" s="100"/>
-      <c r="R68" s="100" t="s">
-        <v>256</v>
-      </c>
+      <c r="R68" s="100"/>
       <c r="S68" s="53"/>
       <c r="V68" s="69"/>
     </row>
@@ -6654,98 +4340,42 @@
         <v>17</v>
       </c>
       <c r="C69" s="52"/>
-      <c r="D69" s="95" t="s">
-        <v>419</v>
-      </c>
-      <c r="E69" s="95" t="s">
-        <v>420</v>
-      </c>
-      <c r="F69" s="95" t="s">
-        <v>421</v>
-      </c>
-      <c r="G69" s="96" t="s">
-        <v>211</v>
-      </c>
-      <c r="H69" s="95" t="s">
-        <v>422</v>
-      </c>
-      <c r="I69" s="95" t="s">
-        <v>423</v>
-      </c>
-      <c r="J69" s="95" t="s">
-        <v>422</v>
-      </c>
-      <c r="K69" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="L69" s="95" t="s">
-        <v>184</v>
-      </c>
-      <c r="M69" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="N69" s="95" t="s">
-        <v>187</v>
-      </c>
-      <c r="O69" s="95" t="s">
-        <v>216</v>
-      </c>
-      <c r="P69" s="95" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q69" s="95" t="s">
-        <v>214</v>
-      </c>
-      <c r="R69" s="95" t="s">
-        <v>182</v>
-      </c>
+      <c r="D69" s="95"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="96"/>
+      <c r="H69" s="95"/>
+      <c r="I69" s="95"/>
+      <c r="J69" s="95"/>
+      <c r="K69" s="95"/>
+      <c r="L69" s="95"/>
+      <c r="M69" s="95"/>
+      <c r="N69" s="95"/>
+      <c r="O69" s="95"/>
+      <c r="P69" s="95"/>
+      <c r="Q69" s="95"/>
+      <c r="R69" s="95"/>
       <c r="S69" s="54"/>
       <c r="V69" s="69"/>
     </row>
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="67"/>
       <c r="C70" s="52"/>
-      <c r="D70" s="101" t="s">
-        <v>519</v>
-      </c>
-      <c r="E70" s="101" t="s">
-        <v>521</v>
-      </c>
-      <c r="F70" s="101" t="s">
-        <v>523</v>
-      </c>
-      <c r="G70" s="101" t="s">
-        <v>363</v>
-      </c>
-      <c r="H70" s="101" t="s">
-        <v>525</v>
-      </c>
-      <c r="I70" s="101" t="s">
-        <v>527</v>
-      </c>
-      <c r="J70" s="101" t="s">
-        <v>525</v>
-      </c>
-      <c r="K70" s="101" t="s">
-        <v>259</v>
-      </c>
-      <c r="L70" s="101" t="s">
-        <v>261</v>
-      </c>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="101"/>
+      <c r="H70" s="101"/>
+      <c r="I70" s="101"/>
+      <c r="J70" s="101"/>
+      <c r="K70" s="101"/>
+      <c r="L70" s="101"/>
       <c r="M70" s="101"/>
-      <c r="N70" s="101" t="s">
-        <v>349</v>
-      </c>
-      <c r="O70" s="101" t="s">
-        <v>351</v>
-      </c>
-      <c r="P70" s="101" t="s">
-        <v>331</v>
-      </c>
+      <c r="N70" s="101"/>
+      <c r="O70" s="101"/>
+      <c r="P70" s="101"/>
       <c r="Q70" s="101"/>
-      <c r="R70" s="101" t="s">
-        <v>257</v>
-      </c>
+      <c r="R70" s="101"/>
       <c r="S70" s="58"/>
       <c r="V70" s="69"/>
     </row>
@@ -6773,45 +4403,21 @@
     <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="65"/>
       <c r="C72" s="52"/>
-      <c r="D72" s="100" t="s">
-        <v>258</v>
-      </c>
-      <c r="E72" s="100" t="s">
-        <v>260</v>
-      </c>
+      <c r="D72" s="100"/>
+      <c r="E72" s="100"/>
       <c r="F72" s="100"/>
-      <c r="G72" s="100" t="s">
-        <v>300</v>
-      </c>
-      <c r="H72" s="100" t="s">
-        <v>528</v>
-      </c>
-      <c r="I72" s="100" t="s">
-        <v>530</v>
-      </c>
-      <c r="J72" s="100" t="s">
-        <v>532</v>
-      </c>
-      <c r="K72" s="100" t="s">
-        <v>328</v>
-      </c>
+      <c r="G72" s="100"/>
+      <c r="H72" s="100"/>
+      <c r="I72" s="100"/>
+      <c r="J72" s="100"/>
+      <c r="K72" s="100"/>
       <c r="L72" s="100"/>
-      <c r="M72" s="100" t="s">
-        <v>534</v>
-      </c>
-      <c r="N72" s="100" t="s">
-        <v>288</v>
-      </c>
-      <c r="O72" s="100" t="s">
-        <v>512</v>
-      </c>
+      <c r="M72" s="100"/>
+      <c r="N72" s="100"/>
+      <c r="O72" s="100"/>
       <c r="P72" s="100"/>
-      <c r="Q72" s="100" t="s">
-        <v>304</v>
-      </c>
-      <c r="R72" s="100" t="s">
-        <v>512</v>
-      </c>
+      <c r="Q72" s="100"/>
+      <c r="R72" s="100"/>
       <c r="S72" s="53"/>
       <c r="V72" s="69"/>
     </row>
@@ -6821,96 +4427,42 @@
         <v>18</v>
       </c>
       <c r="C73" s="52"/>
-      <c r="D73" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="E73" s="95" t="s">
-        <v>184</v>
-      </c>
-      <c r="F73" s="95" t="s">
-        <v>186</v>
-      </c>
-      <c r="G73" s="96" t="s">
-        <v>204</v>
-      </c>
-      <c r="H73" s="95" t="s">
-        <v>424</v>
-      </c>
-      <c r="I73" s="95" t="s">
-        <v>425</v>
-      </c>
-      <c r="J73" s="95" t="s">
-        <v>426</v>
-      </c>
-      <c r="K73" s="95" t="s">
-        <v>217</v>
-      </c>
-      <c r="L73" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="M73" s="95" t="s">
-        <v>427</v>
-      </c>
-      <c r="N73" s="95" t="s">
-        <v>215</v>
-      </c>
-      <c r="O73" s="95" t="s">
-        <v>415</v>
-      </c>
-      <c r="P73" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q73" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="R73" s="95" t="s">
-        <v>415</v>
-      </c>
+      <c r="D73" s="95"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="96"/>
+      <c r="H73" s="98"/>
+      <c r="I73" s="95"/>
+      <c r="J73" s="95"/>
+      <c r="K73" s="95"/>
+      <c r="L73" s="95"/>
+      <c r="M73" s="95"/>
+      <c r="N73" s="95"/>
+      <c r="O73" s="95"/>
+      <c r="P73" s="95"/>
+      <c r="Q73" s="95"/>
+      <c r="R73" s="95"/>
       <c r="S73" s="54"/>
       <c r="V73" s="69"/>
     </row>
     <row r="74" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="67"/>
       <c r="C74" s="52"/>
-      <c r="D74" s="101" t="s">
-        <v>259</v>
-      </c>
-      <c r="E74" s="101" t="s">
-        <v>261</v>
-      </c>
+      <c r="D74" s="101"/>
+      <c r="E74" s="101"/>
       <c r="F74" s="101"/>
-      <c r="G74" s="101" t="s">
-        <v>301</v>
-      </c>
-      <c r="H74" s="101" t="s">
-        <v>529</v>
-      </c>
-      <c r="I74" s="101" t="s">
-        <v>531</v>
-      </c>
-      <c r="J74" s="101" t="s">
-        <v>533</v>
-      </c>
-      <c r="K74" s="101" t="s">
-        <v>329</v>
-      </c>
+      <c r="G74" s="101"/>
+      <c r="H74" s="101"/>
+      <c r="I74" s="101"/>
+      <c r="J74" s="101"/>
+      <c r="K74" s="101"/>
       <c r="L74" s="101"/>
-      <c r="M74" s="101" t="s">
-        <v>535</v>
-      </c>
-      <c r="N74" s="101" t="s">
-        <v>289</v>
-      </c>
-      <c r="O74" s="101" t="s">
-        <v>513</v>
-      </c>
+      <c r="M74" s="101"/>
+      <c r="N74" s="101"/>
+      <c r="O74" s="101"/>
       <c r="P74" s="101"/>
-      <c r="Q74" s="101" t="s">
-        <v>305</v>
-      </c>
-      <c r="R74" s="101" t="s">
-        <v>513</v>
-      </c>
+      <c r="Q74" s="101"/>
+      <c r="R74" s="101"/>
       <c r="S74" s="58"/>
       <c r="V74" s="69"/>
     </row>
@@ -6939,44 +4491,20 @@
       <c r="B76" s="65"/>
       <c r="C76" s="52"/>
       <c r="D76" s="100"/>
-      <c r="E76" s="100" t="s">
-        <v>346</v>
-      </c>
-      <c r="F76" s="100" t="s">
-        <v>314</v>
-      </c>
-      <c r="G76" s="100" t="s">
-        <v>512</v>
-      </c>
+      <c r="E76" s="100"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="100"/>
       <c r="H76" s="100"/>
-      <c r="I76" s="100" t="s">
-        <v>332</v>
-      </c>
-      <c r="J76" s="100" t="s">
-        <v>328</v>
-      </c>
-      <c r="K76" s="100" t="s">
-        <v>512</v>
-      </c>
+      <c r="I76" s="100"/>
+      <c r="J76" s="100"/>
+      <c r="K76" s="100"/>
       <c r="L76" s="100"/>
-      <c r="M76" s="100" t="s">
-        <v>312</v>
-      </c>
-      <c r="N76" s="100" t="s">
-        <v>366</v>
-      </c>
-      <c r="O76" s="100" t="s">
-        <v>352</v>
-      </c>
-      <c r="P76" s="100" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q76" s="100" t="s">
-        <v>336</v>
-      </c>
-      <c r="R76" s="100" t="s">
-        <v>508</v>
-      </c>
+      <c r="M76" s="100"/>
+      <c r="N76" s="100"/>
+      <c r="O76" s="100"/>
+      <c r="P76" s="100"/>
+      <c r="Q76" s="100"/>
+      <c r="R76" s="100"/>
       <c r="S76" s="53"/>
       <c r="V76" s="69"/>
     </row>
@@ -6986,51 +4514,21 @@
         <v>19</v>
       </c>
       <c r="C77" s="52"/>
-      <c r="D77" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="E77" s="95" t="s">
-        <v>245</v>
-      </c>
-      <c r="F77" s="95" t="s">
-        <v>234</v>
-      </c>
-      <c r="G77" s="96" t="s">
-        <v>415</v>
-      </c>
-      <c r="H77" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="I77" s="95" t="s">
-        <v>246</v>
-      </c>
-      <c r="J77" s="95" t="s">
-        <v>217</v>
-      </c>
-      <c r="K77" s="95" t="s">
-        <v>415</v>
-      </c>
-      <c r="L77" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="M77" s="95" t="s">
-        <v>241</v>
-      </c>
-      <c r="N77" s="95" t="s">
-        <v>218</v>
-      </c>
-      <c r="O77" s="95" t="s">
-        <v>205</v>
-      </c>
-      <c r="P77" s="95" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q77" s="95" t="s">
-        <v>220</v>
-      </c>
-      <c r="R77" s="95" t="s">
-        <v>412</v>
-      </c>
+      <c r="D77" s="95"/>
+      <c r="E77" s="95"/>
+      <c r="F77" s="95"/>
+      <c r="G77" s="96"/>
+      <c r="H77" s="95"/>
+      <c r="I77" s="95"/>
+      <c r="J77" s="95"/>
+      <c r="K77" s="95"/>
+      <c r="L77" s="95"/>
+      <c r="M77" s="95"/>
+      <c r="N77" s="95"/>
+      <c r="O77" s="95"/>
+      <c r="P77" s="95"/>
+      <c r="Q77" s="95"/>
+      <c r="R77" s="95"/>
       <c r="S77" s="54"/>
       <c r="V77" s="69"/>
     </row>
@@ -7038,44 +4536,20 @@
       <c r="B78" s="67"/>
       <c r="C78" s="52"/>
       <c r="D78" s="101"/>
-      <c r="E78" s="101" t="s">
-        <v>347</v>
-      </c>
-      <c r="F78" s="101" t="s">
-        <v>315</v>
-      </c>
-      <c r="G78" s="101" t="s">
-        <v>513</v>
-      </c>
+      <c r="E78" s="101"/>
+      <c r="F78" s="101"/>
+      <c r="G78" s="101"/>
       <c r="H78" s="101"/>
-      <c r="I78" s="101" t="s">
-        <v>333</v>
-      </c>
-      <c r="J78" s="101" t="s">
-        <v>329</v>
-      </c>
-      <c r="K78" s="101" t="s">
-        <v>513</v>
-      </c>
+      <c r="I78" s="101"/>
+      <c r="J78" s="101"/>
+      <c r="K78" s="101"/>
       <c r="L78" s="101"/>
-      <c r="M78" s="101" t="s">
-        <v>313</v>
-      </c>
-      <c r="N78" s="101" t="s">
-        <v>367</v>
-      </c>
-      <c r="O78" s="101" t="s">
-        <v>353</v>
-      </c>
-      <c r="P78" s="101" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q78" s="101" t="s">
-        <v>337</v>
-      </c>
-      <c r="R78" s="101" t="s">
-        <v>509</v>
-      </c>
+      <c r="M78" s="101"/>
+      <c r="N78" s="101"/>
+      <c r="O78" s="101"/>
+      <c r="P78" s="101"/>
+      <c r="Q78" s="101"/>
+      <c r="R78" s="101"/>
       <c r="S78" s="58"/>
       <c r="V78" s="69"/>
     </row>
@@ -7103,30 +4577,16 @@
     <row r="80" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="65"/>
       <c r="C80" s="52"/>
-      <c r="D80" s="100" t="s">
-        <v>536</v>
-      </c>
-      <c r="E80" s="100" t="s">
-        <v>332</v>
-      </c>
+      <c r="D80" s="100"/>
+      <c r="E80" s="100"/>
       <c r="F80" s="100"/>
-      <c r="G80" s="100" t="s">
-        <v>492</v>
-      </c>
+      <c r="G80" s="100"/>
       <c r="H80" s="100"/>
       <c r="I80" s="100"/>
-      <c r="J80" s="100" t="s">
-        <v>338</v>
-      </c>
-      <c r="K80" s="100" t="s">
-        <v>304</v>
-      </c>
-      <c r="L80" s="100" t="s">
-        <v>270</v>
-      </c>
-      <c r="M80" s="100" t="s">
-        <v>264</v>
-      </c>
+      <c r="J80" s="100"/>
+      <c r="K80" s="100"/>
+      <c r="L80" s="100"/>
+      <c r="M80" s="100"/>
       <c r="N80" s="100"/>
       <c r="O80" s="100"/>
       <c r="P80" s="100"/>
@@ -7141,39 +4601,17 @@
         <v>20</v>
       </c>
       <c r="C81" s="52"/>
-      <c r="D81" s="95" t="s">
-        <v>428</v>
-      </c>
-      <c r="E81" s="95" t="s">
-        <v>207</v>
-      </c>
-      <c r="F81" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="G81" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="H81" s="95" t="s">
-        <v>400</v>
-      </c>
-      <c r="I81" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="J81" s="95" t="s">
-        <v>200</v>
-      </c>
-      <c r="K81" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="L81" s="95" t="s">
-        <v>228</v>
-      </c>
-      <c r="M81" s="95" t="s">
-        <v>201</v>
-      </c>
-      <c r="N81" s="95" t="s">
-        <v>171</v>
-      </c>
+      <c r="D81" s="98"/>
+      <c r="E81" s="95"/>
+      <c r="F81" s="95"/>
+      <c r="G81" s="96"/>
+      <c r="H81" s="95"/>
+      <c r="I81" s="95"/>
+      <c r="J81" s="95"/>
+      <c r="K81" s="95"/>
+      <c r="L81" s="95"/>
+      <c r="M81" s="95"/>
+      <c r="N81" s="95"/>
       <c r="O81" s="95"/>
       <c r="P81" s="95"/>
       <c r="Q81" s="95"/>
@@ -7184,30 +4622,16 @@
     <row r="82" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="67"/>
       <c r="C82" s="52"/>
-      <c r="D82" s="101" t="s">
-        <v>537</v>
-      </c>
-      <c r="E82" s="101" t="s">
-        <v>333</v>
-      </c>
+      <c r="D82" s="101"/>
+      <c r="E82" s="101"/>
       <c r="F82" s="101"/>
-      <c r="G82" s="101" t="s">
-        <v>493</v>
-      </c>
+      <c r="G82" s="101"/>
       <c r="H82" s="101"/>
       <c r="I82" s="101"/>
-      <c r="J82" s="101" t="s">
-        <v>339</v>
-      </c>
-      <c r="K82" s="101" t="s">
-        <v>305</v>
-      </c>
-      <c r="L82" s="101" t="s">
-        <v>271</v>
-      </c>
-      <c r="M82" s="101" t="s">
-        <v>265</v>
-      </c>
+      <c r="J82" s="101"/>
+      <c r="K82" s="101"/>
+      <c r="L82" s="101"/>
+      <c r="M82" s="101"/>
       <c r="N82" s="101"/>
       <c r="O82" s="101"/>
       <c r="P82" s="101"/>
@@ -7240,45 +4664,21 @@
     <row r="84" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="65"/>
       <c r="C84" s="52"/>
-      <c r="D84" s="100" t="s">
-        <v>256</v>
-      </c>
-      <c r="E84" s="100" t="s">
-        <v>258</v>
-      </c>
-      <c r="F84" s="100" t="s">
-        <v>260</v>
-      </c>
+      <c r="D84" s="100"/>
+      <c r="E84" s="100"/>
+      <c r="F84" s="100"/>
       <c r="G84" s="100"/>
-      <c r="H84" s="100" t="s">
-        <v>538</v>
-      </c>
-      <c r="I84" s="100" t="s">
-        <v>538</v>
-      </c>
-      <c r="J84" s="100" t="s">
-        <v>274</v>
-      </c>
-      <c r="K84" s="100" t="s">
-        <v>274</v>
-      </c>
+      <c r="H84" s="100"/>
+      <c r="I84" s="100"/>
+      <c r="J84" s="100"/>
+      <c r="K84" s="100"/>
       <c r="L84" s="100"/>
-      <c r="M84" s="100" t="s">
-        <v>300</v>
-      </c>
-      <c r="N84" s="100" t="s">
-        <v>280</v>
-      </c>
-      <c r="O84" s="100" t="s">
-        <v>352</v>
-      </c>
-      <c r="P84" s="100" t="s">
-        <v>268</v>
-      </c>
+      <c r="M84" s="100"/>
+      <c r="N84" s="100"/>
+      <c r="O84" s="100"/>
+      <c r="P84" s="100"/>
       <c r="Q84" s="100"/>
-      <c r="R84" s="100" t="s">
-        <v>322</v>
-      </c>
+      <c r="R84" s="100"/>
       <c r="S84" s="53"/>
       <c r="V84" s="69"/>
     </row>
@@ -7288,96 +4688,42 @@
         <v>21</v>
       </c>
       <c r="C85" s="52"/>
-      <c r="D85" s="95" t="s">
-        <v>182</v>
-      </c>
-      <c r="E85" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="F85" s="95" t="s">
-        <v>184</v>
-      </c>
-      <c r="G85" s="96" t="s">
-        <v>186</v>
-      </c>
-      <c r="H85" s="95" t="s">
-        <v>429</v>
-      </c>
-      <c r="I85" s="95" t="s">
-        <v>429</v>
-      </c>
-      <c r="J85" s="95" t="s">
-        <v>430</v>
-      </c>
-      <c r="K85" s="95" t="s">
-        <v>430</v>
-      </c>
-      <c r="L85" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="M85" s="95" t="s">
-        <v>204</v>
-      </c>
-      <c r="N85" s="95" t="s">
-        <v>193</v>
-      </c>
-      <c r="O85" s="95" t="s">
-        <v>205</v>
-      </c>
-      <c r="P85" s="95" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q85" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="R85" s="95" t="s">
-        <v>238</v>
-      </c>
+      <c r="D85" s="95"/>
+      <c r="E85" s="95"/>
+      <c r="F85" s="95"/>
+      <c r="G85" s="96"/>
+      <c r="H85" s="95"/>
+      <c r="I85" s="95"/>
+      <c r="J85" s="95"/>
+      <c r="K85" s="95"/>
+      <c r="L85" s="95"/>
+      <c r="M85" s="95"/>
+      <c r="N85" s="95"/>
+      <c r="O85" s="95"/>
+      <c r="P85" s="95"/>
+      <c r="Q85" s="95"/>
+      <c r="R85" s="95"/>
       <c r="S85" s="54"/>
       <c r="V85" s="69"/>
     </row>
     <row r="86" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="67"/>
       <c r="C86" s="52"/>
-      <c r="D86" s="101" t="s">
-        <v>257</v>
-      </c>
-      <c r="E86" s="101" t="s">
-        <v>259</v>
-      </c>
-      <c r="F86" s="101" t="s">
-        <v>261</v>
-      </c>
+      <c r="D86" s="101"/>
+      <c r="E86" s="101"/>
+      <c r="F86" s="101"/>
       <c r="G86" s="101"/>
-      <c r="H86" s="101" t="s">
-        <v>539</v>
-      </c>
-      <c r="I86" s="101" t="s">
-        <v>539</v>
-      </c>
-      <c r="J86" s="101" t="s">
-        <v>275</v>
-      </c>
-      <c r="K86" s="101" t="s">
-        <v>275</v>
-      </c>
+      <c r="H86" s="101"/>
+      <c r="I86" s="101"/>
+      <c r="J86" s="101"/>
+      <c r="K86" s="101"/>
       <c r="L86" s="101"/>
-      <c r="M86" s="101" t="s">
-        <v>301</v>
-      </c>
-      <c r="N86" s="101" t="s">
-        <v>281</v>
-      </c>
-      <c r="O86" s="101" t="s">
-        <v>353</v>
-      </c>
-      <c r="P86" s="101" t="s">
-        <v>269</v>
-      </c>
+      <c r="M86" s="101"/>
+      <c r="N86" s="101"/>
+      <c r="O86" s="101"/>
+      <c r="P86" s="101"/>
       <c r="Q86" s="101"/>
-      <c r="R86" s="101" t="s">
-        <v>323</v>
-      </c>
+      <c r="R86" s="101"/>
       <c r="S86" s="58"/>
       <c r="V86" s="69"/>
     </row>
@@ -7405,45 +4751,21 @@
     <row r="88" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="65"/>
       <c r="C88" s="52"/>
-      <c r="D88" s="100" t="s">
-        <v>356</v>
-      </c>
-      <c r="E88" s="100" t="s">
-        <v>282</v>
-      </c>
-      <c r="F88" s="100" t="s">
-        <v>540</v>
-      </c>
+      <c r="D88" s="100"/>
+      <c r="E88" s="100"/>
+      <c r="F88" s="100"/>
       <c r="G88" s="100"/>
-      <c r="H88" s="100" t="s">
-        <v>542</v>
-      </c>
+      <c r="H88" s="100"/>
       <c r="I88" s="100"/>
-      <c r="J88" s="100" t="s">
-        <v>304</v>
-      </c>
+      <c r="J88" s="100"/>
       <c r="K88" s="100"/>
-      <c r="L88" s="100" t="s">
-        <v>518</v>
-      </c>
-      <c r="M88" s="100" t="s">
-        <v>544</v>
-      </c>
-      <c r="N88" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="O88" s="100" t="s">
-        <v>294</v>
-      </c>
-      <c r="P88" s="100" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q88" s="100" t="s">
-        <v>268</v>
-      </c>
-      <c r="R88" s="100" t="s">
-        <v>546</v>
-      </c>
+      <c r="L88" s="100"/>
+      <c r="M88" s="100"/>
+      <c r="N88" s="100"/>
+      <c r="O88" s="100"/>
+      <c r="P88" s="100"/>
+      <c r="Q88" s="100"/>
+      <c r="R88" s="100"/>
       <c r="S88" s="53"/>
       <c r="V88" s="69"/>
     </row>
@@ -7453,96 +4775,42 @@
         <v>22</v>
       </c>
       <c r="C89" s="52"/>
-      <c r="D89" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="E89" s="95" t="s">
-        <v>199</v>
-      </c>
-      <c r="F89" s="95" t="s">
-        <v>431</v>
-      </c>
-      <c r="G89" s="96" t="s">
-        <v>167</v>
-      </c>
-      <c r="H89" s="95" t="s">
-        <v>432</v>
-      </c>
-      <c r="I89" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="J89" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="K89" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="L89" s="95" t="s">
-        <v>419</v>
-      </c>
-      <c r="M89" s="95" t="s">
-        <v>433</v>
-      </c>
-      <c r="N89" s="95" t="s">
-        <v>211</v>
-      </c>
-      <c r="O89" s="95" t="s">
-        <v>189</v>
-      </c>
-      <c r="P89" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q89" s="95" t="s">
-        <v>434</v>
-      </c>
-      <c r="R89" s="95" t="s">
-        <v>435</v>
-      </c>
+      <c r="D89" s="95"/>
+      <c r="E89" s="95"/>
+      <c r="F89" s="98"/>
+      <c r="G89" s="96"/>
+      <c r="H89" s="95"/>
+      <c r="I89" s="95"/>
+      <c r="J89" s="95"/>
+      <c r="K89" s="95"/>
+      <c r="L89" s="95"/>
+      <c r="M89" s="95"/>
+      <c r="N89" s="95"/>
+      <c r="O89" s="95"/>
+      <c r="P89" s="95"/>
+      <c r="Q89" s="95"/>
+      <c r="R89" s="95"/>
       <c r="S89" s="54"/>
       <c r="V89" s="69"/>
     </row>
     <row r="90" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="67"/>
       <c r="C90" s="52"/>
-      <c r="D90" s="101" t="s">
-        <v>357</v>
-      </c>
-      <c r="E90" s="101" t="s">
-        <v>283</v>
-      </c>
-      <c r="F90" s="101" t="s">
-        <v>541</v>
-      </c>
+      <c r="D90" s="101"/>
+      <c r="E90" s="101"/>
+      <c r="F90" s="101"/>
       <c r="G90" s="101"/>
-      <c r="H90" s="101" t="s">
-        <v>543</v>
-      </c>
+      <c r="H90" s="101"/>
       <c r="I90" s="101"/>
-      <c r="J90" s="101" t="s">
-        <v>305</v>
-      </c>
+      <c r="J90" s="101"/>
       <c r="K90" s="101"/>
-      <c r="L90" s="101" t="s">
-        <v>519</v>
-      </c>
-      <c r="M90" s="101" t="s">
-        <v>545</v>
-      </c>
-      <c r="N90" s="101" t="s">
-        <v>363</v>
-      </c>
-      <c r="O90" s="101" t="s">
-        <v>295</v>
-      </c>
-      <c r="P90" s="101" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q90" s="101" t="s">
-        <v>269</v>
-      </c>
-      <c r="R90" s="101" t="s">
-        <v>547</v>
-      </c>
+      <c r="L90" s="101"/>
+      <c r="M90" s="101"/>
+      <c r="N90" s="101"/>
+      <c r="O90" s="101"/>
+      <c r="P90" s="101"/>
+      <c r="Q90" s="101"/>
+      <c r="R90" s="101"/>
       <c r="S90" s="58"/>
       <c r="V90" s="69"/>
     </row>
@@ -7571,42 +4839,20 @@
       <c r="B92" s="65"/>
       <c r="C92" s="52"/>
       <c r="D92" s="100"/>
-      <c r="E92" s="100" t="s">
-        <v>316</v>
-      </c>
-      <c r="F92" s="100" t="s">
-        <v>318</v>
-      </c>
-      <c r="G92" s="100" t="s">
-        <v>352</v>
-      </c>
-      <c r="H92" s="100" t="s">
-        <v>274</v>
-      </c>
+      <c r="E92" s="100"/>
+      <c r="F92" s="100"/>
+      <c r="G92" s="100"/>
+      <c r="H92" s="100"/>
       <c r="I92" s="100"/>
-      <c r="J92" s="100" t="s">
-        <v>312</v>
-      </c>
-      <c r="K92" s="100" t="s">
-        <v>338</v>
-      </c>
-      <c r="L92" s="100" t="s">
-        <v>266</v>
-      </c>
-      <c r="M92" s="100" t="s">
-        <v>548</v>
-      </c>
+      <c r="J92" s="100"/>
+      <c r="K92" s="100"/>
+      <c r="L92" s="100"/>
+      <c r="M92" s="100"/>
       <c r="N92" s="100"/>
-      <c r="O92" s="100" t="s">
-        <v>514</v>
-      </c>
-      <c r="P92" s="100" t="s">
-        <v>368</v>
-      </c>
+      <c r="O92" s="100"/>
+      <c r="P92" s="100"/>
       <c r="Q92" s="100"/>
-      <c r="R92" s="100" t="s">
-        <v>550</v>
-      </c>
+      <c r="R92" s="100"/>
       <c r="S92" s="53"/>
       <c r="V92" s="69"/>
     </row>
@@ -7616,51 +4862,21 @@
         <v>23</v>
       </c>
       <c r="C93" s="52"/>
-      <c r="D93" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="E93" s="95" t="s">
-        <v>210</v>
-      </c>
-      <c r="F93" s="95" t="s">
-        <v>235</v>
-      </c>
-      <c r="G93" s="96" t="s">
-        <v>205</v>
-      </c>
-      <c r="H93" s="95" t="s">
-        <v>430</v>
-      </c>
-      <c r="I93" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="J93" s="95" t="s">
-        <v>241</v>
-      </c>
-      <c r="K93" s="95" t="s">
-        <v>200</v>
-      </c>
-      <c r="L93" s="95" t="s">
-        <v>170</v>
-      </c>
-      <c r="M93" s="95" t="s">
-        <v>436</v>
-      </c>
-      <c r="N93" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="O93" s="95" t="s">
-        <v>416</v>
-      </c>
-      <c r="P93" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q93" s="95" t="s">
-        <v>437</v>
-      </c>
-      <c r="R93" s="95" t="s">
-        <v>438</v>
-      </c>
+      <c r="D93" s="95"/>
+      <c r="E93" s="95"/>
+      <c r="F93" s="95"/>
+      <c r="G93" s="96"/>
+      <c r="H93" s="95"/>
+      <c r="I93" s="95"/>
+      <c r="J93" s="95"/>
+      <c r="K93" s="95"/>
+      <c r="L93" s="95"/>
+      <c r="M93" s="98"/>
+      <c r="N93" s="95"/>
+      <c r="O93" s="95"/>
+      <c r="P93" s="95"/>
+      <c r="Q93" s="98"/>
+      <c r="R93" s="95"/>
       <c r="S93" s="54"/>
       <c r="V93" s="69"/>
     </row>
@@ -7668,42 +4884,20 @@
       <c r="B94" s="67"/>
       <c r="C94" s="52"/>
       <c r="D94" s="101"/>
-      <c r="E94" s="101" t="s">
-        <v>317</v>
-      </c>
-      <c r="F94" s="101" t="s">
-        <v>319</v>
-      </c>
-      <c r="G94" s="101" t="s">
-        <v>353</v>
-      </c>
-      <c r="H94" s="101" t="s">
-        <v>275</v>
-      </c>
+      <c r="E94" s="101"/>
+      <c r="F94" s="101"/>
+      <c r="G94" s="101"/>
+      <c r="H94" s="101"/>
       <c r="I94" s="101"/>
-      <c r="J94" s="101" t="s">
-        <v>313</v>
-      </c>
-      <c r="K94" s="101" t="s">
-        <v>339</v>
-      </c>
-      <c r="L94" s="101" t="s">
-        <v>267</v>
-      </c>
-      <c r="M94" s="101" t="s">
-        <v>549</v>
-      </c>
+      <c r="J94" s="101"/>
+      <c r="K94" s="101"/>
+      <c r="L94" s="101"/>
+      <c r="M94" s="101"/>
       <c r="N94" s="101"/>
-      <c r="O94" s="101" t="s">
-        <v>515</v>
-      </c>
-      <c r="P94" s="101" t="s">
-        <v>369</v>
-      </c>
+      <c r="O94" s="101"/>
+      <c r="P94" s="101"/>
       <c r="Q94" s="101"/>
-      <c r="R94" s="101" t="s">
-        <v>551</v>
-      </c>
+      <c r="R94" s="101"/>
       <c r="S94" s="58"/>
       <c r="V94" s="69"/>
     </row>
@@ -7732,41 +4926,19 @@
       <c r="B96" s="65"/>
       <c r="C96" s="52"/>
       <c r="D96" s="100"/>
-      <c r="E96" s="100" t="s">
-        <v>552</v>
-      </c>
-      <c r="F96" s="100" t="s">
-        <v>554</v>
-      </c>
-      <c r="G96" s="100" t="s">
-        <v>338</v>
-      </c>
+      <c r="E96" s="100"/>
+      <c r="F96" s="100"/>
+      <c r="G96" s="100"/>
       <c r="H96" s="100"/>
       <c r="I96" s="100"/>
-      <c r="J96" s="100" t="s">
-        <v>350</v>
-      </c>
-      <c r="K96" s="100" t="s">
-        <v>358</v>
-      </c>
-      <c r="L96" s="100" t="s">
-        <v>556</v>
-      </c>
-      <c r="M96" s="100" t="s">
-        <v>558</v>
-      </c>
-      <c r="N96" s="100" t="s">
-        <v>276</v>
-      </c>
-      <c r="O96" s="100" t="s">
-        <v>560</v>
-      </c>
-      <c r="P96" s="100" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q96" s="100" t="s">
-        <v>274</v>
-      </c>
+      <c r="J96" s="100"/>
+      <c r="K96" s="100"/>
+      <c r="L96" s="100"/>
+      <c r="M96" s="100"/>
+      <c r="N96" s="100"/>
+      <c r="O96" s="100"/>
+      <c r="P96" s="100"/>
+      <c r="Q96" s="100"/>
       <c r="R96" s="100"/>
       <c r="S96" s="53"/>
       <c r="V96" s="69"/>
@@ -7777,51 +4949,21 @@
         <v>24</v>
       </c>
       <c r="C97" s="52"/>
-      <c r="D97" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="E97" s="95" t="s">
-        <v>439</v>
-      </c>
-      <c r="F97" s="95" t="s">
-        <v>440</v>
-      </c>
-      <c r="G97" s="96" t="s">
-        <v>441</v>
-      </c>
-      <c r="H97" s="95" t="s">
-        <v>442</v>
-      </c>
-      <c r="I97" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="J97" s="95" t="s">
-        <v>216</v>
-      </c>
-      <c r="K97" s="95" t="s">
-        <v>222</v>
-      </c>
-      <c r="L97" s="95" t="s">
-        <v>443</v>
-      </c>
-      <c r="M97" s="95" t="s">
-        <v>444</v>
-      </c>
-      <c r="N97" s="95" t="s">
-        <v>229</v>
-      </c>
-      <c r="O97" s="95" t="s">
-        <v>445</v>
-      </c>
-      <c r="P97" s="95" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q97" s="95" t="s">
-        <v>430</v>
-      </c>
-      <c r="R97" s="98" t="s">
-        <v>171</v>
-      </c>
+      <c r="D97" s="95"/>
+      <c r="E97" s="95"/>
+      <c r="F97" s="95"/>
+      <c r="G97" s="96"/>
+      <c r="H97" s="98"/>
+      <c r="I97" s="95"/>
+      <c r="J97" s="95"/>
+      <c r="K97" s="95"/>
+      <c r="L97" s="95"/>
+      <c r="M97" s="95"/>
+      <c r="N97" s="95"/>
+      <c r="O97" s="98"/>
+      <c r="P97" s="95"/>
+      <c r="Q97" s="95"/>
+      <c r="R97" s="98"/>
       <c r="S97" s="54"/>
       <c r="V97" s="69"/>
     </row>
@@ -7829,41 +4971,19 @@
       <c r="B98" s="67"/>
       <c r="C98" s="52"/>
       <c r="D98" s="101"/>
-      <c r="E98" s="101" t="s">
-        <v>553</v>
-      </c>
-      <c r="F98" s="101" t="s">
-        <v>555</v>
-      </c>
-      <c r="G98" s="101" t="s">
-        <v>339</v>
-      </c>
+      <c r="E98" s="101"/>
+      <c r="F98" s="101"/>
+      <c r="G98" s="101"/>
       <c r="H98" s="101"/>
       <c r="I98" s="101"/>
-      <c r="J98" s="101" t="s">
-        <v>351</v>
-      </c>
-      <c r="K98" s="101" t="s">
-        <v>359</v>
-      </c>
-      <c r="L98" s="101" t="s">
-        <v>557</v>
-      </c>
-      <c r="M98" s="101" t="s">
-        <v>559</v>
-      </c>
-      <c r="N98" s="101" t="s">
-        <v>277</v>
-      </c>
-      <c r="O98" s="101" t="s">
-        <v>561</v>
-      </c>
-      <c r="P98" s="101" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q98" s="101" t="s">
-        <v>275</v>
-      </c>
+      <c r="J98" s="101"/>
+      <c r="K98" s="101"/>
+      <c r="L98" s="101"/>
+      <c r="M98" s="101"/>
+      <c r="N98" s="101"/>
+      <c r="O98" s="101"/>
+      <c r="P98" s="101"/>
+      <c r="Q98" s="101"/>
       <c r="R98" s="101"/>
       <c r="S98" s="58"/>
       <c r="V98" s="69"/>
@@ -7916,9 +5036,7 @@
         <v>25</v>
       </c>
       <c r="C101" s="52"/>
-      <c r="D101" s="95" t="s">
-        <v>188</v>
-      </c>
+      <c r="D101" s="95"/>
       <c r="E101" s="95"/>
       <c r="F101" s="95"/>
       <c r="G101" s="96"/>
@@ -9907,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="86" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
@@ -9919,7 +7037,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="86" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
@@ -9931,7 +7049,7 @@
         <v>3</v>
       </c>
       <c r="K21" s="86" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
@@ -9943,7 +7061,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="87" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
@@ -9955,7 +7073,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="87" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
@@ -9964,10 +7082,10 @@
     <row r="24" spans="3:14" ht="42.75" customHeight="1">
       <c r="C24" s="36"/>
       <c r="J24" s="85" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K24" s="88" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
@@ -9979,7 +7097,7 @@
         <v>4</v>
       </c>
       <c r="K25" s="86" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
@@ -9991,7 +7109,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="86" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
@@ -10143,13 +7261,13 @@
         <v>81</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G4" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J4" s="40" t="s">
         <v>83</v>
@@ -10213,13 +7331,13 @@
         <v>93</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J8" s="40" t="s">
         <v>94</v>
@@ -10280,13 +7398,13 @@
         <v>104</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J12" s="40" t="s">
         <v>105</v>
@@ -10347,13 +7465,13 @@
         <v>115</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G16" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J16" s="40" t="s">
         <v>116</v>
@@ -10414,13 +7532,13 @@
         <v>127</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J20" s="40" t="s">
         <v>128</v>

--- a/output2/【河洛話注音】working.xlsx
+++ b/output2/【河洛話注音】working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E1D503-40BA-44A4-A9F9-FC578385D929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40E15B5-CDA2-4FEB-BC25-20755CF99836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="405">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1023,440 +1023,729 @@
     <t>IMAGE_URL</t>
   </si>
   <si>
+    <t>ㄚˋ</t>
+  </si>
+  <si>
+    <t>ㄚ</t>
+  </si>
+  <si>
+    <t>ㄚˇ</t>
+  </si>
+  <si>
+    <t>ㄚ+</t>
+  </si>
+  <si>
+    <t>ㄚ_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㄚ" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㄚ' </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚㄏ</t>
+  </si>
+  <si>
+    <t>ㄚㄏˊ</t>
+  </si>
+  <si>
+    <t>https://shoplineimg.com/5db585d59db3cb0012a18bce/5f2a9d3f30cc6200455c1c25/1296x.webp?source_format=jpg</t>
+  </si>
+  <si>
+    <t>每頁總列數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每列總字數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\work\\Piau-Im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTPUT_PATH</t>
+  </si>
+  <si>
+    <t>output2</t>
+  </si>
+  <si>
+    <t>章節序號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　晉太元中，武陵人，捕魚為業，緣溪行，忘路之遠近；忽逢桃花林，夾岸數百步，中無雜樹，芳草鮮美，落英繽紛；漁人甚異之。復前行，欲窮其林。
+　　林盡水源，便得一山。山有小口，彷彿若有光，便舍船，從口入。初極狹，纔通人；復行數十步，豁然開朗。土地平曠，屋舍儼然。有良田、美池、桑、竹之屬，阡陌交通，雞犬相聞。其中往來種作，男女衣著，悉如外人；黃髮垂髫，並佁然自樂。見漁人，乃大驚，問所從來；具答之。便要還家，設酒、殺雞、作食。村中聞有此人，咸來問訊。自云：「先世避秦時亂，率妻子邑人來此絕境，不復出焉；遂與外人間隔。」問「今是何世？」乃不知有漢，無論魏、晉！此人一一為具言所聞，皆歎惋。餘人各復延至其家，皆出酒食。停數日，辭去。此中人語云：「不足為外人道也。」
+　　既出，得其船，便扶向路，處處誌之。及郡下，詣太守，說如此。太守即遣人隨其往，尋向所誌，遂迷不復得路。
+　　南陽劉子驥，高尚士也，聞之，欣然規往，未果，尋病終。後遂無問津者。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花源記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>晉</t>
+  </si>
+  <si>
+    <t>太</t>
+  </si>
+  <si>
+    <t>元</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
     <t>，</t>
   </si>
   <si>
-    <t>分</t>
-  </si>
-  <si>
-    <t>第</t>
+    <t>武</t>
+  </si>
+  <si>
+    <t>陵</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>捕</t>
+  </si>
+  <si>
+    <t>魚</t>
+  </si>
+  <si>
+    <t>為</t>
+  </si>
+  <si>
+    <t>業</t>
+  </si>
+  <si>
+    <t>緣</t>
+  </si>
+  <si>
+    <t>溪</t>
+  </si>
+  <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>忘</t>
+  </si>
+  <si>
+    <t>路</t>
+  </si>
+  <si>
+    <t>之</t>
+  </si>
+  <si>
+    <t>遠</t>
+  </si>
+  <si>
+    <t>近</t>
+  </si>
+  <si>
+    <t>；</t>
+  </si>
+  <si>
+    <t>忽</t>
+  </si>
+  <si>
+    <t>逢</t>
+  </si>
+  <si>
+    <t>桃</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t>林</t>
+  </si>
+  <si>
+    <t>夾</t>
+  </si>
+  <si>
+    <t>岸</t>
+  </si>
+  <si>
+    <t>數</t>
+  </si>
+  <si>
+    <t>百</t>
+  </si>
+  <si>
+    <t>步</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>雜</t>
+  </si>
+  <si>
+    <t>樹</t>
+  </si>
+  <si>
+    <t>芳</t>
+  </si>
+  <si>
+    <t>草</t>
+  </si>
+  <si>
+    <t>鮮</t>
+  </si>
+  <si>
+    <t>美</t>
+  </si>
+  <si>
+    <t>落</t>
+  </si>
+  <si>
+    <t>英</t>
+  </si>
+  <si>
+    <t>繽</t>
+  </si>
+  <si>
+    <t>紛</t>
+  </si>
+  <si>
+    <t>漁</t>
+  </si>
+  <si>
+    <t>甚</t>
+  </si>
+  <si>
+    <t>異</t>
+  </si>
+  <si>
+    <t>。</t>
+  </si>
+  <si>
+    <t>復</t>
+  </si>
+  <si>
+    <t>前</t>
+  </si>
+  <si>
+    <t>欲</t>
+  </si>
+  <si>
+    <t>窮</t>
+  </si>
+  <si>
+    <t>其</t>
+  </si>
+  <si>
+    <t>盡</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>源</t>
+  </si>
+  <si>
+    <t>便</t>
+  </si>
+  <si>
+    <t>得</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>口</t>
+  </si>
+  <si>
+    <t>彷</t>
+  </si>
+  <si>
+    <t>彿</t>
+  </si>
+  <si>
+    <t>若</t>
+  </si>
+  <si>
+    <t>光</t>
+  </si>
+  <si>
+    <t>舍</t>
+  </si>
+  <si>
+    <t>船</t>
+  </si>
+  <si>
+    <t>從</t>
+  </si>
+  <si>
+    <t>入</t>
+  </si>
+  <si>
+    <t>初</t>
+  </si>
+  <si>
+    <t>極</t>
+  </si>
+  <si>
+    <t>狹</t>
+  </si>
+  <si>
+    <t>纔</t>
+  </si>
+  <si>
+    <t>通</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>豁</t>
+  </si>
+  <si>
+    <t>然</t>
+  </si>
+  <si>
+    <t>開</t>
+  </si>
+  <si>
+    <t>朗</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>地</t>
+  </si>
+  <si>
+    <t>平</t>
+  </si>
+  <si>
+    <t>曠</t>
+  </si>
+  <si>
+    <t>屋</t>
+  </si>
+  <si>
+    <t>儼</t>
+  </si>
+  <si>
+    <t>良</t>
+  </si>
+  <si>
+    <t>田</t>
+  </si>
+  <si>
+    <t>、</t>
+  </si>
+  <si>
+    <t>池</t>
+  </si>
+  <si>
+    <t>桑</t>
+  </si>
+  <si>
+    <t>竹</t>
+  </si>
+  <si>
+    <t>屬</t>
+  </si>
+  <si>
+    <t>阡</t>
+  </si>
+  <si>
+    <t>陌</t>
+  </si>
+  <si>
+    <t>交</t>
+  </si>
+  <si>
+    <t>雞</t>
+  </si>
+  <si>
+    <t>犬</t>
+  </si>
+  <si>
+    <t>相</t>
+  </si>
+  <si>
+    <t>聞</t>
+  </si>
+  <si>
+    <t>往</t>
+  </si>
+  <si>
+    <t>來</t>
+  </si>
+  <si>
+    <t>種</t>
+  </si>
+  <si>
+    <t>作</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>衣</t>
+  </si>
+  <si>
+    <t>著</t>
+  </si>
+  <si>
+    <t>悉</t>
+  </si>
+  <si>
+    <t>如</t>
+  </si>
+  <si>
+    <t>外</t>
+  </si>
+  <si>
+    <t>黃</t>
+  </si>
+  <si>
+    <t>髮</t>
+  </si>
+  <si>
+    <t>垂</t>
+  </si>
+  <si>
+    <t>髫</t>
+  </si>
+  <si>
+    <t>並</t>
+  </si>
+  <si>
+    <t>佁</t>
+  </si>
+  <si>
+    <t>自</t>
+  </si>
+  <si>
+    <t>樂</t>
+  </si>
+  <si>
+    <t>見</t>
+  </si>
+  <si>
+    <t>乃</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>驚</t>
+  </si>
+  <si>
+    <t>問</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>具</t>
+  </si>
+  <si>
+    <t>答</t>
+  </si>
+  <si>
+    <t>要</t>
+  </si>
+  <si>
+    <t>還</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>設</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>殺</t>
+  </si>
+  <si>
+    <t>食</t>
+  </si>
+  <si>
+    <t>村</t>
+  </si>
+  <si>
+    <t>此</t>
+  </si>
+  <si>
+    <t>咸</t>
+  </si>
+  <si>
+    <t>訊</t>
+  </si>
+  <si>
+    <t>云</t>
+  </si>
+  <si>
+    <t>：</t>
+  </si>
+  <si>
+    <t>「</t>
+  </si>
+  <si>
+    <t>先</t>
+  </si>
+  <si>
+    <t>世</t>
+  </si>
+  <si>
+    <t>避</t>
+  </si>
+  <si>
+    <t>秦</t>
+  </si>
+  <si>
+    <t>時</t>
+  </si>
+  <si>
+    <t>亂</t>
+  </si>
+  <si>
+    <t>率</t>
+  </si>
+  <si>
+    <t>妻</t>
+  </si>
+  <si>
+    <t>子</t>
+  </si>
+  <si>
+    <t>邑</t>
+  </si>
+  <si>
+    <t>絕</t>
+  </si>
+  <si>
+    <t>境</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>出</t>
+  </si>
+  <si>
+    <t>焉</t>
+  </si>
+  <si>
+    <t>遂</t>
+  </si>
+  <si>
+    <t>與</t>
+  </si>
+  <si>
+    <t>間</t>
+  </si>
+  <si>
+    <t>隔</t>
+  </si>
+  <si>
+    <t>」</t>
+  </si>
+  <si>
+    <t>今</t>
   </si>
   <si>
     <t>是</t>
   </si>
   <si>
-    <t>。</t>
-  </si>
-  <si>
-    <t>ㄚˋ</t>
-  </si>
-  <si>
-    <t>ㄚ</t>
-  </si>
-  <si>
-    <t>ㄚˇ</t>
-  </si>
-  <si>
-    <t>ㄚ+</t>
-  </si>
-  <si>
-    <t>ㄚ_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ㄚ" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ㄚ' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄚㄏ</t>
-  </si>
-  <si>
-    <t>ㄚㄏˊ</t>
-  </si>
-  <si>
-    <t>須</t>
-  </si>
-  <si>
-    <t>菩</t>
-  </si>
-  <si>
-    <t>提</t>
-  </si>
-  <si>
-    <t>「</t>
+    <t>何</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>知</t>
+  </si>
+  <si>
+    <t>漢</t>
+  </si>
+  <si>
+    <t>論</t>
+  </si>
+  <si>
+    <t>魏</t>
   </si>
   <si>
     <t>！</t>
   </si>
   <si>
-    <t>」</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>https://shoplineimg.com/5db585d59db3cb0012a18bce/5f2a9d3f30cc6200455c1c25/1296x.webp?source_format=jpg</t>
-  </si>
-  <si>
-    <t>每頁總列數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每列總字數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>C:\\work\\Piau-Im</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUTPUT_PATH</t>
-  </si>
-  <si>
-    <t>output2</t>
-  </si>
-  <si>
-    <t>、</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>世</t>
-  </si>
-  <si>
-    <t>為</t>
+    <t>言</t>
+  </si>
+  <si>
+    <t>皆</t>
+  </si>
+  <si>
+    <t>歎</t>
+  </si>
+  <si>
+    <t>惋</t>
+  </si>
+  <si>
+    <t>餘</t>
+  </si>
+  <si>
+    <t>各</t>
+  </si>
+  <si>
+    <t>延</t>
+  </si>
+  <si>
+    <t>至</t>
+  </si>
+  <si>
+    <t>停</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>辭</t>
+  </si>
+  <si>
+    <t>去</t>
+  </si>
+  <si>
+    <t>語</t>
+  </si>
+  <si>
+    <t>足</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>也</t>
+  </si>
+  <si>
+    <t>既</t>
+  </si>
+  <si>
+    <t>扶</t>
+  </si>
+  <si>
+    <t>向</t>
+  </si>
+  <si>
+    <t>處</t>
+  </si>
+  <si>
+    <t>誌</t>
+  </si>
+  <si>
+    <t>及</t>
+  </si>
+  <si>
+    <t>郡</t>
+  </si>
+  <si>
+    <t>下</t>
+  </si>
+  <si>
+    <t>詣</t>
+  </si>
+  <si>
+    <t>守</t>
   </si>
   <si>
     <t>說</t>
   </si>
   <si>
-    <t>十</t>
-  </si>
-  <si>
-    <t>若</t>
-  </si>
-  <si>
-    <t>當</t>
-  </si>
-  <si>
-    <t>羅</t>
-  </si>
-  <si>
-    <t>我</t>
-  </si>
-  <si>
-    <t>以</t>
+    <t>即</t>
+  </si>
+  <si>
+    <t>遣</t>
+  </si>
+  <si>
+    <t>隨</t>
+  </si>
+  <si>
+    <t>尋</t>
+  </si>
+  <si>
+    <t>迷</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>陽</t>
+  </si>
+  <si>
+    <t>劉</t>
+  </si>
+  <si>
+    <t>驥</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>尚</t>
+  </si>
+  <si>
+    <t>士</t>
+  </si>
+  <si>
+    <t>欣</t>
+  </si>
+  <si>
+    <t>規</t>
+  </si>
+  <si>
+    <t>未</t>
+  </si>
+  <si>
+    <t>果</t>
+  </si>
+  <si>
+    <t>病</t>
+  </si>
+  <si>
+    <t>終</t>
+  </si>
+  <si>
+    <t>後</t>
+  </si>
+  <si>
+    <t>津</t>
   </si>
   <si>
     <t>者</t>
-  </si>
-  <si>
-    <t>於</t>
-  </si>
-  <si>
-    <t>不</t>
-  </si>
-  <si>
-    <t>無</t>
-  </si>
-  <si>
-    <t>諸</t>
-  </si>
-  <si>
-    <t>得</t>
-  </si>
-  <si>
-    <t>故</t>
-  </si>
-  <si>
-    <t>心</t>
-  </si>
-  <si>
-    <t>一</t>
-  </si>
-  <si>
-    <t>則</t>
-  </si>
-  <si>
-    <t>應</t>
-  </si>
-  <si>
-    <t>善</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>子</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>亦</t>
-  </si>
-  <si>
-    <t>量</t>
-  </si>
-  <si>
-    <t>皆</t>
-  </si>
-  <si>
-    <t>阿</t>
-  </si>
-  <si>
-    <t>耨</t>
-  </si>
-  <si>
-    <t>多</t>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>藐</t>
-  </si>
-  <si>
-    <t>：</t>
-  </si>
-  <si>
-    <t>滅</t>
-  </si>
-  <si>
-    <t>然</t>
-  </si>
-  <si>
-    <t>燈</t>
-  </si>
-  <si>
-    <t>佛</t>
-  </si>
-  <si>
-    <t>譬</t>
-  </si>
-  <si>
-    <t>義</t>
-  </si>
-  <si>
-    <t>　</t>
-  </si>
-  <si>
-    <t>章節序號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八</t>
-  </si>
-  <si>
-    <t>數</t>
-  </si>
-  <si>
-    <t>悉</t>
-  </si>
-  <si>
-    <t>知</t>
-  </si>
-  <si>
-    <t>過</t>
-  </si>
-  <si>
-    <t>去</t>
-  </si>
-  <si>
-    <t>可</t>
-  </si>
-  <si>
-    <t>千</t>
-  </si>
-  <si>
-    <t>此</t>
-  </si>
-  <si>
-    <t>德</t>
-  </si>
-  <si>
-    <t>具</t>
-  </si>
-  <si>
-    <t>念</t>
-  </si>
-  <si>
-    <t>能</t>
-  </si>
-  <si>
-    <t>聞</t>
-  </si>
-  <si>
-    <t>信</t>
-  </si>
-  <si>
-    <t>乃</t>
-  </si>
-  <si>
-    <t>至</t>
-  </si>
-  <si>
-    <t>淨</t>
-  </si>
-  <si>
-    <t>復</t>
-  </si>
-  <si>
-    <t>次</t>
-  </si>
-  <si>
-    <t>四</t>
-  </si>
-  <si>
-    <t>持</t>
-  </si>
-  <si>
-    <t>經</t>
-  </si>
-  <si>
-    <t>受</t>
-  </si>
-  <si>
-    <t>讀</t>
-  </si>
-  <si>
-    <t>誦</t>
-  </si>
-  <si>
-    <t>他</t>
-  </si>
-  <si>
-    <t>前</t>
-  </si>
-  <si>
-    <t>百</t>
-  </si>
-  <si>
-    <t>及</t>
-  </si>
-  <si>
-    <t>萬</t>
-  </si>
-  <si>
-    <t>億</t>
-  </si>
-  <si>
-    <t>算</t>
-  </si>
-  <si>
-    <t>喻</t>
-  </si>
-  <si>
-    <t>六</t>
-  </si>
-  <si>
-    <t>道</t>
-  </si>
-  <si>
-    <t>功</t>
-  </si>
-  <si>
-    <t>事</t>
-  </si>
-  <si>
-    <t>僧</t>
-  </si>
-  <si>
-    <t>祇</t>
-  </si>
-  <si>
-    <t>由</t>
-  </si>
-  <si>
-    <t>今</t>
-  </si>
-  <si>
-    <t>思</t>
-  </si>
-  <si>
-    <t>空</t>
-  </si>
-  <si>
-    <t>後</t>
-  </si>
-  <si>
-    <t>果</t>
-  </si>
-  <si>
-    <t>那</t>
-  </si>
-  <si>
-    <t>供</t>
-  </si>
-  <si>
-    <t>養</t>
-  </si>
-  <si>
-    <t>劫</t>
-  </si>
-  <si>
-    <t>議</t>
-  </si>
-  <si>
-    <t>能淨業障分第十六
-復次：「須菩提！善男子、善女人，受持、讀誦此經，若為人輕賤，是人先世罪業，應墮惡道。以今世人輕賤故，先世罪業，則為消滅，當得阿耨多羅三藐三菩提。
-　　須菩提！我念過去無量阿僧祇劫，於然燈佛前，得值八百四千萬億那由他諸佛，悉皆供養承事，無空過者。若復有人，於後末世，能受持、讀誦此經，所得功德，於我所供養諸佛功德，百分不及一，千萬億分，乃至算數譬喻所不能及。
-　　須菩提！若善男子、善女人，於後末世，有受持、讀誦此經，所得功德，我若具說者，或有人聞，心則狂亂，狐疑不信。
-　　須菩提！當知是經義不可思議，果報亦不可思議。」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>業</t>
-  </si>
-  <si>
-    <t>障</t>
-  </si>
-  <si>
-    <t>輕</t>
-  </si>
-  <si>
-    <t>賤</t>
-  </si>
-  <si>
-    <t>先</t>
-  </si>
-  <si>
-    <t>罪</t>
-  </si>
-  <si>
-    <t>墮</t>
-  </si>
-  <si>
-    <t>惡</t>
-  </si>
-  <si>
-    <t>消</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>承</t>
-  </si>
-  <si>
-    <t>末</t>
-  </si>
-  <si>
-    <t>或</t>
-  </si>
-  <si>
-    <t>狂</t>
-  </si>
-  <si>
-    <t>亂</t>
-  </si>
-  <si>
-    <t>狐</t>
-  </si>
-  <si>
-    <t>疑</t>
-  </si>
-  <si>
-    <t>報</t>
   </si>
 </sst>
 </file>
@@ -2466,6 +2755,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -2484,9 +2776,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2494,55 +2783,7 @@
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{AF644068-9C78-42CD-96C0-AD9C8A3B8BDE}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
@@ -3180,7 +3421,7 @@
   <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -3204,7 +3445,7 @@
         <v>162</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -3219,9 +3460,8 @@
       <c r="B4" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="54" t="str">
-        <f xml:space="preserve"> "金剛般若波羅蜜經" &amp; TEXT(C7, "000") &amp; _xlfn.CONCAT("。", 漢字注音!D5:R5)</f>
-        <v>金剛般若波羅蜜經016。能淨業障分第十六</v>
+      <c r="C4" s="54" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3229,23 +3469,23 @@
         <v>166</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="74" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="103">
-        <v>16</v>
+        <v>183</v>
+      </c>
+      <c r="C7" s="97">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -3258,7 +3498,7 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="74" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C9" s="77">
         <v>60</v>
@@ -3266,7 +3506,7 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="75" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C10" s="77">
         <v>15</v>
@@ -3285,10 +3525,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
-  <dimension ref="B2:V242"/>
+  <dimension ref="B2:AC242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -3304,7 +3544,7 @@
     <col min="23" max="23" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" s="51" customFormat="1" ht="36" customHeight="1">
+    <row r="2" spans="2:29" s="51" customFormat="1" ht="36" customHeight="1">
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
       <c r="F2" s="79"/>
@@ -3323,10 +3563,10 @@
       <c r="S2" s="91"/>
       <c r="V2" s="59">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" s="64" customFormat="1" ht="60" customHeight="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" s="64" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="63"/>
       <c r="C3" s="86"/>
       <c r="D3" s="83"/>
@@ -3345,11 +3585,11 @@
       <c r="Q3" s="83"/>
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
-      <c r="V3" s="97" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="V3" s="98" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="56"/>
       <c r="D4" s="84"/>
       <c r="E4" s="84"/>
@@ -3367,47 +3607,61 @@
       <c r="Q4" s="84"/>
       <c r="R4" s="84"/>
       <c r="S4" s="93"/>
-      <c r="V4" s="98"/>
-    </row>
-    <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="V4" s="99"/>
+    </row>
+    <row r="5" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
         <v>1</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="F5" s="80" t="s">
-        <v>291</v>
+        <v>188</v>
       </c>
       <c r="G5" s="80" t="s">
-        <v>292</v>
+        <v>189</v>
       </c>
       <c r="H5" s="80" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="I5" s="80" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="J5" s="80" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K5" s="80" t="s">
-        <v>273</v>
-      </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
+        <v>193</v>
+      </c>
+      <c r="L5" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="M5" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="N5" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="O5" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="P5" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q5" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="R5" s="80" t="s">
+        <v>199</v>
+      </c>
       <c r="S5" s="94"/>
-      <c r="V5" s="98"/>
-    </row>
-    <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
+      <c r="V5" s="99"/>
+    </row>
+    <row r="6" spans="2:29" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
       <c r="C6" s="87"/>
       <c r="D6" s="85"/>
@@ -3426,9 +3680,9 @@
       <c r="Q6" s="85"/>
       <c r="R6" s="85"/>
       <c r="S6" s="95"/>
-      <c r="V6" s="98"/>
-    </row>
-    <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
+      <c r="V6" s="99"/>
+    </row>
+    <row r="7" spans="2:29" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
       <c r="C7" s="88"/>
       <c r="D7" s="83"/>
@@ -3447,9 +3701,9 @@
       <c r="Q7" s="83"/>
       <c r="R7" s="83"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="98"/>
-    </row>
-    <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="V7" s="99"/>
+    </row>
+    <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
@@ -3467,63 +3721,63 @@
       <c r="Q8" s="84"/>
       <c r="R8" s="84"/>
       <c r="S8" s="93"/>
-      <c r="V8" s="98"/>
-    </row>
-    <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="V8" s="99"/>
+    </row>
+    <row r="9" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
         <f>B5+1</f>
         <v>2</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H9" s="80" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="J9" s="80" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="K9" s="80" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L9" s="80" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="M9" s="80" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="N9" s="80" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="O9" s="80" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="P9" s="80" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q9" s="80" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="R9" s="80" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="S9" s="94"/>
       <c r="T9" s="92"/>
-      <c r="V9" s="98"/>
-    </row>
-    <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="V9" s="99"/>
+    </row>
+    <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
       <c r="D10" s="85"/>
       <c r="E10" s="85"/>
@@ -3541,9 +3795,9 @@
       <c r="Q10" s="85"/>
       <c r="R10" s="85"/>
       <c r="S10" s="96"/>
-      <c r="V10" s="98"/>
-    </row>
-    <row r="11" spans="2:22" s="66" customFormat="1" ht="60" customHeight="1">
+      <c r="V10" s="99"/>
+    </row>
+    <row r="11" spans="2:29" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
       <c r="C11" s="89"/>
       <c r="D11" s="83"/>
@@ -3561,9 +3815,9 @@
       <c r="P11" s="83"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="83"/>
-      <c r="V11" s="98"/>
-    </row>
-    <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="V11" s="99"/>
+    </row>
+    <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="84"/>
       <c r="E12" s="84"/>
@@ -3581,62 +3835,62 @@
       <c r="Q12" s="84"/>
       <c r="R12" s="84"/>
       <c r="S12" s="93"/>
-      <c r="V12" s="98"/>
-    </row>
-    <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="V12" s="99"/>
+    </row>
+    <row r="13" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
         <f>B9+1</f>
         <v>3</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="G13" s="80" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="H13" s="80" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="I13" s="80" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="J13" s="80" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="K13" s="80" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="L13" s="80" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="M13" s="80" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="N13" s="80" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="O13" s="80" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="P13" s="80" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="Q13" s="80" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="R13" s="80" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="S13" s="94"/>
-      <c r="V13" s="98"/>
-    </row>
-    <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="V13" s="99"/>
+    </row>
+    <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
@@ -3654,9 +3908,9 @@
       <c r="Q14" s="85"/>
       <c r="R14" s="85"/>
       <c r="S14" s="96"/>
-      <c r="V14" s="98"/>
-    </row>
-    <row r="15" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
+      <c r="V14" s="99"/>
+    </row>
+    <row r="15" spans="2:29" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
       <c r="C15" s="90"/>
       <c r="D15" s="83"/>
@@ -3674,9 +3928,12 @@
       <c r="P15" s="83"/>
       <c r="Q15" s="83"/>
       <c r="R15" s="83"/>
-      <c r="V15" s="98"/>
-    </row>
-    <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
+      <c r="V15" s="99"/>
+      <c r="AC15" s="67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="84"/>
       <c r="E16" s="84"/>
@@ -3694,7 +3951,7 @@
       <c r="Q16" s="84"/>
       <c r="R16" s="84"/>
       <c r="S16" s="93"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="99"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -3702,52 +3959,52 @@
         <v>4</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>295</v>
+        <v>192</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="H17" s="80" t="s">
-        <v>296</v>
+        <v>227</v>
       </c>
       <c r="I17" s="80" t="s">
-        <v>291</v>
+        <v>228</v>
       </c>
       <c r="J17" s="80" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="K17" s="80" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="L17" s="80" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="M17" s="80" t="s">
-        <v>298</v>
+        <v>195</v>
       </c>
       <c r="N17" s="80" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="O17" s="80" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="P17" s="80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="80" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="R17" s="80" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="S17" s="94"/>
-      <c r="V17" s="98"/>
+      <c r="V17" s="99"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
@@ -3767,7 +4024,7 @@
       <c r="Q18" s="85"/>
       <c r="R18" s="85"/>
       <c r="S18" s="96"/>
-      <c r="V18" s="98"/>
+      <c r="V18" s="99"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -3787,7 +4044,7 @@
       <c r="P19" s="83"/>
       <c r="Q19" s="83"/>
       <c r="R19" s="83"/>
-      <c r="V19" s="98"/>
+      <c r="V19" s="99"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
@@ -3807,7 +4064,7 @@
       <c r="Q20" s="84"/>
       <c r="R20" s="84"/>
       <c r="S20" s="93"/>
-      <c r="V20" s="98"/>
+      <c r="V20" s="99"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -3815,52 +4072,38 @@
         <v>5</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="E21" s="80" t="s">
-        <v>293</v>
+        <v>202</v>
       </c>
       <c r="F21" s="80" t="s">
-        <v>294</v>
+        <v>192</v>
       </c>
       <c r="G21" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="H21" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="I21" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="J21" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="H21" s="80" t="s">
-        <v>167</v>
-      </c>
-      <c r="I21" s="80" t="s">
-        <v>295</v>
-      </c>
-      <c r="J21" s="80" t="s">
-        <v>198</v>
-      </c>
       <c r="K21" s="80" t="s">
-        <v>296</v>
-      </c>
-      <c r="L21" s="80" t="s">
-        <v>291</v>
-      </c>
-      <c r="M21" s="80" t="s">
-        <v>167</v>
-      </c>
-      <c r="N21" s="80" t="s">
-        <v>216</v>
-      </c>
-      <c r="O21" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="P21" s="80" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q21" s="80" t="s">
-        <v>231</v>
-      </c>
-      <c r="R21" s="80" t="s">
-        <v>167</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
       <c r="S21" s="94"/>
-      <c r="V21" s="98"/>
+      <c r="V21" s="99"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
@@ -3880,7 +4123,7 @@
       <c r="Q22" s="85"/>
       <c r="R22" s="85"/>
       <c r="S22" s="96"/>
-      <c r="V22" s="99"/>
+      <c r="V22" s="100"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -3927,42 +4170,18 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="E25" s="80" t="s">
-        <v>212</v>
-      </c>
-      <c r="F25" s="80" t="s">
-        <v>225</v>
-      </c>
-      <c r="G25" s="80" t="s">
-        <v>226</v>
-      </c>
-      <c r="H25" s="80" t="s">
-        <v>227</v>
-      </c>
-      <c r="I25" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="J25" s="80" t="s">
-        <v>228</v>
-      </c>
-      <c r="K25" s="80" t="s">
-        <v>229</v>
-      </c>
-      <c r="L25" s="80" t="s">
-        <v>228</v>
-      </c>
-      <c r="M25" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="N25" s="80" t="s">
-        <v>184</v>
-      </c>
-      <c r="O25" s="80" t="s">
-        <v>171</v>
-      </c>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
       <c r="P25" s="80"/>
       <c r="Q25" s="80"/>
       <c r="R25" s="80"/>
@@ -4047,28 +4266,28 @@
         <v>7</v>
       </c>
       <c r="D29" s="80" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="E29" s="80" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="F29" s="80" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="G29" s="80" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="H29" s="80" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="I29" s="80" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="J29" s="80" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="K29" s="80" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="L29" s="80" t="s">
         <v>243</v>
@@ -4077,19 +4296,19 @@
         <v>244</v>
       </c>
       <c r="N29" s="80" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="O29" s="80" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="P29" s="80" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="Q29" s="80" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="R29" s="80" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="S29" s="94"/>
       <c r="U29" s="67" t="str">
@@ -4176,49 +4395,49 @@
         <v>8</v>
       </c>
       <c r="D33" s="80" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="F33" s="80" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="H33" s="80" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="J33" s="80" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="K33" s="80" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="L33" s="80" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="M33" s="80" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="N33" s="80" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="O33" s="80" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="P33" s="80" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q33" s="80" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="R33" s="80" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="S33" s="94"/>
       <c r="V33" s="60"/>
@@ -4289,49 +4508,49 @@
         <v>9</v>
       </c>
       <c r="D37" s="80" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="E37" s="80" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="F37" s="80" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="G37" s="80" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H37" s="80" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="I37" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="J37" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="L37" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="M37" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="J37" s="80" t="s">
-        <v>167</v>
-      </c>
-      <c r="K37" s="80" t="s">
-        <v>241</v>
-      </c>
-      <c r="L37" s="80" t="s">
-        <v>224</v>
-      </c>
-      <c r="M37" s="80" t="s">
-        <v>286</v>
-      </c>
       <c r="N37" s="80" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="O37" s="80" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="P37" s="80" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="80" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="R37" s="80" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="S37" s="94"/>
       <c r="V37" s="60"/>
@@ -4402,49 +4621,49 @@
         <v>10</v>
       </c>
       <c r="D41" s="80" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="E41" s="80" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="F41" s="80" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="G41" s="80" t="s">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="H41" s="80" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="I41" s="80" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="J41" s="80" t="s">
+        <v>268</v>
+      </c>
+      <c r="K41" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="L41" s="80" t="s">
+        <v>270</v>
+      </c>
+      <c r="M41" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="K41" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="L41" s="80" t="s">
-        <v>167</v>
-      </c>
-      <c r="M41" s="80" t="s">
-        <v>208</v>
-      </c>
       <c r="N41" s="80" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="O41" s="80" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="P41" s="80" t="s">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="Q41" s="80" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="R41" s="80" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="S41" s="94"/>
       <c r="V41" s="60"/>
@@ -4515,49 +4734,49 @@
         <v>11</v>
       </c>
       <c r="D45" s="80" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E45" s="80" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F45" s="80" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="G45" s="80" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H45" s="80" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="I45" s="80" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="J45" s="80" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="K45" s="80" t="s">
-        <v>167</v>
+        <v>277</v>
       </c>
       <c r="L45" s="80" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="M45" s="80" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="N45" s="80" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="O45" s="80" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="P45" s="80" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="Q45" s="80" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="R45" s="80" t="s">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="S45" s="94"/>
       <c r="V45" s="60"/>
@@ -4628,49 +4847,49 @@
         <v>12</v>
       </c>
       <c r="D49" s="80" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="E49" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="F49" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="G49" s="80" t="s">
+        <v>283</v>
+      </c>
+      <c r="H49" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="I49" s="80" t="s">
+        <v>285</v>
+      </c>
+      <c r="J49" s="80" t="s">
         <v>286</v>
       </c>
-      <c r="F49" s="80" t="s">
+      <c r="K49" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="L49" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="M49" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="N49" s="80" t="s">
         <v>287</v>
       </c>
-      <c r="G49" s="80" t="s">
-        <v>211</v>
-      </c>
-      <c r="H49" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="I49" s="80" t="s">
-        <v>275</v>
-      </c>
-      <c r="J49" s="80" t="s">
-        <v>248</v>
-      </c>
-      <c r="K49" s="80" t="s">
-        <v>167</v>
-      </c>
-      <c r="L49" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="M49" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="N49" s="80" t="s">
-        <v>209</v>
-      </c>
       <c r="O49" s="80" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="P49" s="80" t="s">
-        <v>215</v>
+        <v>289</v>
       </c>
       <c r="Q49" s="80" t="s">
-        <v>167</v>
+        <v>290</v>
       </c>
       <c r="R49" s="80" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="S49" s="94"/>
       <c r="V49" s="60"/>
@@ -4741,49 +4960,49 @@
         <v>13</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="E53" s="80" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="F53" s="80" t="s">
-        <v>168</v>
+        <v>293</v>
       </c>
       <c r="G53" s="81" t="s">
-        <v>167</v>
+        <v>294</v>
       </c>
       <c r="H53" s="81" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="I53" s="80" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="J53" s="80" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="K53" s="80" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="L53" s="80" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="M53" s="80" t="s">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="N53" s="80" t="s">
-        <v>188</v>
+        <v>298</v>
       </c>
       <c r="O53" s="80" t="s">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="P53" s="80" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="Q53" s="80" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="R53" s="80" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="S53" s="94"/>
       <c r="V53" s="60"/>
@@ -4853,21 +5072,51 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
-      <c r="M57" s="80"/>
-      <c r="N57" s="80"/>
-      <c r="O57" s="80"/>
-      <c r="P57" s="80"/>
-      <c r="Q57" s="80"/>
-      <c r="R57" s="80"/>
+      <c r="D57" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="E57" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="F57" s="80" t="s">
+        <v>264</v>
+      </c>
+      <c r="G57" s="81" t="s">
+        <v>304</v>
+      </c>
+      <c r="H57" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="I57" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="J57" s="80" t="s">
+        <v>306</v>
+      </c>
+      <c r="K57" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="L57" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="M57" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="N57" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="O57" s="80" t="s">
+        <v>308</v>
+      </c>
+      <c r="P57" s="80" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q57" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="R57" s="80" t="s">
+        <v>310</v>
+      </c>
       <c r="S57" s="94"/>
       <c r="V57" s="60"/>
     </row>
@@ -4937,49 +5186,49 @@
         <v>15</v>
       </c>
       <c r="D61" s="80" t="s">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="E61" s="80" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="F61" s="80" t="s">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="G61" s="81" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="H61" s="80" t="s">
-        <v>184</v>
+        <v>312</v>
       </c>
       <c r="I61" s="80" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="J61" s="80" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K61" s="80" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="L61" s="80" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="M61" s="80" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="N61" s="80" t="s">
-        <v>196</v>
+        <v>315</v>
       </c>
       <c r="O61" s="80" t="s">
-        <v>218</v>
+        <v>316</v>
       </c>
       <c r="P61" s="80" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="Q61" s="80" t="s">
-        <v>197</v>
+        <v>317</v>
       </c>
       <c r="R61" s="80" t="s">
-        <v>167</v>
+        <v>318</v>
       </c>
       <c r="S61" s="94"/>
       <c r="V61" s="60"/>
@@ -5050,49 +5299,49 @@
         <v>16</v>
       </c>
       <c r="D65" s="80" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="E65" s="80" t="s">
+        <v>319</v>
+      </c>
+      <c r="F65" s="80" t="s">
         <v>283</v>
       </c>
-      <c r="F65" s="80" t="s">
-        <v>302</v>
-      </c>
       <c r="G65" s="81" t="s">
-        <v>198</v>
+        <v>275</v>
       </c>
       <c r="H65" s="80" t="s">
-        <v>167</v>
+        <v>290</v>
       </c>
       <c r="I65" s="80" t="s">
+        <v>320</v>
+      </c>
+      <c r="J65" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="K65" s="80" t="s">
+        <v>321</v>
+      </c>
+      <c r="L65" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="M65" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="N65" s="80" t="s">
+        <v>246</v>
+      </c>
+      <c r="O65" s="80" t="s">
+        <v>322</v>
+      </c>
+      <c r="P65" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q65" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="J65" s="80" t="s">
-        <v>262</v>
-      </c>
-      <c r="K65" s="80" t="s">
-        <v>260</v>
-      </c>
-      <c r="L65" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="M65" s="80" t="s">
-        <v>263</v>
-      </c>
-      <c r="N65" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="O65" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="P65" s="80" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q65" s="80" t="s">
-        <v>167</v>
-      </c>
       <c r="R65" s="80" t="s">
-        <v>188</v>
+        <v>323</v>
       </c>
       <c r="S65" s="94"/>
       <c r="V65" s="60"/>
@@ -5163,49 +5412,49 @@
         <v>17</v>
       </c>
       <c r="D69" s="80" t="s">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="E69" s="80" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="F69" s="80" t="s">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="G69" s="81" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="H69" s="80" t="s">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c r="I69" s="80" t="s">
-        <v>202</v>
+        <v>325</v>
       </c>
       <c r="J69" s="80" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="K69" s="80" t="s">
-        <v>200</v>
+        <v>327</v>
       </c>
       <c r="L69" s="80" t="s">
-        <v>207</v>
+        <v>328</v>
       </c>
       <c r="M69" s="80" t="s">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="N69" s="80" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="O69" s="80" t="s">
+        <v>331</v>
+      </c>
+      <c r="P69" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q69" s="80" t="s">
+        <v>333</v>
+      </c>
+      <c r="R69" s="80" t="s">
         <v>192</v>
-      </c>
-      <c r="P69" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q69" s="80" t="s">
-        <v>252</v>
-      </c>
-      <c r="R69" s="80" t="s">
-        <v>167</v>
       </c>
       <c r="S69" s="94"/>
       <c r="V69" s="60"/>
@@ -5276,40 +5525,50 @@
         <v>18</v>
       </c>
       <c r="D73" s="80" t="s">
-        <v>214</v>
+        <v>334</v>
       </c>
       <c r="E73" s="80" t="s">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="F73" s="80" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="G73" s="81" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="H73" s="80" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="I73" s="80" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="J73" s="80" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="K73" s="80" t="s">
-        <v>209</v>
+        <v>338</v>
       </c>
       <c r="L73" s="80" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="M73" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="N73" s="80"/>
-      <c r="O73" s="80"/>
-      <c r="P73" s="80"/>
-      <c r="Q73" s="80"/>
-      <c r="R73" s="80"/>
+        <v>192</v>
+      </c>
+      <c r="N73" s="80" t="s">
+        <v>340</v>
+      </c>
+      <c r="O73" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="P73" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q73" s="80" t="s">
+        <v>342</v>
+      </c>
+      <c r="R73" s="80" t="s">
+        <v>208</v>
+      </c>
       <c r="S73" s="94"/>
       <c r="V73" s="60"/>
     </row>
@@ -5379,49 +5638,49 @@
         <v>19</v>
       </c>
       <c r="D77" s="80" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E77" s="80" t="s">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="F77" s="80" t="s">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="G77" s="81" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="H77" s="80" t="s">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="I77" s="80" t="s">
-        <v>186</v>
+        <v>346</v>
       </c>
       <c r="J77" s="80" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="K77" s="80" t="s">
-        <v>242</v>
+        <v>347</v>
       </c>
       <c r="L77" s="80" t="s">
-        <v>170</v>
+        <v>310</v>
       </c>
       <c r="M77" s="80" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="N77" s="80" t="s">
-        <v>236</v>
+        <v>348</v>
       </c>
       <c r="O77" s="80" t="s">
-        <v>209</v>
+        <v>349</v>
       </c>
       <c r="P77" s="80" t="s">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="Q77" s="80" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="R77" s="80" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="S77" s="94"/>
       <c r="V77" s="60"/>
@@ -5492,40 +5751,50 @@
         <v>20</v>
       </c>
       <c r="D81" s="80" t="s">
-        <v>167</v>
+        <v>347</v>
       </c>
       <c r="E81" s="80" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="F81" s="80" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="G81" s="80" t="s">
-        <v>222</v>
+        <v>352</v>
       </c>
       <c r="H81" s="80" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="I81" s="80" t="s">
-        <v>245</v>
+        <v>353</v>
       </c>
       <c r="J81" s="80" t="s">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c r="K81" s="80" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="L81" s="80" t="s">
-        <v>171</v>
+        <v>354</v>
       </c>
       <c r="M81" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="N81" s="80"/>
-      <c r="O81" s="80"/>
-      <c r="P81" s="80"/>
-      <c r="Q81" s="80"/>
-      <c r="R81" s="80"/>
+        <v>355</v>
+      </c>
+      <c r="N81" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="O81" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="P81" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q81" s="80" t="s">
+        <v>322</v>
+      </c>
+      <c r="R81" s="80" t="s">
+        <v>195</v>
+      </c>
       <c r="S81" s="94"/>
       <c r="V81" s="60"/>
     </row>
@@ -5594,21 +5863,51 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="80"/>
-      <c r="E85" s="80"/>
-      <c r="F85" s="80"/>
-      <c r="G85" s="81"/>
-      <c r="H85" s="80"/>
-      <c r="I85" s="80"/>
-      <c r="J85" s="80"/>
-      <c r="K85" s="80"/>
-      <c r="L85" s="80"/>
-      <c r="M85" s="80"/>
-      <c r="N85" s="80"/>
-      <c r="O85" s="80"/>
-      <c r="P85" s="80"/>
-      <c r="Q85" s="80"/>
-      <c r="R85" s="80"/>
+      <c r="D85" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="E85" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="F85" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="G85" s="81" t="s">
+        <v>312</v>
+      </c>
+      <c r="H85" s="80" t="s">
+        <v>357</v>
+      </c>
+      <c r="I85" s="80" t="s">
+        <v>311</v>
+      </c>
+      <c r="J85" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="K85" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="L85" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="M85" s="80" t="s">
+        <v>359</v>
+      </c>
+      <c r="N85" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="O85" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="P85" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q85" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="R85" s="80" t="s">
+        <v>362</v>
+      </c>
       <c r="S85" s="94"/>
       <c r="V85" s="60"/>
     </row>
@@ -5677,21 +5976,51 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="80"/>
-      <c r="E89" s="80"/>
-      <c r="F89" s="80"/>
-      <c r="G89" s="80"/>
-      <c r="H89" s="80"/>
-      <c r="I89" s="80"/>
-      <c r="J89" s="80"/>
-      <c r="K89" s="80"/>
-      <c r="L89" s="80"/>
-      <c r="M89" s="80"/>
-      <c r="N89" s="80"/>
-      <c r="O89" s="80"/>
-      <c r="P89" s="80"/>
-      <c r="Q89" s="80"/>
-      <c r="R89" s="80"/>
+      <c r="D89" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="E89" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="F89" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="G89" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="H89" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="I89" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="J89" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="K89" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="L89" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="M89" s="80" t="s">
+        <v>320</v>
+      </c>
+      <c r="N89" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="O89" s="80" t="s">
+        <v>365</v>
+      </c>
+      <c r="P89" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q89" s="80" t="s">
+        <v>366</v>
+      </c>
+      <c r="R89" s="80" t="s">
+        <v>192</v>
+      </c>
       <c r="S89" s="94"/>
       <c r="V89" s="60"/>
     </row>
@@ -5760,21 +6089,51 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="80"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="80"/>
-      <c r="G93" s="81"/>
-      <c r="H93" s="80"/>
-      <c r="I93" s="80"/>
-      <c r="J93" s="80"/>
-      <c r="K93" s="80"/>
-      <c r="L93" s="80"/>
-      <c r="M93" s="80"/>
-      <c r="N93" s="80"/>
-      <c r="O93" s="80"/>
-      <c r="P93" s="80"/>
-      <c r="Q93" s="80"/>
-      <c r="R93" s="80"/>
+      <c r="D93" s="80" t="s">
+        <v>367</v>
+      </c>
+      <c r="E93" s="80" t="s">
+        <v>368</v>
+      </c>
+      <c r="F93" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="G93" s="81" t="s">
+        <v>322</v>
+      </c>
+      <c r="H93" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="I93" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="J93" s="80" t="s">
+        <v>369</v>
+      </c>
+      <c r="K93" s="80" t="s">
+        <v>325</v>
+      </c>
+      <c r="L93" s="80" t="s">
+        <v>326</v>
+      </c>
+      <c r="M93" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="N93" s="80" t="s">
+        <v>340</v>
+      </c>
+      <c r="O93" s="80" t="s">
+        <v>370</v>
+      </c>
+      <c r="P93" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q93" s="80" t="s">
+        <v>297</v>
+      </c>
+      <c r="R93" s="80" t="s">
+        <v>195</v>
+      </c>
       <c r="S93" s="94"/>
       <c r="V93" s="60"/>
     </row>
@@ -5843,10 +6202,18 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="80"/>
-      <c r="E97" s="80"/>
-      <c r="F97" s="80"/>
-      <c r="G97" s="81"/>
+      <c r="D97" s="80" t="s">
+        <v>371</v>
+      </c>
+      <c r="E97" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="F97" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="G97" s="81" t="s">
+        <v>347</v>
+      </c>
       <c r="H97" s="80"/>
       <c r="I97" s="80"/>
       <c r="J97" s="80"/>
@@ -6009,21 +6376,51 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="80"/>
-      <c r="E105" s="80"/>
-      <c r="F105" s="80"/>
-      <c r="G105" s="81"/>
-      <c r="H105" s="80"/>
-      <c r="I105" s="80"/>
-      <c r="J105" s="80"/>
-      <c r="K105" s="80"/>
-      <c r="L105" s="80"/>
-      <c r="M105" s="80"/>
-      <c r="N105" s="80"/>
-      <c r="O105" s="80"/>
-      <c r="P105" s="80"/>
-      <c r="Q105" s="80"/>
-      <c r="R105" s="80"/>
+      <c r="D105" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="E105" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="F105" s="80" t="s">
+        <v>373</v>
+      </c>
+      <c r="G105" s="81" t="s">
+        <v>341</v>
+      </c>
+      <c r="H105" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="I105" s="80" t="s">
+        <v>243</v>
+      </c>
+      <c r="J105" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="K105" s="80" t="s">
+        <v>254</v>
+      </c>
+      <c r="L105" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="M105" s="80" t="s">
+        <v>242</v>
+      </c>
+      <c r="N105" s="80" t="s">
+        <v>374</v>
+      </c>
+      <c r="O105" s="80" t="s">
+        <v>375</v>
+      </c>
+      <c r="P105" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q105" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="R105" s="80" t="s">
+        <v>376</v>
+      </c>
       <c r="S105" s="94"/>
       <c r="V105" s="60"/>
     </row>
@@ -6092,21 +6489,51 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="80"/>
-      <c r="E109" s="80"/>
-      <c r="F109" s="80"/>
-      <c r="G109" s="80"/>
-      <c r="H109" s="80"/>
-      <c r="I109" s="80"/>
-      <c r="J109" s="80"/>
-      <c r="K109" s="80"/>
-      <c r="L109" s="80"/>
-      <c r="M109" s="80"/>
-      <c r="N109" s="80"/>
-      <c r="O109" s="80"/>
-      <c r="P109" s="80"/>
-      <c r="Q109" s="80"/>
-      <c r="R109" s="80"/>
+      <c r="D109" s="80" t="s">
+        <v>376</v>
+      </c>
+      <c r="E109" s="80" t="s">
+        <v>377</v>
+      </c>
+      <c r="F109" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="G109" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="H109" s="80" t="s">
+        <v>378</v>
+      </c>
+      <c r="I109" s="80" t="s">
+        <v>379</v>
+      </c>
+      <c r="J109" s="80" t="s">
+        <v>380</v>
+      </c>
+      <c r="K109" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="L109" s="80" t="s">
+        <v>381</v>
+      </c>
+      <c r="M109" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="N109" s="80" t="s">
+        <v>382</v>
+      </c>
+      <c r="O109" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="P109" s="80" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q109" s="80" t="s">
+        <v>296</v>
+      </c>
+      <c r="R109" s="80" t="s">
+        <v>322</v>
+      </c>
       <c r="S109" s="94"/>
       <c r="V109" s="60"/>
     </row>
@@ -6175,21 +6602,51 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="80"/>
-      <c r="E113" s="80"/>
-      <c r="F113" s="80"/>
-      <c r="G113" s="80"/>
-      <c r="H113" s="80"/>
-      <c r="I113" s="80"/>
-      <c r="J113" s="80"/>
-      <c r="K113" s="80"/>
-      <c r="L113" s="80"/>
-      <c r="M113" s="80"/>
-      <c r="N113" s="80"/>
-      <c r="O113" s="80"/>
-      <c r="P113" s="80"/>
-      <c r="Q113" s="80"/>
-      <c r="R113" s="80"/>
+      <c r="D113" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="E113" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="F113" s="80" t="s">
+        <v>382</v>
+      </c>
+      <c r="G113" s="80" t="s">
+        <v>384</v>
+      </c>
+      <c r="H113" s="80" t="s">
+        <v>385</v>
+      </c>
+      <c r="I113" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="J113" s="80" t="s">
+        <v>386</v>
+      </c>
+      <c r="K113" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="L113" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="M113" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="N113" s="80" t="s">
+        <v>387</v>
+      </c>
+      <c r="O113" s="80" t="s">
+        <v>375</v>
+      </c>
+      <c r="P113" s="80" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q113" s="80" t="s">
+        <v>377</v>
+      </c>
+      <c r="R113" s="80" t="s">
+        <v>192</v>
+      </c>
       <c r="S113" s="94"/>
       <c r="V113" s="60"/>
     </row>
@@ -6258,13 +6715,27 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="80"/>
-      <c r="E117" s="80"/>
-      <c r="F117" s="80"/>
-      <c r="G117" s="81"/>
-      <c r="H117" s="80"/>
-      <c r="I117" s="80"/>
-      <c r="J117" s="80"/>
+      <c r="D117" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="E117" s="80" t="s">
+        <v>388</v>
+      </c>
+      <c r="F117" s="80" t="s">
+        <v>340</v>
+      </c>
+      <c r="G117" s="81" t="s">
+        <v>234</v>
+      </c>
+      <c r="H117" s="80" t="s">
+        <v>243</v>
+      </c>
+      <c r="I117" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="J117" s="80" t="s">
+        <v>233</v>
+      </c>
       <c r="K117" s="80"/>
       <c r="L117" s="80"/>
       <c r="M117" s="80"/>
@@ -6424,21 +6895,51 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="80"/>
-      <c r="E125" s="80"/>
-      <c r="F125" s="80"/>
-      <c r="G125" s="81"/>
-      <c r="H125" s="80"/>
-      <c r="I125" s="80"/>
-      <c r="J125" s="80"/>
-      <c r="K125" s="80"/>
-      <c r="L125" s="80"/>
-      <c r="M125" s="80"/>
-      <c r="N125" s="80"/>
-      <c r="O125" s="80"/>
-      <c r="P125" s="80"/>
-      <c r="Q125" s="80"/>
-      <c r="R125" s="80"/>
+      <c r="D125" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="E125" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="F125" s="80" t="s">
+        <v>389</v>
+      </c>
+      <c r="G125" s="81" t="s">
+        <v>390</v>
+      </c>
+      <c r="H125" s="80" t="s">
+        <v>391</v>
+      </c>
+      <c r="I125" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="J125" s="80" t="s">
+        <v>392</v>
+      </c>
+      <c r="K125" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="L125" s="80" t="s">
+        <v>393</v>
+      </c>
+      <c r="M125" s="80" t="s">
+        <v>394</v>
+      </c>
+      <c r="N125" s="80" t="s">
+        <v>395</v>
+      </c>
+      <c r="O125" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="P125" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q125" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="R125" s="80" t="s">
+        <v>205</v>
+      </c>
       <c r="S125" s="94"/>
       <c r="V125" s="60"/>
     </row>
@@ -6507,21 +7008,51 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="80"/>
-      <c r="E129" s="80"/>
-      <c r="F129" s="80"/>
-      <c r="G129" s="81"/>
-      <c r="H129" s="80"/>
-      <c r="I129" s="80"/>
-      <c r="J129" s="80"/>
-      <c r="K129" s="80"/>
-      <c r="L129" s="80"/>
-      <c r="M129" s="80"/>
-      <c r="N129" s="80"/>
-      <c r="O129" s="80"/>
-      <c r="P129" s="80"/>
-      <c r="Q129" s="80"/>
-      <c r="R129" s="80"/>
+      <c r="D129" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="E129" s="80" t="s">
+        <v>396</v>
+      </c>
+      <c r="F129" s="80" t="s">
+        <v>264</v>
+      </c>
+      <c r="G129" s="81" t="s">
+        <v>397</v>
+      </c>
+      <c r="H129" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="I129" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="J129" s="80" t="s">
+        <v>398</v>
+      </c>
+      <c r="K129" s="80" t="s">
+        <v>399</v>
+      </c>
+      <c r="L129" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="M129" s="80" t="s">
+        <v>387</v>
+      </c>
+      <c r="N129" s="80" t="s">
+        <v>400</v>
+      </c>
+      <c r="O129" s="80" t="s">
+        <v>401</v>
+      </c>
+      <c r="P129" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q129" s="80" t="s">
+        <v>402</v>
+      </c>
+      <c r="R129" s="80" t="s">
+        <v>343</v>
+      </c>
       <c r="S129" s="94"/>
       <c r="V129" s="60"/>
     </row>
@@ -6590,11 +7121,21 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="80"/>
-      <c r="E133" s="80"/>
-      <c r="F133" s="80"/>
-      <c r="G133" s="81"/>
-      <c r="H133" s="80"/>
+      <c r="D133" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="E133" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="F133" s="80" t="s">
+        <v>403</v>
+      </c>
+      <c r="G133" s="81" t="s">
+        <v>404</v>
+      </c>
+      <c r="H133" s="80" t="s">
+        <v>233</v>
+      </c>
       <c r="I133" s="80"/>
       <c r="J133" s="80"/>
       <c r="K133" s="80"/>
@@ -8799,26 +9340,26 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="13" priority="363">
+    <cfRule type="expression" dxfId="9" priority="363">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="364">
+    <cfRule type="expression" dxfId="8" priority="364">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:R7 D11:R11 D15:R15 D23:R23 D31:R31 D39:R39 D47:R47 D51:R51 D59:R59 D63:R63 D67:R67 D75:R75 D79:R79 D83:R83 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D107:R107 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163 D19:R19 D27:R27 D35:R35 D43:R43 D55:R55 D71:R71">
-    <cfRule type="expression" dxfId="11" priority="7">
+  <conditionalFormatting sqref="D7:R7 D11:R11 D15:R15 D19:R19 D23:R23 D27:R27 D31:R31 D35:R35 D39:R39 D43:R43 D47:R47 D51:R51 D55:R55 D59:R59 D63:R63 D67:R67 D71:R71 D75:R75 D79:R79 D83:R83 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D107:R107 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8900,7 +9441,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -8918,7 +9459,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="101" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -8943,7 +9484,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="101"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -8963,7 +9504,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="101"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -8985,7 +9526,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="101"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -9001,7 +9542,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="101"/>
+      <c r="I7" s="102"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -9023,7 +9564,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="101"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -9039,7 +9580,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="101"/>
+      <c r="I8" s="102"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -9061,7 +9602,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="101"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9077,7 +9618,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="101"/>
+      <c r="I9" s="102"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9099,7 +9640,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="102"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -9115,7 +9656,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="102"/>
+      <c r="I10" s="103"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -9138,7 +9679,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="101" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -9156,7 +9697,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="100" t="s">
+      <c r="I11" s="101" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -9180,7 +9721,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="101"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -9200,7 +9741,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="101"/>
+      <c r="I12" s="102"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -9220,7 +9761,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="101"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -9234,7 +9775,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="101"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -9254,7 +9795,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="101"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -9268,7 +9809,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="101"/>
+      <c r="I14" s="102"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -9288,7 +9829,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="101"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -9302,7 +9843,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="101"/>
+      <c r="I15" s="102"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -9322,7 +9863,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="102"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -9336,7 +9877,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="102"/>
+      <c r="I16" s="103"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>
@@ -9375,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="71" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
@@ -9387,7 +9928,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="71" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
@@ -9399,7 +9940,7 @@
         <v>3</v>
       </c>
       <c r="K21" s="71" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
@@ -9411,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="72" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
@@ -9423,7 +9964,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="72" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
@@ -9432,10 +9973,10 @@
     <row r="24" spans="3:14" ht="42.75" customHeight="1">
       <c r="C24" s="36"/>
       <c r="J24" s="70" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K24" s="73" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
@@ -9447,7 +9988,7 @@
         <v>4</v>
       </c>
       <c r="K25" s="71" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
@@ -9459,7 +10000,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="71" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
@@ -9611,13 +10152,13 @@
         <v>81</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G4" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J4" s="40" t="s">
         <v>83</v>
@@ -9681,13 +10222,13 @@
         <v>93</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J8" s="40" t="s">
         <v>94</v>
@@ -9748,13 +10289,13 @@
         <v>104</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J12" s="40" t="s">
         <v>105</v>
@@ -9815,13 +10356,13 @@
         <v>115</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G16" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J16" s="40" t="s">
         <v>116</v>
@@ -9882,13 +10423,13 @@
         <v>127</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J20" s="40" t="s">
         <v>128</v>

--- a/output2/【河洛話注音】working.xlsx
+++ b/output2/【河洛話注音】working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40E15B5-CDA2-4FEB-BC25-20755CF99836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B482EEE5-73EF-4232-B28D-9E2F57D1D77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -27,6 +27,7 @@
     <definedName name="TITLE">env!$C$4</definedName>
     <definedName name="每列總字數">env!$C$10</definedName>
     <definedName name="每頁總列數">env!$C$9</definedName>
+    <definedName name="語音類型">env!$C$11</definedName>
     <definedName name="顯示注音輸入">env!$C$8</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="402">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1079,174 +1080,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>　　晉太元中，武陵人，捕魚為業，緣溪行，忘路之遠近；忽逢桃花林，夾岸數百步，中無雜樹，芳草鮮美，落英繽紛；漁人甚異之。復前行，欲窮其林。
-　　林盡水源，便得一山。山有小口，彷彿若有光，便舍船，從口入。初極狹，纔通人；復行數十步，豁然開朗。土地平曠，屋舍儼然。有良田、美池、桑、竹之屬，阡陌交通，雞犬相聞。其中往來種作，男女衣著，悉如外人；黃髮垂髫，並佁然自樂。見漁人，乃大驚，問所從來；具答之。便要還家，設酒、殺雞、作食。村中聞有此人，咸來問訊。自云：「先世避秦時亂，率妻子邑人來此絕境，不復出焉；遂與外人間隔。」問「今是何世？」乃不知有漢，無論魏、晉！此人一一為具言所聞，皆歎惋。餘人各復延至其家，皆出酒食。停數日，辭去。此中人語云：「不足為外人道也。」
-　　既出，得其船，便扶向路，處處誌之。及郡下，詣太守，說如此。太守即遣人隨其往，尋向所誌，遂迷不復得路。
-　　南陽劉子驥，高尚士也，聞之，欣然規往，未果，尋病終。後遂無問津者。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃花源記</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>:w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>　</t>
-  </si>
-  <si>
-    <t>晉</t>
-  </si>
-  <si>
-    <t>太</t>
-  </si>
-  <si>
-    <t>元</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
     <t>，</t>
   </si>
   <si>
-    <t>武</t>
-  </si>
-  <si>
-    <t>陵</t>
-  </si>
-  <si>
     <t>人</t>
   </si>
   <si>
-    <t>捕</t>
-  </si>
-  <si>
-    <t>魚</t>
-  </si>
-  <si>
     <t>為</t>
   </si>
   <si>
-    <t>業</t>
-  </si>
-  <si>
-    <t>緣</t>
-  </si>
-  <si>
-    <t>溪</t>
-  </si>
-  <si>
-    <t>行</t>
-  </si>
-  <si>
-    <t>忘</t>
-  </si>
-  <si>
-    <t>路</t>
-  </si>
-  <si>
     <t>之</t>
   </si>
   <si>
-    <t>遠</t>
-  </si>
-  <si>
-    <t>近</t>
-  </si>
-  <si>
     <t>；</t>
   </si>
   <si>
-    <t>忽</t>
-  </si>
-  <si>
-    <t>逢</t>
-  </si>
-  <si>
-    <t>桃</t>
-  </si>
-  <si>
-    <t>花</t>
-  </si>
-  <si>
     <t>林</t>
   </si>
   <si>
-    <t>夾</t>
-  </si>
-  <si>
-    <t>岸</t>
-  </si>
-  <si>
-    <t>數</t>
-  </si>
-  <si>
-    <t>百</t>
-  </si>
-  <si>
-    <t>步</t>
-  </si>
-  <si>
     <t>無</t>
   </si>
   <si>
-    <t>雜</t>
-  </si>
-  <si>
-    <t>樹</t>
-  </si>
-  <si>
-    <t>芳</t>
-  </si>
-  <si>
-    <t>草</t>
-  </si>
-  <si>
-    <t>鮮</t>
-  </si>
-  <si>
-    <t>美</t>
-  </si>
-  <si>
-    <t>落</t>
-  </si>
-  <si>
-    <t>英</t>
-  </si>
-  <si>
-    <t>繽</t>
-  </si>
-  <si>
-    <t>紛</t>
-  </si>
-  <si>
-    <t>漁</t>
-  </si>
-  <si>
-    <t>甚</t>
-  </si>
-  <si>
     <t>異</t>
   </si>
   <si>
     <t>。</t>
   </si>
   <si>
-    <t>復</t>
-  </si>
-  <si>
-    <t>前</t>
-  </si>
-  <si>
-    <t>欲</t>
-  </si>
-  <si>
-    <t>窮</t>
-  </si>
-  <si>
     <t>其</t>
   </si>
   <si>
@@ -1256,12 +1120,6 @@
     <t>水</t>
   </si>
   <si>
-    <t>源</t>
-  </si>
-  <si>
-    <t>便</t>
-  </si>
-  <si>
     <t>得</t>
   </si>
   <si>
@@ -1274,485 +1132,620 @@
     <t>有</t>
   </si>
   <si>
-    <t>小</t>
-  </si>
-  <si>
-    <t>口</t>
-  </si>
-  <si>
-    <t>彷</t>
-  </si>
-  <si>
-    <t>彿</t>
-  </si>
-  <si>
     <t>若</t>
   </si>
   <si>
-    <t>光</t>
-  </si>
-  <si>
     <t>舍</t>
   </si>
   <si>
-    <t>船</t>
-  </si>
-  <si>
-    <t>從</t>
-  </si>
-  <si>
-    <t>入</t>
-  </si>
-  <si>
     <t>初</t>
   </si>
   <si>
     <t>極</t>
   </si>
   <si>
-    <t>狹</t>
-  </si>
-  <si>
-    <t>纔</t>
-  </si>
-  <si>
-    <t>通</t>
-  </si>
-  <si>
-    <t>十</t>
-  </si>
-  <si>
-    <t>豁</t>
-  </si>
-  <si>
     <t>然</t>
   </si>
   <si>
-    <t>開</t>
-  </si>
-  <si>
     <t>朗</t>
   </si>
   <si>
-    <t>土</t>
-  </si>
-  <si>
     <t>地</t>
   </si>
   <si>
-    <t>平</t>
-  </si>
-  <si>
-    <t>曠</t>
-  </si>
-  <si>
-    <t>屋</t>
-  </si>
-  <si>
-    <t>儼</t>
-  </si>
-  <si>
-    <t>良</t>
-  </si>
-  <si>
-    <t>田</t>
-  </si>
-  <si>
-    <t>、</t>
-  </si>
-  <si>
-    <t>池</t>
-  </si>
-  <si>
-    <t>桑</t>
+    <t>相</t>
+  </si>
+  <si>
+    <t>作</t>
+  </si>
+  <si>
+    <t>外</t>
+  </si>
+  <si>
+    <t>自</t>
+  </si>
+  <si>
+    <t>樂</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>此</t>
+  </si>
+  <si>
+    <t>咸</t>
+  </si>
+  <si>
+    <t>云</t>
+  </si>
+  <si>
+    <t>：</t>
+  </si>
+  <si>
+    <t>「</t>
+  </si>
+  <si>
+    <t>世</t>
+  </si>
+  <si>
+    <t>時</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>與</t>
+  </si>
+  <si>
+    <t>間</t>
+  </si>
+  <si>
+    <t>」</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>！</t>
+  </si>
+  <si>
+    <t>言</t>
+  </si>
+  <si>
+    <t>至</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>足</t>
+  </si>
+  <si>
+    <t>也</t>
+  </si>
+  <si>
+    <t>既</t>
+  </si>
+  <si>
+    <t>向</t>
+  </si>
+  <si>
+    <t>及</t>
+  </si>
+  <si>
+    <t>隨</t>
+  </si>
+  <si>
+    <t>欣</t>
+  </si>
+  <si>
+    <t>未</t>
+  </si>
+  <si>
+    <t>終</t>
+  </si>
+  <si>
+    <t>後</t>
+  </si>
+  <si>
+    <t>者</t>
+  </si>
+  <si>
+    <t>語音類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白話音</t>
+  </si>
+  <si>
+    <t>永和九年，歲在癸丑，暮春之初，會於會稽山陰之蘭亭，修稧事也。羣賢畢至，少長咸集。此地有崇山峻領，茂林修竹；又有清流激湍，映帶左右，引以為流觴曲水，列坐其次。雖無絲竹管弦之盛，一觴一詠，亦足以暢敘幽情。
+是日也，天朗氣清，惠風和暢。仰觀宇宙之大，俯察品類之盛。所以遊目騁懷，足以極視聽之娛，信可樂也。
+夫人之相與，俯仰一世，或取諸懷抱，悟言一室之內；或因寄所託，放浪形骸之外。雖趣舍萬殊，靜躁不同，當其欣於所遇，蹔得於己，怏然自足，不知老之將至；及其所之既倦，情隨事遷，感慨係之矣。向之所欣，俯仰之間，已為陳跡，猶不能不以之興懷；況脩短隨化，終期於盡。古人云：「死生亦大矣。」豈不痛哉！
+每覽昔人興感之由，若合一契，未嘗不臨文嗟悼，不能喻之於懷。固知一死生為虛誕，齊彭殤為妄作。後之視今，亦猶今之視昔，悲夫！故列敘時人，錄其所述，雖世殊事異，所以興懷，其致一也。後之覽者，亦將有感於斯文。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘭亭集序【白話音】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永</t>
+  </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
+    <t>九</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>歲</t>
+  </si>
+  <si>
+    <t>在</t>
+  </si>
+  <si>
+    <t>癸</t>
+  </si>
+  <si>
+    <t>丑</t>
+  </si>
+  <si>
+    <t>暮</t>
+  </si>
+  <si>
+    <t>春</t>
+  </si>
+  <si>
+    <t>會</t>
+  </si>
+  <si>
+    <t>於</t>
+  </si>
+  <si>
+    <t>稽</t>
+  </si>
+  <si>
+    <t>陰</t>
+  </si>
+  <si>
+    <t>蘭</t>
+  </si>
+  <si>
+    <t>亭</t>
+  </si>
+  <si>
+    <t>修</t>
+  </si>
+  <si>
+    <t>稧</t>
+  </si>
+  <si>
+    <t>事</t>
+  </si>
+  <si>
+    <t>羣</t>
+  </si>
+  <si>
+    <t>賢</t>
+  </si>
+  <si>
+    <t>畢</t>
+  </si>
+  <si>
+    <t>少</t>
+  </si>
+  <si>
+    <t>長</t>
+  </si>
+  <si>
+    <t>集</t>
+  </si>
+  <si>
+    <t>崇</t>
+  </si>
+  <si>
+    <t>峻</t>
+  </si>
+  <si>
+    <t>領</t>
+  </si>
+  <si>
+    <t>茂</t>
   </si>
   <si>
     <t>竹</t>
   </si>
   <si>
-    <t>屬</t>
-  </si>
-  <si>
-    <t>阡</t>
-  </si>
-  <si>
-    <t>陌</t>
-  </si>
-  <si>
-    <t>交</t>
-  </si>
-  <si>
-    <t>雞</t>
-  </si>
-  <si>
-    <t>犬</t>
-  </si>
-  <si>
-    <t>相</t>
-  </si>
-  <si>
-    <t>聞</t>
-  </si>
-  <si>
-    <t>往</t>
-  </si>
-  <si>
-    <t>來</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>作</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>衣</t>
-  </si>
-  <si>
-    <t>著</t>
-  </si>
-  <si>
-    <t>悉</t>
-  </si>
-  <si>
-    <t>如</t>
-  </si>
-  <si>
-    <t>外</t>
-  </si>
-  <si>
-    <t>黃</t>
-  </si>
-  <si>
-    <t>髮</t>
-  </si>
-  <si>
-    <t>垂</t>
-  </si>
-  <si>
-    <t>髫</t>
-  </si>
-  <si>
-    <t>並</t>
-  </si>
-  <si>
-    <t>佁</t>
-  </si>
-  <si>
-    <t>自</t>
-  </si>
-  <si>
-    <t>樂</t>
-  </si>
-  <si>
-    <t>見</t>
-  </si>
-  <si>
-    <t>乃</t>
+    <t>又</t>
+  </si>
+  <si>
+    <t>清</t>
+  </si>
+  <si>
+    <t>流</t>
+  </si>
+  <si>
+    <t>激</t>
+  </si>
+  <si>
+    <t>湍</t>
+  </si>
+  <si>
+    <t>映</t>
+  </si>
+  <si>
+    <t>帶</t>
+  </si>
+  <si>
+    <t>左</t>
+  </si>
+  <si>
+    <t>右</t>
+  </si>
+  <si>
+    <t>引</t>
+  </si>
+  <si>
+    <t>以</t>
+  </si>
+  <si>
+    <t>觴</t>
+  </si>
+  <si>
+    <t>曲</t>
+  </si>
+  <si>
+    <t>列</t>
+  </si>
+  <si>
+    <t>坐</t>
+  </si>
+  <si>
+    <t>次</t>
+  </si>
+  <si>
+    <t>雖</t>
+  </si>
+  <si>
+    <t>絲</t>
+  </si>
+  <si>
+    <t>管</t>
+  </si>
+  <si>
+    <t>弦</t>
+  </si>
+  <si>
+    <t>盛</t>
+  </si>
+  <si>
+    <t>詠</t>
+  </si>
+  <si>
+    <t>亦</t>
+  </si>
+  <si>
+    <t>暢</t>
+  </si>
+  <si>
+    <t>敘</t>
+  </si>
+  <si>
+    <t>幽</t>
+  </si>
+  <si>
+    <t>情</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>氣</t>
+  </si>
+  <si>
+    <t>惠</t>
+  </si>
+  <si>
+    <t>風</t>
+  </si>
+  <si>
+    <t>仰</t>
+  </si>
+  <si>
+    <t>觀</t>
+  </si>
+  <si>
+    <t>宇</t>
+  </si>
+  <si>
+    <t>宙</t>
   </si>
   <si>
     <t>大</t>
   </si>
   <si>
-    <t>驚</t>
-  </si>
-  <si>
-    <t>問</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>具</t>
-  </si>
-  <si>
-    <t>答</t>
-  </si>
-  <si>
-    <t>要</t>
-  </si>
-  <si>
-    <t>還</t>
-  </si>
-  <si>
-    <t>家</t>
-  </si>
-  <si>
-    <t>設</t>
-  </si>
-  <si>
-    <t>酒</t>
-  </si>
-  <si>
-    <t>殺</t>
-  </si>
-  <si>
-    <t>食</t>
-  </si>
-  <si>
-    <t>村</t>
-  </si>
-  <si>
-    <t>此</t>
-  </si>
-  <si>
-    <t>咸</t>
-  </si>
-  <si>
-    <t>訊</t>
-  </si>
-  <si>
-    <t>云</t>
-  </si>
-  <si>
-    <t>：</t>
-  </si>
-  <si>
-    <t>「</t>
-  </si>
-  <si>
-    <t>先</t>
-  </si>
-  <si>
-    <t>世</t>
-  </si>
-  <si>
-    <t>避</t>
-  </si>
-  <si>
-    <t>秦</t>
-  </si>
-  <si>
-    <t>時</t>
-  </si>
-  <si>
-    <t>亂</t>
-  </si>
-  <si>
-    <t>率</t>
-  </si>
-  <si>
-    <t>妻</t>
-  </si>
-  <si>
-    <t>子</t>
-  </si>
-  <si>
-    <t>邑</t>
-  </si>
-  <si>
-    <t>絕</t>
-  </si>
-  <si>
-    <t>境</t>
-  </si>
-  <si>
-    <t>不</t>
-  </si>
-  <si>
-    <t>出</t>
-  </si>
-  <si>
-    <t>焉</t>
-  </si>
-  <si>
-    <t>遂</t>
-  </si>
-  <si>
-    <t>與</t>
-  </si>
-  <si>
-    <t>間</t>
-  </si>
-  <si>
-    <t>隔</t>
-  </si>
-  <si>
-    <t>」</t>
+    <t>俯</t>
+  </si>
+  <si>
+    <t>察</t>
+  </si>
+  <si>
+    <t>品</t>
+  </si>
+  <si>
+    <t>類</t>
+  </si>
+  <si>
+    <t>遊</t>
+  </si>
+  <si>
+    <t>目</t>
+  </si>
+  <si>
+    <t>騁</t>
+  </si>
+  <si>
+    <t>懷</t>
+  </si>
+  <si>
+    <t>視</t>
+  </si>
+  <si>
+    <t>聽</t>
+  </si>
+  <si>
+    <t>娛</t>
+  </si>
+  <si>
+    <t>信</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>夫</t>
+  </si>
+  <si>
+    <t>或</t>
+  </si>
+  <si>
+    <t>取</t>
+  </si>
+  <si>
+    <t>諸</t>
+  </si>
+  <si>
+    <t>抱</t>
+  </si>
+  <si>
+    <t>悟</t>
+  </si>
+  <si>
+    <t>室</t>
+  </si>
+  <si>
+    <t>內</t>
+  </si>
+  <si>
+    <t>因</t>
+  </si>
+  <si>
+    <t>寄</t>
+  </si>
+  <si>
+    <t>託</t>
+  </si>
+  <si>
+    <t>放</t>
+  </si>
+  <si>
+    <t>浪</t>
+  </si>
+  <si>
+    <t>形</t>
+  </si>
+  <si>
+    <t>骸</t>
+  </si>
+  <si>
+    <t>趣</t>
+  </si>
+  <si>
+    <t>萬</t>
+  </si>
+  <si>
+    <t>殊</t>
+  </si>
+  <si>
+    <t>靜</t>
+  </si>
+  <si>
+    <t>躁</t>
+  </si>
+  <si>
+    <t>同</t>
+  </si>
+  <si>
+    <t>當</t>
+  </si>
+  <si>
+    <t>遇</t>
+  </si>
+  <si>
+    <t>蹔</t>
+  </si>
+  <si>
+    <t>己</t>
+  </si>
+  <si>
+    <t>怏</t>
+  </si>
+  <si>
+    <t>知</t>
+  </si>
+  <si>
+    <t>老</t>
+  </si>
+  <si>
+    <t>將</t>
+  </si>
+  <si>
+    <t>倦</t>
+  </si>
+  <si>
+    <t>遷</t>
+  </si>
+  <si>
+    <t>感</t>
+  </si>
+  <si>
+    <t>慨</t>
+  </si>
+  <si>
+    <t>係</t>
+  </si>
+  <si>
+    <t>矣</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>陳</t>
+  </si>
+  <si>
+    <t>跡</t>
+  </si>
+  <si>
+    <t>猶</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>興</t>
+  </si>
+  <si>
+    <t>況</t>
+  </si>
+  <si>
+    <t>脩</t>
+  </si>
+  <si>
+    <t>短</t>
+  </si>
+  <si>
+    <t>化</t>
+  </si>
+  <si>
+    <t>期</t>
+  </si>
+  <si>
+    <t>古</t>
+  </si>
+  <si>
+    <t>死</t>
+  </si>
+  <si>
+    <t>生</t>
+  </si>
+  <si>
+    <t>豈</t>
+  </si>
+  <si>
+    <t>痛</t>
+  </si>
+  <si>
+    <t>哉</t>
+  </si>
+  <si>
+    <t>每</t>
+  </si>
+  <si>
+    <t>覽</t>
+  </si>
+  <si>
+    <t>昔</t>
+  </si>
+  <si>
+    <t>由</t>
+  </si>
+  <si>
+    <t>合</t>
+  </si>
+  <si>
+    <t>契</t>
+  </si>
+  <si>
+    <t>嘗</t>
+  </si>
+  <si>
+    <t>臨</t>
+  </si>
+  <si>
+    <t>文</t>
+  </si>
+  <si>
+    <t>嗟</t>
+  </si>
+  <si>
+    <t>悼</t>
+  </si>
+  <si>
+    <t>喻</t>
+  </si>
+  <si>
+    <t>固</t>
+  </si>
+  <si>
+    <t>虛</t>
+  </si>
+  <si>
+    <t>誕</t>
+  </si>
+  <si>
+    <t>齊</t>
+  </si>
+  <si>
+    <t>彭</t>
+  </si>
+  <si>
+    <t>殤</t>
+  </si>
+  <si>
+    <t>妄</t>
   </si>
   <si>
     <t>今</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>何</t>
-  </si>
-  <si>
-    <t>？</t>
-  </si>
-  <si>
-    <t>知</t>
-  </si>
-  <si>
-    <t>漢</t>
-  </si>
-  <si>
-    <t>論</t>
-  </si>
-  <si>
-    <t>魏</t>
-  </si>
-  <si>
-    <t>！</t>
-  </si>
-  <si>
-    <t>言</t>
-  </si>
-  <si>
-    <t>皆</t>
-  </si>
-  <si>
-    <t>歎</t>
-  </si>
-  <si>
-    <t>惋</t>
-  </si>
-  <si>
-    <t>餘</t>
-  </si>
-  <si>
-    <t>各</t>
-  </si>
-  <si>
-    <t>延</t>
-  </si>
-  <si>
-    <t>至</t>
-  </si>
-  <si>
-    <t>停</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>辭</t>
-  </si>
-  <si>
-    <t>去</t>
-  </si>
-  <si>
-    <t>語</t>
-  </si>
-  <si>
-    <t>足</t>
-  </si>
-  <si>
-    <t>道</t>
-  </si>
-  <si>
-    <t>也</t>
-  </si>
-  <si>
-    <t>既</t>
-  </si>
-  <si>
-    <t>扶</t>
-  </si>
-  <si>
-    <t>向</t>
-  </si>
-  <si>
-    <t>處</t>
-  </si>
-  <si>
-    <t>誌</t>
-  </si>
-  <si>
-    <t>及</t>
-  </si>
-  <si>
-    <t>郡</t>
-  </si>
-  <si>
-    <t>下</t>
-  </si>
-  <si>
-    <t>詣</t>
-  </si>
-  <si>
-    <t>守</t>
-  </si>
-  <si>
-    <t>說</t>
-  </si>
-  <si>
-    <t>即</t>
-  </si>
-  <si>
-    <t>遣</t>
-  </si>
-  <si>
-    <t>隨</t>
-  </si>
-  <si>
-    <t>尋</t>
-  </si>
-  <si>
-    <t>迷</t>
-  </si>
-  <si>
-    <t>南</t>
-  </si>
-  <si>
-    <t>陽</t>
-  </si>
-  <si>
-    <t>劉</t>
-  </si>
-  <si>
-    <t>驥</t>
-  </si>
-  <si>
-    <t>高</t>
-  </si>
-  <si>
-    <t>尚</t>
-  </si>
-  <si>
-    <t>士</t>
-  </si>
-  <si>
-    <t>欣</t>
-  </si>
-  <si>
-    <t>規</t>
-  </si>
-  <si>
-    <t>未</t>
-  </si>
-  <si>
-    <t>果</t>
-  </si>
-  <si>
-    <t>病</t>
-  </si>
-  <si>
-    <t>終</t>
-  </si>
-  <si>
-    <t>後</t>
-  </si>
-  <si>
-    <t>津</t>
-  </si>
-  <si>
-    <t>者</t>
+    <t>悲</t>
+  </si>
+  <si>
+    <t>故</t>
+  </si>
+  <si>
+    <t>錄</t>
+  </si>
+  <si>
+    <t>述</t>
+  </si>
+  <si>
+    <t>致</t>
+  </si>
+  <si>
+    <t>斯</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="79">
+  <fonts count="82">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2303,6 +2296,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="吳守禮細明台語注音"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Microsoft YaHei"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2474,7 +2488,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2758,8 +2772,11 @@
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
@@ -2776,6 +2793,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="81" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2783,7 +2803,463 @@
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{AF644068-9C78-42CD-96C0-AD9C8A3B8BDE}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3418,10 +3894,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B1:C10"/>
+  <dimension ref="B1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -3461,7 +3937,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3512,11 +3988,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="99" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>242</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{DE2F131F-8109-4114-9E19-8669EDE792F8}">
       <formula1>"TRUE, FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{6056E438-7F02-4F64-9ACE-4A66972C21FC}">
+      <formula1>"白話音, 文讀音"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3527,8 +4014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A110" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -3563,7 +4050,7 @@
       <c r="S2" s="91"/>
       <c r="V2" s="59">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="2:29" s="64" customFormat="1" ht="60" customHeight="1">
@@ -3585,8 +4072,8 @@
       <c r="Q3" s="83"/>
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
-      <c r="V3" s="98" t="s">
-        <v>184</v>
+      <c r="V3" s="105" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
@@ -3607,59 +4094,59 @@
       <c r="Q4" s="84"/>
       <c r="R4" s="84"/>
       <c r="S4" s="93"/>
-      <c r="V4" s="99"/>
+      <c r="V4" s="100"/>
     </row>
     <row r="5" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
         <v>1</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="F5" s="80" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="K5" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="L5" s="80" t="s">
+        <v>252</v>
+      </c>
+      <c r="M5" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="N5" s="80" t="s">
+        <v>253</v>
+      </c>
+      <c r="O5" s="80" t="s">
+        <v>254</v>
+      </c>
+      <c r="P5" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="80" t="s">
-        <v>189</v>
-      </c>
-      <c r="H5" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="I5" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="J5" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="K5" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="L5" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="M5" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="N5" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="O5" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="P5" s="80" t="s">
-        <v>197</v>
-      </c>
       <c r="Q5" s="80" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="R5" s="80" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="S5" s="94"/>
-      <c r="V5" s="99"/>
+      <c r="V5" s="100"/>
     </row>
     <row r="6" spans="2:29" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
@@ -3680,7 +4167,7 @@
       <c r="Q6" s="85"/>
       <c r="R6" s="85"/>
       <c r="S6" s="95"/>
-      <c r="V6" s="99"/>
+      <c r="V6" s="100"/>
     </row>
     <row r="7" spans="2:29" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -3701,7 +4188,7 @@
       <c r="Q7" s="83"/>
       <c r="R7" s="83"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="100"/>
     </row>
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
@@ -3721,7 +4208,7 @@
       <c r="Q8" s="84"/>
       <c r="R8" s="84"/>
       <c r="S8" s="93"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="100"/>
     </row>
     <row r="9" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -3729,53 +4216,53 @@
         <v>2</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="H9" s="80" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="J9" s="80" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="K9" s="80" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="L9" s="80" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="M9" s="80" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="N9" s="80" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="O9" s="80" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="P9" s="80" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="Q9" s="80" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="R9" s="80" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="S9" s="94"/>
       <c r="T9" s="92"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="100"/>
     </row>
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
@@ -3795,7 +4282,7 @@
       <c r="Q10" s="85"/>
       <c r="R10" s="85"/>
       <c r="S10" s="96"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="100"/>
     </row>
     <row r="11" spans="2:29" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
@@ -3815,7 +4302,7 @@
       <c r="P11" s="83"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="83"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="100"/>
     </row>
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
@@ -3835,7 +4322,7 @@
       <c r="Q12" s="84"/>
       <c r="R12" s="84"/>
       <c r="S12" s="93"/>
-      <c r="V12" s="99"/>
+      <c r="V12" s="100"/>
     </row>
     <row r="13" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
@@ -3843,52 +4330,52 @@
         <v>3</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="F13" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="80" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="J13" s="80" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="L13" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="M13" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="N13" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="G13" s="80" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13" s="80" t="s">
-        <v>216</v>
-      </c>
-      <c r="I13" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="J13" s="80" t="s">
-        <v>218</v>
-      </c>
-      <c r="K13" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="L13" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="M13" s="80" t="s">
-        <v>219</v>
-      </c>
-      <c r="N13" s="80" t="s">
-        <v>220</v>
-      </c>
-      <c r="O13" s="80" t="s">
-        <v>221</v>
+      <c r="O13" s="98" t="s">
+        <v>207</v>
       </c>
       <c r="P13" s="80" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="80" t="s">
-        <v>222</v>
-      </c>
-      <c r="R13" s="80" t="s">
-        <v>223</v>
+        <v>270</v>
+      </c>
+      <c r="R13" s="98" t="s">
+        <v>199</v>
       </c>
       <c r="S13" s="94"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="100"/>
     </row>
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
@@ -3908,7 +4395,7 @@
       <c r="Q14" s="85"/>
       <c r="R14" s="85"/>
       <c r="S14" s="96"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="100"/>
     </row>
     <row r="15" spans="2:29" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -3928,9 +4415,9 @@
       <c r="P15" s="83"/>
       <c r="Q15" s="83"/>
       <c r="R15" s="83"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="100"/>
       <c r="AC15" s="67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
@@ -3951,7 +4438,7 @@
       <c r="Q16" s="84"/>
       <c r="R16" s="84"/>
       <c r="S16" s="93"/>
-      <c r="V16" s="99"/>
+      <c r="V16" s="100"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -3959,52 +4446,52 @@
         <v>4</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="H17" s="80" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="I17" s="80" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="J17" s="80" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="K17" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="L17" s="80" t="s">
-        <v>230</v>
+        <v>189</v>
+      </c>
+      <c r="L17" s="98" t="s">
+        <v>275</v>
       </c>
       <c r="M17" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="N17" s="80" t="s">
-        <v>231</v>
+        <v>200</v>
+      </c>
+      <c r="N17" s="98" t="s">
+        <v>276</v>
       </c>
       <c r="O17" s="80" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="P17" s="80" t="s">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="Q17" s="80" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="R17" s="80" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="S17" s="94"/>
-      <c r="V17" s="99"/>
+      <c r="V17" s="100"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
@@ -4024,7 +4511,7 @@
       <c r="Q18" s="85"/>
       <c r="R18" s="85"/>
       <c r="S18" s="96"/>
-      <c r="V18" s="99"/>
+      <c r="V18" s="100"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -4044,7 +4531,7 @@
       <c r="P19" s="83"/>
       <c r="Q19" s="83"/>
       <c r="R19" s="83"/>
-      <c r="V19" s="99"/>
+      <c r="V19" s="100"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
@@ -4064,46 +4551,60 @@
       <c r="Q20" s="84"/>
       <c r="R20" s="84"/>
       <c r="S20" s="93"/>
-      <c r="V20" s="99"/>
+      <c r="V20" s="100"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="80" t="s">
-        <v>235</v>
+      <c r="D21" s="98" t="s">
+        <v>280</v>
       </c>
       <c r="E21" s="80" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="F21" s="80" t="s">
-        <v>192</v>
+        <v>282</v>
       </c>
       <c r="G21" s="80" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="H21" s="80" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="I21" s="80" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="J21" s="80" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="K21" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
+        <v>187</v>
+      </c>
+      <c r="L21" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="M21" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="N21" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="O21" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="P21" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q21" s="80" t="s">
+        <v>288</v>
+      </c>
+      <c r="R21" s="80" t="s">
+        <v>289</v>
+      </c>
       <c r="S21" s="94"/>
-      <c r="V21" s="99"/>
+      <c r="V21" s="100"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
@@ -4123,7 +4624,7 @@
       <c r="Q22" s="85"/>
       <c r="R22" s="85"/>
       <c r="S22" s="96"/>
-      <c r="V22" s="100"/>
+      <c r="V22" s="101"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -4170,21 +4671,51 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
+      <c r="D25" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="80" t="s">
+        <v>290</v>
+      </c>
+      <c r="F25" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="H25" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="J25" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="K25" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="L25" s="80" t="s">
+        <v>294</v>
+      </c>
+      <c r="M25" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="N25" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="O25" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="P25" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q25" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="R25" s="80" t="s">
+        <v>198</v>
+      </c>
       <c r="S25" s="94"/>
       <c r="V25" s="60"/>
     </row>
@@ -4266,50 +4797,40 @@
         <v>7</v>
       </c>
       <c r="D29" s="80" t="s">
-        <v>187</v>
+        <v>296</v>
       </c>
       <c r="E29" s="80" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F29" s="80" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="G29" s="80" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H29" s="80" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="I29" s="80" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="J29" s="80" t="s">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="K29" s="80" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="L29" s="80" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="M29" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="N29" s="80" t="s">
-        <v>245</v>
-      </c>
-      <c r="O29" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="P29" s="80" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q29" s="80" t="s">
-        <v>246</v>
-      </c>
-      <c r="R29" s="80" t="s">
-        <v>247</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
       <c r="S29" s="94"/>
       <c r="U29" s="67" t="str">
         <f t="shared" si="0"/>
@@ -4394,51 +4915,21 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="80" t="s">
-        <v>248</v>
-      </c>
-      <c r="E33" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="G33" s="80" t="s">
-        <v>250</v>
-      </c>
-      <c r="H33" s="80" t="s">
-        <v>251</v>
-      </c>
-      <c r="I33" s="80" t="s">
-        <v>246</v>
-      </c>
-      <c r="J33" s="80" t="s">
-        <v>252</v>
-      </c>
-      <c r="K33" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="L33" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="M33" s="80" t="s">
-        <v>253</v>
-      </c>
-      <c r="N33" s="80" t="s">
-        <v>254</v>
-      </c>
-      <c r="O33" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="P33" s="80" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q33" s="80" t="s">
-        <v>248</v>
-      </c>
-      <c r="R33" s="80" t="s">
-        <v>256</v>
-      </c>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="80"/>
       <c r="S33" s="94"/>
       <c r="V33" s="60"/>
     </row>
@@ -4508,49 +4999,49 @@
         <v>9</v>
       </c>
       <c r="D37" s="80" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E37" s="80" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="F37" s="80" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="G37" s="80" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="H37" s="80" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="I37" s="80" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="J37" s="80" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="K37" s="80" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="L37" s="80" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="M37" s="80" t="s">
-        <v>234</v>
+        <v>304</v>
       </c>
       <c r="N37" s="80" t="s">
-        <v>202</v>
+        <v>305</v>
       </c>
       <c r="O37" s="80" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="P37" s="80" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="Q37" s="80" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="R37" s="80" t="s">
-        <v>192</v>
+        <v>306</v>
       </c>
       <c r="S37" s="94"/>
       <c r="V37" s="60"/>
@@ -4621,49 +5112,49 @@
         <v>10</v>
       </c>
       <c r="D41" s="80" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="E41" s="80" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="F41" s="80" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="G41" s="80" t="s">
-        <v>266</v>
+        <v>188</v>
       </c>
       <c r="H41" s="80" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="I41" s="80" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
       <c r="J41" s="80" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="K41" s="80" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="L41" s="80" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="M41" s="80" t="s">
-        <v>192</v>
+        <v>314</v>
       </c>
       <c r="N41" s="80" t="s">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="O41" s="80" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="P41" s="80" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="Q41" s="80" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="R41" s="80" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="S41" s="94"/>
       <c r="V41" s="60"/>
@@ -4734,49 +5225,49 @@
         <v>11</v>
       </c>
       <c r="D45" s="80" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="E45" s="80" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="F45" s="80" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="G45" s="80" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="H45" s="80" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="I45" s="80" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="J45" s="80" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="K45" s="80" t="s">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="L45" s="80" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="M45" s="80" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="N45" s="80" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="O45" s="80" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="P45" s="80" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="Q45" s="80" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="R45" s="80" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="S45" s="94"/>
       <c r="V45" s="60"/>
@@ -4847,50 +5338,26 @@
         <v>12</v>
       </c>
       <c r="D49" s="80" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="E49" s="80" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="F49" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="G49" s="80" t="s">
-        <v>283</v>
-      </c>
-      <c r="H49" s="80" t="s">
-        <v>284</v>
-      </c>
-      <c r="I49" s="80" t="s">
-        <v>285</v>
-      </c>
-      <c r="J49" s="80" t="s">
-        <v>286</v>
-      </c>
-      <c r="K49" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="L49" s="80" t="s">
-        <v>238</v>
-      </c>
-      <c r="M49" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="N49" s="80" t="s">
-        <v>287</v>
-      </c>
-      <c r="O49" s="80" t="s">
-        <v>288</v>
-      </c>
-      <c r="P49" s="80" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q49" s="80" t="s">
-        <v>290</v>
-      </c>
-      <c r="R49" s="80" t="s">
-        <v>192</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="80"/>
+      <c r="R49" s="80"/>
       <c r="S49" s="94"/>
       <c r="V49" s="60"/>
     </row>
@@ -4959,51 +5426,21 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="80" t="s">
-        <v>291</v>
-      </c>
-      <c r="E53" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="F53" s="80" t="s">
-        <v>293</v>
-      </c>
-      <c r="G53" s="81" t="s">
-        <v>294</v>
-      </c>
-      <c r="H53" s="81" t="s">
-        <v>192</v>
-      </c>
-      <c r="I53" s="80" t="s">
-        <v>295</v>
-      </c>
-      <c r="J53" s="80" t="s">
-        <v>296</v>
-      </c>
-      <c r="K53" s="80" t="s">
-        <v>297</v>
-      </c>
-      <c r="L53" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="M53" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="N53" s="80" t="s">
-        <v>298</v>
-      </c>
-      <c r="O53" s="80" t="s">
-        <v>299</v>
-      </c>
-      <c r="P53" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q53" s="80" t="s">
-        <v>301</v>
-      </c>
-      <c r="R53" s="80" t="s">
-        <v>192</v>
-      </c>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="80"/>
+      <c r="M53" s="80"/>
+      <c r="N53" s="80"/>
+      <c r="O53" s="80"/>
+      <c r="P53" s="80"/>
+      <c r="Q53" s="80"/>
+      <c r="R53" s="80"/>
       <c r="S53" s="94"/>
       <c r="V53" s="60"/>
     </row>
@@ -5073,49 +5510,49 @@
         <v>14</v>
       </c>
       <c r="D57" s="80" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="E57" s="80" t="s">
-        <v>303</v>
+        <v>186</v>
       </c>
       <c r="F57" s="80" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="G57" s="81" t="s">
-        <v>304</v>
+        <v>208</v>
       </c>
       <c r="H57" s="80" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="I57" s="80" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="J57" s="80" t="s">
+        <v>311</v>
+      </c>
+      <c r="K57" s="80" t="s">
         <v>306</v>
       </c>
-      <c r="K57" s="80" t="s">
-        <v>230</v>
-      </c>
       <c r="L57" s="80" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M57" s="80" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="N57" s="80" t="s">
-        <v>307</v>
+        <v>185</v>
       </c>
       <c r="O57" s="80" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="P57" s="80" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="Q57" s="80" t="s">
-        <v>192</v>
+        <v>327</v>
       </c>
       <c r="R57" s="80" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="S57" s="94"/>
       <c r="V57" s="60"/>
@@ -5186,49 +5623,49 @@
         <v>15</v>
       </c>
       <c r="D61" s="80" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="E61" s="80" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="F61" s="80" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="G61" s="81" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="H61" s="80" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="I61" s="80" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="J61" s="80" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="K61" s="80" t="s">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="L61" s="80" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="M61" s="80" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="N61" s="80" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="O61" s="80" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="P61" s="80" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="Q61" s="80" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="R61" s="80" t="s">
-        <v>318</v>
+        <v>185</v>
       </c>
       <c r="S61" s="94"/>
       <c r="V61" s="60"/>
@@ -5299,49 +5736,49 @@
         <v>16</v>
       </c>
       <c r="D65" s="80" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="E65" s="80" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="F65" s="80" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="G65" s="81" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="H65" s="80" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="I65" s="80" t="s">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="J65" s="80" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="K65" s="80" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="L65" s="80" t="s">
-        <v>191</v>
+        <v>339</v>
       </c>
       <c r="M65" s="80" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="N65" s="80" t="s">
-        <v>246</v>
+        <v>340</v>
       </c>
       <c r="O65" s="80" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="P65" s="80" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="Q65" s="80" t="s">
-        <v>192</v>
+        <v>342</v>
       </c>
       <c r="R65" s="80" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="S65" s="94"/>
       <c r="V65" s="60"/>
@@ -5412,49 +5849,49 @@
         <v>17</v>
       </c>
       <c r="D69" s="80" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="E69" s="80" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="F69" s="80" t="s">
-        <v>324</v>
+        <v>185</v>
       </c>
       <c r="G69" s="81" t="s">
-        <v>233</v>
+        <v>345</v>
       </c>
       <c r="H69" s="80" t="s">
-        <v>304</v>
+        <v>194</v>
       </c>
       <c r="I69" s="80" t="s">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="J69" s="80" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="K69" s="80" t="s">
-        <v>327</v>
+        <v>213</v>
       </c>
       <c r="L69" s="80" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="M69" s="80" t="s">
-        <v>329</v>
+        <v>185</v>
       </c>
       <c r="N69" s="80" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="O69" s="80" t="s">
-        <v>331</v>
+        <v>197</v>
       </c>
       <c r="P69" s="80" t="s">
-        <v>332</v>
+        <v>256</v>
       </c>
       <c r="Q69" s="80" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="R69" s="80" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="S69" s="94"/>
       <c r="V69" s="60"/>
@@ -5525,49 +5962,49 @@
         <v>18</v>
       </c>
       <c r="D73" s="80" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="E73" s="80" t="s">
-        <v>335</v>
+        <v>205</v>
       </c>
       <c r="F73" s="80" t="s">
-        <v>336</v>
+        <v>211</v>
       </c>
       <c r="G73" s="81" t="s">
-        <v>337</v>
+        <v>230</v>
       </c>
       <c r="H73" s="80" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="I73" s="80" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="J73" s="80" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="K73" s="80" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="L73" s="80" t="s">
-        <v>339</v>
+        <v>188</v>
       </c>
       <c r="M73" s="80" t="s">
-        <v>192</v>
+        <v>352</v>
       </c>
       <c r="N73" s="80" t="s">
-        <v>340</v>
+        <v>228</v>
       </c>
       <c r="O73" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="P73" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="P73" s="80" t="s">
-        <v>341</v>
-      </c>
       <c r="Q73" s="80" t="s">
-        <v>342</v>
+        <v>194</v>
       </c>
       <c r="R73" s="80" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="S73" s="94"/>
       <c r="V73" s="60"/>
@@ -5638,49 +6075,49 @@
         <v>19</v>
       </c>
       <c r="D77" s="80" t="s">
-        <v>343</v>
+        <v>188</v>
       </c>
       <c r="E77" s="80" t="s">
-        <v>344</v>
+        <v>232</v>
       </c>
       <c r="F77" s="80" t="s">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="G77" s="81" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="H77" s="80" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="I77" s="80" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="J77" s="80" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="K77" s="80" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="L77" s="80" t="s">
-        <v>310</v>
+        <v>185</v>
       </c>
       <c r="M77" s="80" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="N77" s="80" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="O77" s="80" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="P77" s="80" t="s">
-        <v>350</v>
+        <v>188</v>
       </c>
       <c r="Q77" s="80" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="R77" s="80" t="s">
-        <v>351</v>
+        <v>193</v>
       </c>
       <c r="S77" s="94"/>
       <c r="V77" s="60"/>
@@ -5751,49 +6188,49 @@
         <v>20</v>
       </c>
       <c r="D81" s="80" t="s">
-        <v>347</v>
+        <v>233</v>
       </c>
       <c r="E81" s="80" t="s">
-        <v>307</v>
+        <v>188</v>
       </c>
       <c r="F81" s="80" t="s">
-        <v>340</v>
+        <v>213</v>
       </c>
       <c r="G81" s="80" t="s">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="H81" s="80" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="I81" s="80" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="J81" s="80" t="s">
-        <v>192</v>
+        <v>306</v>
       </c>
       <c r="K81" s="80" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="L81" s="80" t="s">
-        <v>354</v>
+        <v>223</v>
       </c>
       <c r="M81" s="80" t="s">
-        <v>355</v>
+        <v>185</v>
       </c>
       <c r="N81" s="80" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="O81" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P81" s="80" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q81" s="80" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="R81" s="80" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="S81" s="94"/>
       <c r="V81" s="60"/>
@@ -5864,49 +6301,49 @@
         <v>21</v>
       </c>
       <c r="D85" s="80" t="s">
-        <v>244</v>
+        <v>362</v>
       </c>
       <c r="E85" s="80" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="F85" s="80" t="s">
-        <v>198</v>
+        <v>363</v>
       </c>
       <c r="G85" s="81" t="s">
-        <v>312</v>
+        <v>221</v>
       </c>
       <c r="H85" s="80" t="s">
-        <v>357</v>
+        <v>285</v>
       </c>
       <c r="I85" s="80" t="s">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="J85" s="80" t="s">
-        <v>286</v>
+        <v>364</v>
       </c>
       <c r="K85" s="80" t="s">
-        <v>192</v>
+        <v>318</v>
       </c>
       <c r="L85" s="80" t="s">
-        <v>358</v>
+        <v>189</v>
       </c>
       <c r="M85" s="80" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="N85" s="80" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="O85" s="80" t="s">
-        <v>233</v>
+        <v>367</v>
       </c>
       <c r="P85" s="80" t="s">
-        <v>361</v>
+        <v>235</v>
       </c>
       <c r="Q85" s="80" t="s">
-        <v>195</v>
+        <v>368</v>
       </c>
       <c r="R85" s="80" t="s">
-        <v>362</v>
+        <v>185</v>
       </c>
       <c r="S85" s="94"/>
       <c r="V85" s="60"/>
@@ -5977,49 +6414,49 @@
         <v>22</v>
       </c>
       <c r="D89" s="80" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E89" s="80" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F89" s="80" t="s">
-        <v>364</v>
+        <v>256</v>
       </c>
       <c r="G89" s="80" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="H89" s="80" t="s">
-        <v>316</v>
+        <v>193</v>
       </c>
       <c r="I89" s="80" t="s">
-        <v>192</v>
+        <v>370</v>
       </c>
       <c r="J89" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="K89" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="L89" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="M89" s="80" t="s">
+        <v>218</v>
+      </c>
+      <c r="N89" s="80" t="s">
+        <v>371</v>
+      </c>
+      <c r="O89" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="P89" s="80" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q89" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="R89" s="80" t="s">
         <v>358</v>
-      </c>
-      <c r="K89" s="80" t="s">
-        <v>341</v>
-      </c>
-      <c r="L89" s="80" t="s">
-        <v>318</v>
-      </c>
-      <c r="M89" s="80" t="s">
-        <v>320</v>
-      </c>
-      <c r="N89" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="O89" s="80" t="s">
-        <v>365</v>
-      </c>
-      <c r="P89" s="80" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q89" s="80" t="s">
-        <v>366</v>
-      </c>
-      <c r="R89" s="80" t="s">
-        <v>192</v>
       </c>
       <c r="S89" s="94"/>
       <c r="V89" s="60"/>
@@ -6090,50 +6527,34 @@
         <v>23</v>
       </c>
       <c r="D93" s="80" t="s">
-        <v>367</v>
+        <v>193</v>
       </c>
       <c r="E93" s="80" t="s">
-        <v>368</v>
+        <v>224</v>
       </c>
       <c r="F93" s="80" t="s">
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="G93" s="81" t="s">
-        <v>322</v>
+        <v>221</v>
       </c>
       <c r="H93" s="80" t="s">
-        <v>191</v>
+        <v>374</v>
       </c>
       <c r="I93" s="80" t="s">
-        <v>195</v>
+        <v>375</v>
       </c>
       <c r="J93" s="80" t="s">
-        <v>369</v>
-      </c>
-      <c r="K93" s="80" t="s">
-        <v>325</v>
-      </c>
-      <c r="L93" s="80" t="s">
-        <v>326</v>
-      </c>
-      <c r="M93" s="80" t="s">
-        <v>327</v>
-      </c>
-      <c r="N93" s="80" t="s">
-        <v>340</v>
-      </c>
-      <c r="O93" s="80" t="s">
-        <v>370</v>
-      </c>
-      <c r="P93" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q93" s="80" t="s">
-        <v>297</v>
-      </c>
-      <c r="R93" s="80" t="s">
-        <v>195</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="K93" s="80"/>
+      <c r="L93" s="80"/>
+      <c r="M93" s="80"/>
+      <c r="N93" s="80"/>
+      <c r="O93" s="80"/>
+      <c r="P93" s="80"/>
+      <c r="Q93" s="80"/>
+      <c r="R93" s="80"/>
       <c r="S93" s="94"/>
       <c r="V93" s="60"/>
     </row>
@@ -6202,18 +6623,10 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="80" t="s">
-        <v>371</v>
-      </c>
-      <c r="E97" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="F97" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="G97" s="81" t="s">
-        <v>347</v>
-      </c>
+      <c r="D97" s="80"/>
+      <c r="E97" s="80"/>
+      <c r="F97" s="80"/>
+      <c r="G97" s="81"/>
       <c r="H97" s="80"/>
       <c r="I97" s="80"/>
       <c r="J97" s="80"/>
@@ -6293,21 +6706,51 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="80"/>
-      <c r="E101" s="80"/>
-      <c r="F101" s="80"/>
-      <c r="G101" s="81"/>
-      <c r="H101" s="80"/>
-      <c r="I101" s="80"/>
-      <c r="J101" s="80"/>
-      <c r="K101" s="80"/>
-      <c r="L101" s="80"/>
-      <c r="M101" s="80"/>
-      <c r="N101" s="80"/>
-      <c r="O101" s="80"/>
-      <c r="P101" s="80"/>
-      <c r="Q101" s="80"/>
-      <c r="R101" s="80"/>
+      <c r="D101" s="80" t="s">
+        <v>376</v>
+      </c>
+      <c r="E101" s="80" t="s">
+        <v>377</v>
+      </c>
+      <c r="F101" s="80" t="s">
+        <v>378</v>
+      </c>
+      <c r="G101" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="H101" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="I101" s="80" t="s">
+        <v>355</v>
+      </c>
+      <c r="J101" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="K101" s="80" t="s">
+        <v>379</v>
+      </c>
+      <c r="L101" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="M101" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="N101" s="80" t="s">
+        <v>380</v>
+      </c>
+      <c r="O101" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="P101" s="80" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q101" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="R101" s="80" t="s">
+        <v>237</v>
+      </c>
       <c r="S101" s="94"/>
       <c r="V101" s="60"/>
     </row>
@@ -6377,49 +6820,49 @@
         <v>26</v>
       </c>
       <c r="D105" s="80" t="s">
-        <v>187</v>
+        <v>382</v>
       </c>
       <c r="E105" s="80" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="F105" s="80" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="G105" s="81" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="H105" s="80" t="s">
-        <v>192</v>
+        <v>385</v>
       </c>
       <c r="I105" s="80" t="s">
-        <v>243</v>
+        <v>386</v>
       </c>
       <c r="J105" s="80" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="K105" s="80" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="L105" s="80" t="s">
-        <v>192</v>
+        <v>363</v>
       </c>
       <c r="M105" s="80" t="s">
-        <v>242</v>
+        <v>387</v>
       </c>
       <c r="N105" s="80" t="s">
-        <v>374</v>
+        <v>188</v>
       </c>
       <c r="O105" s="80" t="s">
-        <v>375</v>
+        <v>256</v>
       </c>
       <c r="P105" s="80" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="Q105" s="80" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R105" s="80" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="S105" s="94"/>
       <c r="V105" s="60"/>
@@ -6490,49 +6933,49 @@
         <v>27</v>
       </c>
       <c r="D109" s="80" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="E109" s="80" t="s">
-        <v>377</v>
+        <v>198</v>
       </c>
       <c r="F109" s="80" t="s">
-        <v>205</v>
+        <v>371</v>
       </c>
       <c r="G109" s="80" t="s">
-        <v>233</v>
+        <v>372</v>
       </c>
       <c r="H109" s="80" t="s">
-        <v>378</v>
+        <v>187</v>
       </c>
       <c r="I109" s="80" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="J109" s="80" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="K109" s="80" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L109" s="80" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="M109" s="80" t="s">
-        <v>189</v>
+        <v>392</v>
       </c>
       <c r="N109" s="80" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="O109" s="80" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P109" s="80" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="Q109" s="80" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="R109" s="80" t="s">
-        <v>322</v>
+        <v>193</v>
       </c>
       <c r="S109" s="94"/>
       <c r="V109" s="60"/>
@@ -6603,49 +7046,49 @@
         <v>28</v>
       </c>
       <c r="D113" s="80" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E113" s="80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F113" s="80" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="G113" s="80" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="H113" s="80" t="s">
-        <v>385</v>
+        <v>185</v>
       </c>
       <c r="I113" s="80" t="s">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="J113" s="80" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="K113" s="80" t="s">
-        <v>238</v>
+        <v>395</v>
       </c>
       <c r="L113" s="80" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="M113" s="80" t="s">
-        <v>192</v>
+        <v>319</v>
       </c>
       <c r="N113" s="80" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="O113" s="80" t="s">
-        <v>375</v>
+        <v>185</v>
       </c>
       <c r="P113" s="80" t="s">
-        <v>311</v>
+        <v>396</v>
       </c>
       <c r="Q113" s="80" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="R113" s="80" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="S113" s="94"/>
       <c r="V113" s="60"/>
@@ -6716,34 +7159,50 @@
         <v>29</v>
       </c>
       <c r="D117" s="80" t="s">
-        <v>343</v>
+        <v>397</v>
       </c>
       <c r="E117" s="80" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="F117" s="80" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="G117" s="81" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="H117" s="80" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="I117" s="80" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="J117" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="K117" s="80"/>
-      <c r="L117" s="80"/>
-      <c r="M117" s="80"/>
-      <c r="N117" s="80"/>
-      <c r="O117" s="80"/>
-      <c r="P117" s="80"/>
-      <c r="Q117" s="80"/>
-      <c r="R117" s="80"/>
+        <v>398</v>
+      </c>
+      <c r="K117" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="L117" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="M117" s="80" t="s">
+        <v>399</v>
+      </c>
+      <c r="N117" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="O117" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="P117" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q117" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="R117" s="80" t="s">
+        <v>263</v>
+      </c>
       <c r="S117" s="94"/>
       <c r="V117" s="60"/>
     </row>
@@ -6812,21 +7271,51 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="80"/>
-      <c r="E121" s="80"/>
-      <c r="F121" s="80"/>
-      <c r="G121" s="81"/>
-      <c r="H121" s="80"/>
-      <c r="I121" s="80"/>
-      <c r="J121" s="80"/>
-      <c r="K121" s="80"/>
-      <c r="L121" s="80"/>
-      <c r="M121" s="80"/>
-      <c r="N121" s="80"/>
-      <c r="O121" s="80"/>
-      <c r="P121" s="80"/>
-      <c r="Q121" s="80"/>
-      <c r="R121" s="80"/>
+      <c r="D121" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="E121" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="F121" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="G121" s="81" t="s">
+        <v>285</v>
+      </c>
+      <c r="H121" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="I121" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="J121" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="K121" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="L121" s="80" t="s">
+        <v>400</v>
+      </c>
+      <c r="M121" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="N121" s="80" t="s">
+        <v>231</v>
+      </c>
+      <c r="O121" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="P121" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q121" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="R121" s="80" t="s">
+        <v>377</v>
+      </c>
       <c r="S121" s="94"/>
       <c r="V121" s="60"/>
     </row>
@@ -6896,50 +7385,40 @@
         <v>31</v>
       </c>
       <c r="D125" s="80" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="E125" s="80" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F125" s="80" t="s">
-        <v>389</v>
+        <v>297</v>
       </c>
       <c r="G125" s="81" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="H125" s="80" t="s">
-        <v>391</v>
+        <v>200</v>
       </c>
       <c r="I125" s="80" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="J125" s="80" t="s">
-        <v>392</v>
+        <v>256</v>
       </c>
       <c r="K125" s="80" t="s">
-        <v>192</v>
+        <v>401</v>
       </c>
       <c r="L125" s="80" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="M125" s="80" t="s">
-        <v>394</v>
-      </c>
-      <c r="N125" s="80" t="s">
-        <v>395</v>
-      </c>
-      <c r="O125" s="80" t="s">
-        <v>372</v>
-      </c>
-      <c r="P125" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q125" s="80" t="s">
-        <v>286</v>
-      </c>
-      <c r="R125" s="80" t="s">
-        <v>205</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N125" s="80"/>
+      <c r="O125" s="80"/>
+      <c r="P125" s="80"/>
+      <c r="Q125" s="80"/>
+      <c r="R125" s="80"/>
       <c r="S125" s="94"/>
       <c r="V125" s="60"/>
     </row>
@@ -7008,51 +7487,21 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="E129" s="80" t="s">
-        <v>396</v>
-      </c>
-      <c r="F129" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="G129" s="81" t="s">
-        <v>397</v>
-      </c>
-      <c r="H129" s="80" t="s">
-        <v>287</v>
-      </c>
-      <c r="I129" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="J129" s="80" t="s">
-        <v>398</v>
-      </c>
-      <c r="K129" s="80" t="s">
-        <v>399</v>
-      </c>
-      <c r="L129" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="M129" s="80" t="s">
-        <v>387</v>
-      </c>
-      <c r="N129" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="O129" s="80" t="s">
-        <v>401</v>
-      </c>
-      <c r="P129" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q129" s="80" t="s">
-        <v>402</v>
-      </c>
-      <c r="R129" s="80" t="s">
-        <v>343</v>
-      </c>
+      <c r="D129" s="80"/>
+      <c r="E129" s="80"/>
+      <c r="F129" s="80"/>
+      <c r="G129" s="81"/>
+      <c r="H129" s="80"/>
+      <c r="I129" s="80"/>
+      <c r="J129" s="80"/>
+      <c r="K129" s="80"/>
+      <c r="L129" s="80"/>
+      <c r="M129" s="80"/>
+      <c r="N129" s="80"/>
+      <c r="O129" s="80"/>
+      <c r="P129" s="80"/>
+      <c r="Q129" s="98"/>
+      <c r="R129" s="80"/>
       <c r="S129" s="94"/>
       <c r="V129" s="60"/>
     </row>
@@ -7121,21 +7570,11 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="80" t="s">
-        <v>219</v>
-      </c>
-      <c r="E133" s="80" t="s">
-        <v>310</v>
-      </c>
-      <c r="F133" s="80" t="s">
-        <v>403</v>
-      </c>
-      <c r="G133" s="81" t="s">
-        <v>404</v>
-      </c>
-      <c r="H133" s="80" t="s">
-        <v>233</v>
-      </c>
+      <c r="D133" s="80"/>
+      <c r="E133" s="80"/>
+      <c r="F133" s="80"/>
+      <c r="G133" s="81"/>
+      <c r="H133" s="80"/>
       <c r="I133" s="80"/>
       <c r="J133" s="80"/>
       <c r="K133" s="80"/>
@@ -9340,42 +9779,194 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="9" priority="363">
+    <cfRule type="expression" dxfId="47" priority="401">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="364">
+    <cfRule type="expression" dxfId="46" priority="402">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:R7 D11:R11 D15:R15 D19:R19 D23:R23 D27:R27 D31:R31 D35:R35 D39:R39 D43:R43 D47:R47 D51:R51 D55:R55 D59:R59 D63:R63 D67:R67 D71:R71 D75:R75 D79:R79 D83:R83 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D107:R107 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="7" priority="7">
+  <conditionalFormatting sqref="D7:R7">
+    <cfRule type="expression" dxfId="45" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:R11">
+    <cfRule type="expression" dxfId="43" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="35">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:R15">
+    <cfRule type="expression" dxfId="41" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="33">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:R19">
+    <cfRule type="expression" dxfId="39" priority="31">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="5" priority="5">
+  <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
+    <cfRule type="expression" dxfId="37" priority="46">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:R27">
+    <cfRule type="expression" dxfId="35" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="29">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:R31">
+    <cfRule type="expression" dxfId="33" priority="28">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="27">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:R35">
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:R43">
+    <cfRule type="expression" dxfId="29" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="23">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:R47">
+    <cfRule type="expression" dxfId="27" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="21">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:R51">
+    <cfRule type="expression" dxfId="25" priority="19">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="20">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:R55">
+    <cfRule type="expression" dxfId="23" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="17">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:R59">
+    <cfRule type="expression" dxfId="21" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="15">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:R63">
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67:R67">
+    <cfRule type="expression" dxfId="17" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="11">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71:R71">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75:R75">
+    <cfRule type="expression" dxfId="13" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="7">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D79:R79">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83:R83">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107:R107">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
+    <cfRule type="expression" dxfId="5" priority="43">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="3" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="2" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="1" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9441,7 +10032,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -9459,7 +10050,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="102" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -9484,7 +10075,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="102"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -9504,7 +10095,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="102"/>
+      <c r="I6" s="103"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -9526,7 +10117,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="102"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -9542,7 +10133,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="102"/>
+      <c r="I7" s="103"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -9564,7 +10155,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="102"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -9580,7 +10171,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="102"/>
+      <c r="I8" s="103"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -9602,7 +10193,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="102"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9618,7 +10209,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="102"/>
+      <c r="I9" s="103"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9640,7 +10231,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="103"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -9656,7 +10247,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="103"/>
+      <c r="I10" s="104"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -9679,7 +10270,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="102" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -9697,7 +10288,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="101" t="s">
+      <c r="I11" s="102" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -9721,7 +10312,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="102"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -9741,7 +10332,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="102"/>
+      <c r="I12" s="103"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -9761,7 +10352,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="102"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -9775,7 +10366,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="102"/>
+      <c r="I13" s="103"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -9795,7 +10386,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="102"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -9809,7 +10400,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="102"/>
+      <c r="I14" s="103"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -9829,7 +10420,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="102"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -9843,7 +10434,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="102"/>
+      <c r="I15" s="103"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -9863,7 +10454,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="103"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -9877,7 +10468,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="103"/>
+      <c r="I16" s="104"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>
